--- a/PartBalance.xlsx
+++ b/PartBalance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Repulsor</t>
   </si>
@@ -107,9 +107,6 @@
     <t>mTorque</t>
   </si>
   <si>
-    <t>mPwr</t>
-  </si>
-  <si>
     <t>mRPM</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>max rpm</t>
+  </si>
+  <si>
+    <t>EC/s</t>
+  </si>
+  <si>
+    <t>mEff</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -563,21 +566,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,23 +697,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -745,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,1224 +1082,1279 @@
     <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="70.42578125" customWidth="1"/>
+    <col min="17" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="1" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="1" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="44"/>
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="W2" s="46"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="36" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="55">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="41"/>
+      <c r="Q3" s="9">
+        <f>IFERROR(O3/P3/60*D3*2*PI(), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="48">
+        <f>IFERROR(M3*P3/D3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f>0.5*M3*0.5*O3/9.5488/N3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U5" si="0">T3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="36"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14">
         <v>0.2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E4" s="14">
         <v>0.1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="14">
         <v>3.5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G4" s="14">
         <v>0.5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I4" s="14">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <f t="shared" ref="N3:N5" si="0">M3*1</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12">
-        <f>IFERROR(O3/P3/60*D3*2*PI(), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="13">
-        <f>IFERROR(M3*P3*D3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13">
-        <f t="shared" ref="T3:T5" si="1">S3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="39"/>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="56">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" ref="Q4:Q19" si="1">IFERROR(O4/P4/60*D4*2*PI(), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="49">
+        <f t="shared" ref="R4:R19" si="2">IFERROR(M4*P4/D4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <f t="shared" ref="S4:S19" si="3">0.5*M4*0.5*O4/9.5488/N4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="17">
-        <v>2</v>
-      </c>
-      <c r="I4" s="17">
-        <v>10</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="20">
-        <f t="shared" ref="Q4:Q19" si="2">IFERROR(O4/P4/60*D4*2*PI(), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="21">
-        <f t="shared" ref="R4:R19" si="3">IFERROR(M4*P4*D4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <v>0.2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>0.1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>0.75</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>0.5</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>10</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="56">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
         <v>0.375</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>0.04</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>0.15</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>0.1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>0.1</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>10</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <f>K6*D6*2*PI()/60</f>
         <v>23.561944901923447</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="40">
         <v>600</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="20">
-        <f>M6*1</f>
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="L6" s="20"/>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="56">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P6" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="1"/>
+        <v>24.543692606170257</v>
+      </c>
+      <c r="R6" s="49">
         <f t="shared" si="2"/>
-        <v>39.269908169872416</v>
-      </c>
-      <c r="R6" s="21">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="S6" s="18">
         <f t="shared" si="3"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="S6" s="19">
-        <v>0</v>
-      </c>
-      <c r="T6" s="21">
-        <f>S6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="4"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <f>T6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
         <v>0.09</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>0.04</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>0.15</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>0.1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>0.1</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>2.5</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <f t="shared" ref="J7:J19" si="4">K7*D7*2*PI()/60</f>
         <v>5.6548667764616276</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="40">
         <v>600</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" ref="N7:N19" si="5">M7*1</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="L7" s="20"/>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="56">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="21">
-        <f t="shared" ref="T7:T19" si="6">S7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="4"/>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" ref="U7:U19" si="5">T7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
         <v>0.25</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>0.04</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>0.05</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>0.1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>0.1</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>5</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <f t="shared" si="4"/>
         <v>15.707963267948966</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="40">
         <v>600</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="L8" s="20"/>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
+      <c r="N8" s="56">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="1"/>
+        <v>16.362461737446839</v>
+      </c>
+      <c r="R8" s="49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T8" s="16">
+        <v>70</v>
+      </c>
+      <c r="U8" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="17">
-        <v>1200</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="2"/>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="R8" s="21">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S8" s="19">
-        <v>70</v>
-      </c>
-      <c r="T8" s="21">
-        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
-      <c r="U8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14">
         <v>0.25</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>0.04</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>0.1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>0.1</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="14">
         <v>2.5</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <f t="shared" si="4"/>
         <v>15.707963267948966</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="40">
         <v>600</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="L9" s="20"/>
+      <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="56">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P9" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="1"/>
+        <v>16.362461737446839</v>
+      </c>
+      <c r="R9" s="49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T9" s="16">
+        <v>70</v>
+      </c>
+      <c r="U9" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="17">
-        <v>600</v>
-      </c>
-      <c r="P9" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="2"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="R9" s="21">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S9" s="19">
-        <v>70</v>
-      </c>
-      <c r="T9" s="21">
-        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
-      <c r="U9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <v>0.3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>0.04</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>0.125</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>0.1</v>
       </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17">
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
         <v>5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <f t="shared" si="4"/>
         <v>18.849555921538759</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="40">
         <v>600</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N10" s="20">
+      <c r="L10" s="20"/>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="56">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P10" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="1"/>
+        <v>19.634954084936204</v>
+      </c>
+      <c r="R10" s="49">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T10" s="16">
+        <v>12</v>
+      </c>
+      <c r="U10" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="17">
-        <v>600</v>
-      </c>
-      <c r="P10" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="2"/>
-        <v>18.849555921538759</v>
-      </c>
-      <c r="R10" s="21">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="19">
-        <v>12</v>
-      </c>
-      <c r="T10" s="21">
-        <f t="shared" si="6"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="U10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14">
         <v>1.3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>0.2</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>0.35</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>20</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <f t="shared" si="4"/>
         <v>81.681408993334614</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="40">
         <v>600</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="19">
+      <c r="L11" s="20"/>
+      <c r="M11" s="16">
         <v>30</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="56">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>200</v>
+      </c>
+      <c r="P11" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="1"/>
+        <v>6.8067840827778863</v>
+      </c>
+      <c r="R11" s="49">
+        <f t="shared" si="2"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="3"/>
+        <v>157.0878016085791</v>
+      </c>
+      <c r="T11" s="16">
+        <v>100</v>
+      </c>
+      <c r="U11" s="18">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="O11" s="17">
-        <v>200</v>
-      </c>
-      <c r="P11" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="2"/>
-        <v>27.227136331111545</v>
-      </c>
-      <c r="R11" s="21">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="S11" s="19">
-        <v>100</v>
-      </c>
-      <c r="T11" s="21">
-        <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="U11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14">
         <v>0.13</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>0.04</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>0.05</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>0.1</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>0.1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>2.5</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <f t="shared" si="4"/>
         <v>8.1681408993334621</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="40">
         <v>600</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="L12" s="20"/>
+      <c r="M12" s="16">
+        <v>1</v>
+      </c>
+      <c r="N12" s="56">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P12" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="1"/>
+        <v>8.5084801034723565</v>
+      </c>
+      <c r="R12" s="49">
+        <f t="shared" si="2"/>
+        <v>30.769230769230766</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T12" s="16">
+        <v>50</v>
+      </c>
+      <c r="U12" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="17">
-        <v>800</v>
-      </c>
-      <c r="P12" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="2"/>
-        <v>10.890854532444617</v>
-      </c>
-      <c r="R12" s="21">
-        <f t="shared" si="3"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="S12" s="19">
-        <v>50</v>
-      </c>
-      <c r="T12" s="21">
-        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
-      <c r="U12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>0.04</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>0.1</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>0.1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>5</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <f t="shared" si="4"/>
         <v>8.7964594300514225</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="40">
         <v>600</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="L13" s="20"/>
+      <c r="M13" s="16">
+        <v>1</v>
+      </c>
+      <c r="N13" s="56">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P13" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="1"/>
+        <v>9.1629785729702302</v>
+      </c>
+      <c r="R13" s="49">
+        <f t="shared" si="2"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T13" s="16">
+        <v>50</v>
+      </c>
+      <c r="U13" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O13" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P13" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="2"/>
-        <v>14.660765716752371</v>
-      </c>
-      <c r="R13" s="21">
-        <f t="shared" si="3"/>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="S13" s="19">
-        <v>50</v>
-      </c>
-      <c r="T13" s="21">
-        <f t="shared" si="6"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="U13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
         <v>0.16</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>0.04</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>0.1</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>0.1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>0.1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>5</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <f t="shared" si="4"/>
         <v>10.053096491487338</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="40">
         <v>600</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="L14" s="20"/>
+      <c r="M14" s="16">
+        <v>1</v>
+      </c>
+      <c r="N14" s="56">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P14" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="1"/>
+        <v>10.471975511965976</v>
+      </c>
+      <c r="R14" s="49">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T14" s="16">
+        <v>12</v>
+      </c>
+      <c r="U14" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="17">
-        <v>600</v>
-      </c>
-      <c r="P14" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="2"/>
-        <v>10.053096491487338</v>
-      </c>
-      <c r="R14" s="21">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="S14" s="19">
-        <v>12</v>
-      </c>
-      <c r="T14" s="21">
-        <f t="shared" si="6"/>
         <v>1.92</v>
       </c>
-      <c r="U14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
         <v>0.22</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>0.04</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>0.1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>0.1</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="14">
         <v>2.5</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <f t="shared" si="4"/>
         <v>13.82300767579509</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="40">
         <v>600</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="L15" s="20"/>
+      <c r="M15" s="16">
+        <v>1</v>
+      </c>
+      <c r="N15" s="56">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P15" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="1"/>
+        <v>14.398966328953218</v>
+      </c>
+      <c r="R15" s="49">
+        <f t="shared" si="2"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T15" s="16">
+        <v>12</v>
+      </c>
+      <c r="U15" s="18">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="O15" s="17">
-        <v>600</v>
-      </c>
-      <c r="P15" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="2"/>
-        <v>13.823007675795091</v>
-      </c>
-      <c r="R15" s="21">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="S15" s="19">
-        <v>12</v>
-      </c>
-      <c r="T15" s="21">
-        <f t="shared" si="6"/>
         <v>2.64</v>
       </c>
-      <c r="U15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
         <v>1.38</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>0.25</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>0.35</v>
       </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
         <v>10</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <v>20</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <f t="shared" si="4"/>
         <v>86.707957239078283</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="40">
         <v>600</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="19">
-        <v>5</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="L16" s="20"/>
+      <c r="M16" s="16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="56">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P16" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="1"/>
+        <v>90.320788790706544</v>
+      </c>
+      <c r="R16" s="49">
+        <f t="shared" si="2"/>
+        <v>2.8985507246376816</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T16" s="16">
+        <v>100</v>
+      </c>
+      <c r="U16" s="18">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="O16" s="17">
-        <v>2500</v>
-      </c>
-      <c r="P16" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="2"/>
-        <v>361.28315516282618</v>
-      </c>
-      <c r="R16" s="21">
-        <f t="shared" si="3"/>
-        <v>6.8999999999999995</v>
-      </c>
-      <c r="S16" s="19">
-        <v>100</v>
-      </c>
-      <c r="T16" s="21">
-        <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="U16" s="22">
+      <c r="V16" s="19">
         <v>40</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14">
         <v>0.52</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>0.08</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>0.68</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <v>0.5</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>10</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="13">
         <f t="shared" si="4"/>
         <v>32.672563597333848</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="40">
         <v>600</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="19">
-        <v>1</v>
-      </c>
-      <c r="N17" s="20">
+      <c r="L17" s="20"/>
+      <c r="M17" s="16">
+        <v>1</v>
+      </c>
+      <c r="N17" s="56">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="1"/>
+        <v>34.033920413889426</v>
+      </c>
+      <c r="R17" s="49">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T17" s="16">
+        <v>80</v>
+      </c>
+      <c r="U17" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="17">
-        <v>425</v>
-      </c>
-      <c r="P17" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="2"/>
-        <v>23.143065881444809</v>
-      </c>
-      <c r="R17" s="21">
-        <f t="shared" si="3"/>
-        <v>0.52</v>
-      </c>
-      <c r="S17" s="19">
-        <v>80</v>
-      </c>
-      <c r="T17" s="21">
-        <f t="shared" si="6"/>
         <v>41.6</v>
       </c>
-      <c r="U17" s="22">
+      <c r="V17" s="19">
         <v>20</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>0.04</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>0.21</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>0.1</v>
       </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
         <v>5</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="13">
         <f t="shared" si="4"/>
         <v>21.614157456697775</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="40">
         <v>600</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="L18" s="20"/>
+      <c r="M18" s="16">
+        <v>1</v>
+      </c>
+      <c r="N18" s="56">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>2500</v>
+      </c>
+      <c r="P18" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="1"/>
+        <v>22.51474735072685</v>
+      </c>
+      <c r="R18" s="49">
+        <f t="shared" si="2"/>
+        <v>11.627906976744187</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T18" s="16">
+        <v>12</v>
+      </c>
+      <c r="U18" s="18">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="17">
-        <v>600</v>
-      </c>
-      <c r="P18" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="2"/>
-        <v>21.614157456697775</v>
-      </c>
-      <c r="R18" s="21">
-        <f t="shared" si="3"/>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="S18" s="19">
-        <v>12</v>
-      </c>
-      <c r="T18" s="21">
-        <f t="shared" si="6"/>
         <v>4.1280000000000001</v>
       </c>
-      <c r="U18" s="22">
+      <c r="V18" s="19">
         <v>40</v>
       </c>
-      <c r="V18" s="4"/>
+      <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23">
         <v>0.21</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <v>0.04</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="23">
         <v>0.1</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <v>0.1</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>0.5</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <v>2</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="22">
         <f t="shared" si="4"/>
         <v>13.194689145077131</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <v>600</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28">
-        <v>1</v>
-      </c>
-      <c r="N19" s="29">
+      <c r="L19" s="24"/>
+      <c r="M19" s="25">
+        <v>1</v>
+      </c>
+      <c r="N19" s="57">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>2500</v>
+      </c>
+      <c r="P19" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="26">
+        <f t="shared" si="1"/>
+        <v>13.744467859455344</v>
+      </c>
+      <c r="R19" s="50">
+        <f t="shared" si="2"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="S19" s="27">
+        <f t="shared" si="3"/>
+        <v>65.453250670241289</v>
+      </c>
+      <c r="T19" s="25">
+        <v>80</v>
+      </c>
+      <c r="U19" s="27">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="26">
-        <v>600</v>
-      </c>
-      <c r="P19" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="29">
-        <f t="shared" si="2"/>
-        <v>13.194689145077131</v>
-      </c>
-      <c r="R19" s="30">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="S19" s="28">
-        <v>80</v>
-      </c>
-      <c r="T19" s="30">
-        <f t="shared" si="6"/>
         <v>16.8</v>
       </c>
-      <c r="U19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="5"/>
+      <c r="V19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M1:R1"/>
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PartBalance.xlsx
+++ b/PartBalance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Repulsor</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>mEff</t>
+  </si>
+  <si>
+    <t>mPwr</t>
+  </si>
+  <si>
+    <t>m/s @ mLoad</t>
+  </si>
+  <si>
+    <t>t for 1g</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -627,9 +636,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +713,18 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,16 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,14 +751,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -814,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,7 +852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,29 +1084,32 @@
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="51" t="s">
         <v>26</v>
       </c>
@@ -1112,85 +1118,96 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="42" t="s">
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="Y1" s="49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="S2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="T2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="U2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="X2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="46"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1217,1144 +1234,1259 @@
       <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="55">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="9">
-        <f>IFERROR(O3/P3/60*D3*2*PI(), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="48">
-        <f>IFERROR(M3*P3/D3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <f>0.5*M3*0.5*O3/9.5488/N3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <f t="shared" ref="U3:U5" si="0">T3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="Q3" s="5">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5">
+        <f>IFERROR(O3/Q3/60*D3*2*PI(), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="54">
+        <f>IFERROR(M3*Q3/D3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="54">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U3" s="55">
+        <f>IFERROR(S3/I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <f>V3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="36"/>
+      <c r="Y3" s="35"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13">
         <v>0.2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0.1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>3.5</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>0.5</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="56">
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
         <v>1</v>
       </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="17">
-        <f t="shared" ref="Q4:Q19" si="1">IFERROR(O4/P4/60*D4*2*PI(), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="49">
-        <f t="shared" ref="R4:R19" si="2">IFERROR(M4*P4/D4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <f t="shared" ref="S4:S19" si="3">0.5*M4*0.5*O4/9.5488/N4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="19" t="s">
+      <c r="Q4" s="12">
+        <v>8</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" ref="R4:R19" si="0">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="39">
+        <f t="shared" ref="S4:S19" si="1">IFERROR(M4*Q4/D4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="39">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" ref="U4:U19" si="2">IFERROR(S4/I4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <f>V4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13">
         <v>0.2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0.1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0.75</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.5</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="56">
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
         <v>1</v>
       </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="12">
+        <v>8</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R5" s="49">
+      <c r="T5" s="39">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U5" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <f>V5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13">
         <v>0.375</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.04</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0.15</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.1</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>10</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>K6*D6*2*PI()/60</f>
-        <v>23.561944901923447</v>
-      </c>
-      <c r="K6" s="40">
-        <v>600</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="16">
+        <v>15.707963267948966</v>
+      </c>
+      <c r="K6" s="39">
+        <v>400</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15">
+        <f>(10*I6)/Q6*D6</f>
+        <v>4.6875</v>
+      </c>
+      <c r="N6" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P6" s="13">
         <v>1</v>
       </c>
-      <c r="N6" s="56">
-        <v>1</v>
-      </c>
-      <c r="O6" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P6" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="13">
+        <v>8</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="0"/>
+        <v>12.271846303085129</v>
+      </c>
+      <c r="S6" s="41">
         <f t="shared" si="1"/>
-        <v>24.543692606170257</v>
-      </c>
-      <c r="R6" s="49">
+        <v>100</v>
+      </c>
+      <c r="T6" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U6" s="17">
         <f t="shared" si="2"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="S6" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T6" s="16">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f>T6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <f>V6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13">
         <v>0.09</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.04</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0.15</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.1</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0.1</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>2.5</v>
       </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:J19" si="4">K7*D7*2*PI()/60</f>
-        <v>5.6548667764616276</v>
-      </c>
-      <c r="K7" s="40">
-        <v>600</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="16">
+      <c r="J7" s="12">
+        <f t="shared" ref="J7:J19" si="3">K7*D7*2*PI()/60</f>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="K7" s="39">
+        <v>400</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="56">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="49">
+      <c r="T7" s="39">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U7" s="19">
         <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="S7" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <f t="shared" ref="U7:U19" si="5">T7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <f>V7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
         <v>0.25</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.04</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0.05</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.1</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>0.1</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>5</v>
       </c>
-      <c r="J8" s="13">
-        <f t="shared" si="4"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="K8" s="40">
-        <v>600</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="16">
+      <c r="J8" s="12">
+        <f t="shared" si="3"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="K8" s="39">
+        <v>400</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="15">
+        <f t="shared" ref="M7:M19" si="4">(10*I8)/Q8*D8</f>
+        <v>1.5625</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="13">
         <v>1</v>
       </c>
-      <c r="N8" s="56">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P8" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="13">
+        <v>8</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1812308687234196</v>
+      </c>
+      <c r="S8" s="41">
         <f t="shared" si="1"/>
-        <v>16.362461737446839</v>
-      </c>
-      <c r="R8" s="49">
+        <v>50</v>
+      </c>
+      <c r="T8" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U8" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S8" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T8" s="16">
+        <v>10</v>
+      </c>
+      <c r="V8" s="15">
         <v>70</v>
       </c>
-      <c r="U8" s="18">
-        <f t="shared" si="5"/>
+      <c r="W8" s="17">
+        <f>V8*D8</f>
         <v>17.5</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="X8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13">
         <v>0.25</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.04</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.1</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>0.1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>2.5</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>10.471975511965978</v>
+      </c>
+      <c r="K9" s="39">
+        <v>400</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="15">
         <f t="shared" si="4"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="K9" s="40">
-        <v>600</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="16">
+        <v>0.78125</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="N9" s="56">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P9" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="13">
+        <v>8</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1812308687234196</v>
+      </c>
+      <c r="S9" s="41">
         <f t="shared" si="1"/>
-        <v>16.362461737446839</v>
-      </c>
-      <c r="R9" s="49">
+        <v>25</v>
+      </c>
+      <c r="T9" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U9" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S9" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T9" s="16">
+        <v>10</v>
+      </c>
+      <c r="V9" s="15">
         <v>70</v>
       </c>
-      <c r="U9" s="18">
-        <f t="shared" si="5"/>
+      <c r="W9" s="17">
+        <f>V9*D9</f>
         <v>17.5</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="X9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13">
         <v>0.3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.04</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0.125</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.1</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>5</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>12.566370614359171</v>
+      </c>
+      <c r="K10" s="39">
+        <v>400</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="15">
         <f t="shared" si="4"/>
-        <v>18.849555921538759</v>
-      </c>
-      <c r="K10" s="40">
-        <v>600</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="16">
+        <v>1.875</v>
+      </c>
+      <c r="N10" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P10" s="13">
         <v>1</v>
       </c>
-      <c r="N10" s="56">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P10" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="13">
+        <v>8</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="0"/>
+        <v>9.8174770424681022</v>
+      </c>
+      <c r="S10" s="41">
         <f t="shared" si="1"/>
-        <v>19.634954084936204</v>
-      </c>
-      <c r="R10" s="49">
+        <v>50</v>
+      </c>
+      <c r="T10" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U10" s="17">
         <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="S10" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T10" s="16">
+        <v>10</v>
+      </c>
+      <c r="V10" s="15">
         <v>12</v>
       </c>
-      <c r="U10" s="18">
-        <f t="shared" si="5"/>
+      <c r="W10" s="17">
+        <f>V10*D10</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="X10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13">
         <v>1.3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0.35</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>20</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
+        <f t="shared" si="3"/>
+        <v>54.454272662223076</v>
+      </c>
+      <c r="K11" s="39">
+        <v>400</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15">
         <f t="shared" si="4"/>
-        <v>81.681408993334614</v>
-      </c>
-      <c r="K11" s="40">
-        <v>600</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="16">
-        <v>30</v>
-      </c>
-      <c r="N11" s="56">
+        <v>32.5</v>
+      </c>
+      <c r="N11" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O11" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P11" s="13">
         <v>1</v>
       </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="13">
+        <v>8</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="0"/>
+        <v>42.542400517361777</v>
+      </c>
+      <c r="S11" s="41">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="P11" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="17">
-        <f t="shared" si="1"/>
-        <v>6.8067840827778863</v>
-      </c>
-      <c r="R11" s="49">
+      <c r="T11" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U11" s="17">
         <f t="shared" si="2"/>
-        <v>92.307692307692307</v>
-      </c>
-      <c r="S11" s="18">
-        <f t="shared" si="3"/>
-        <v>157.0878016085791</v>
-      </c>
-      <c r="T11" s="16">
+        <v>10</v>
+      </c>
+      <c r="V11" s="15">
         <v>100</v>
       </c>
-      <c r="U11" s="18">
-        <f t="shared" si="5"/>
+      <c r="W11" s="17">
+        <f>V11*D11</f>
         <v>130</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="X11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
         <v>0.13</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.04</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.05</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>2.5</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>5.4454272662223087</v>
+      </c>
+      <c r="K12" s="39">
+        <v>400</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="15">
         <f t="shared" si="4"/>
-        <v>8.1681408993334621</v>
-      </c>
-      <c r="K12" s="40">
-        <v>600</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="N12" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O12" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P12" s="13">
         <v>1</v>
       </c>
-      <c r="N12" s="56">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P12" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="13">
+        <v>8</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2542400517361783</v>
+      </c>
+      <c r="S12" s="41">
         <f t="shared" si="1"/>
-        <v>8.5084801034723565</v>
-      </c>
-      <c r="R12" s="49">
+        <v>25</v>
+      </c>
+      <c r="T12" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U12" s="17">
         <f t="shared" si="2"/>
-        <v>30.769230769230766</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T12" s="16">
+        <v>10</v>
+      </c>
+      <c r="V12" s="15">
         <v>50</v>
       </c>
-      <c r="U12" s="18">
-        <f t="shared" si="5"/>
+      <c r="W12" s="17">
+        <f>V12*D12</f>
         <v>6.5</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="X12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.04</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.1</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>5</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>5.8643062867009483</v>
+      </c>
+      <c r="K13" s="39">
+        <v>400</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="15">
         <f t="shared" si="4"/>
-        <v>8.7964594300514225</v>
-      </c>
-      <c r="K13" s="40">
-        <v>600</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="16">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P13" s="13">
         <v>1</v>
       </c>
-      <c r="N13" s="56">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P13" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="13">
+        <v>8</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="0"/>
+        <v>4.5814892864851151</v>
+      </c>
+      <c r="S13" s="41">
         <f t="shared" si="1"/>
-        <v>9.1629785729702302</v>
-      </c>
-      <c r="R13" s="49">
+        <v>50</v>
+      </c>
+      <c r="T13" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U13" s="17">
         <f t="shared" si="2"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="S13" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T13" s="16">
+        <v>10</v>
+      </c>
+      <c r="V13" s="15">
         <v>50</v>
       </c>
-      <c r="U13" s="18">
-        <f t="shared" si="5"/>
+      <c r="W13" s="17">
+        <f>V13*D13</f>
         <v>7.0000000000000009</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="X13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13">
         <v>0.16</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>0.04</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>0.1</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0.1</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>5</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
+        <f t="shared" si="3"/>
+        <v>6.702064327658225</v>
+      </c>
+      <c r="K14" s="39">
+        <v>400</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="15">
         <f t="shared" si="4"/>
-        <v>10.053096491487338</v>
-      </c>
-      <c r="K14" s="40">
-        <v>600</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="16">
         <v>1</v>
       </c>
-      <c r="N14" s="56">
+      <c r="N14" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O14" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P14" s="13">
         <v>1</v>
       </c>
-      <c r="O14" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P14" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="13">
+        <v>8</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="0"/>
+        <v>5.2359877559829879</v>
+      </c>
+      <c r="S14" s="41">
         <f t="shared" si="1"/>
-        <v>10.471975511965976</v>
-      </c>
-      <c r="R14" s="49">
+        <v>50</v>
+      </c>
+      <c r="T14" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U14" s="17">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="S14" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T14" s="16">
+        <v>10</v>
+      </c>
+      <c r="V14" s="15">
         <v>12</v>
       </c>
-      <c r="U14" s="18">
-        <f t="shared" si="5"/>
+      <c r="W14" s="17">
+        <f>V14*D14</f>
         <v>1.92</v>
       </c>
-      <c r="V14" s="19" t="s">
+      <c r="X14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13">
         <v>0.22</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>0.04</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0.1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>0.1</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>2.5</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>9.2153384505300586</v>
+      </c>
+      <c r="K15" s="39">
+        <v>400</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15">
         <f t="shared" si="4"/>
-        <v>13.82300767579509</v>
-      </c>
-      <c r="K15" s="40">
-        <v>600</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="N15" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O15" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P15" s="13">
         <v>1</v>
       </c>
-      <c r="N15" s="56">
-        <v>1</v>
-      </c>
-      <c r="O15" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P15" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="13">
+        <v>8</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.1994831644766091</v>
+      </c>
+      <c r="S15" s="41">
         <f t="shared" si="1"/>
-        <v>14.398966328953218</v>
-      </c>
-      <c r="R15" s="49">
+        <v>25</v>
+      </c>
+      <c r="T15" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U15" s="17">
         <f t="shared" si="2"/>
-        <v>18.181818181818183</v>
-      </c>
-      <c r="S15" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T15" s="16">
+        <v>10</v>
+      </c>
+      <c r="V15" s="15">
         <v>12</v>
       </c>
-      <c r="U15" s="18">
-        <f t="shared" si="5"/>
+      <c r="W15" s="17">
+        <f>V15*D15</f>
         <v>2.64</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="X15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13">
         <v>1.38</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>0.25</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>0.35</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>10</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>20</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
+        <f t="shared" si="3"/>
+        <v>57.805304826052193</v>
+      </c>
+      <c r="K16" s="39">
+        <v>400</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15">
         <f t="shared" si="4"/>
-        <v>86.707957239078283</v>
-      </c>
-      <c r="K16" s="40">
-        <v>600</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="16">
+        <v>34.5</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O16" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P16" s="13">
         <v>1</v>
       </c>
-      <c r="N16" s="56">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P16" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="13">
+        <v>8</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="0"/>
+        <v>45.160394395353272</v>
+      </c>
+      <c r="S16" s="41">
         <f t="shared" si="1"/>
-        <v>90.320788790706544</v>
-      </c>
-      <c r="R16" s="49">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="T16" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U16" s="17">
         <f t="shared" si="2"/>
-        <v>2.8985507246376816</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T16" s="16">
+        <v>10.000000000000002</v>
+      </c>
+      <c r="V16" s="15">
         <v>100</v>
       </c>
-      <c r="U16" s="18">
-        <f t="shared" si="5"/>
+      <c r="W16" s="17">
+        <f>V16*D16</f>
         <v>138</v>
       </c>
-      <c r="V16" s="19">
+      <c r="X16" s="18">
         <v>40</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13">
         <v>0.52</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>0.08</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>0.68</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.5</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>10</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
+        <f t="shared" si="3"/>
+        <v>21.781709064889235</v>
+      </c>
+      <c r="K17" s="39">
+        <v>400</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="15">
         <f t="shared" si="4"/>
-        <v>32.672563597333848</v>
-      </c>
-      <c r="K17" s="40">
-        <v>600</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="N17" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O17" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="13">
         <v>1</v>
       </c>
-      <c r="N17" s="56">
-        <v>1</v>
-      </c>
-      <c r="O17" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P17" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="13">
+        <v>8</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="0"/>
+        <v>17.016960206944713</v>
+      </c>
+      <c r="S17" s="41">
         <f t="shared" si="1"/>
-        <v>34.033920413889426</v>
-      </c>
-      <c r="R17" s="49">
+        <v>100</v>
+      </c>
+      <c r="T17" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U17" s="17">
         <f t="shared" si="2"/>
-        <v>7.6923076923076916</v>
-      </c>
-      <c r="S17" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T17" s="16">
+        <v>10</v>
+      </c>
+      <c r="V17" s="15">
         <v>80</v>
       </c>
-      <c r="U17" s="18">
-        <f t="shared" si="5"/>
+      <c r="W17" s="17">
+        <f>V17*D17</f>
         <v>41.6</v>
       </c>
-      <c r="V17" s="19">
+      <c r="X17" s="18">
         <v>20</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>0.04</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0.21</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>1</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>5</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>14.409438304465185</v>
+      </c>
+      <c r="K18" s="39">
+        <v>400</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="15">
         <f t="shared" si="4"/>
-        <v>21.614157456697775</v>
-      </c>
-      <c r="K18" s="40">
-        <v>600</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="N18" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="O18" s="13">
+        <v>2500</v>
+      </c>
+      <c r="P18" s="13">
         <v>1</v>
       </c>
-      <c r="N18" s="56">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14">
-        <v>2500</v>
-      </c>
-      <c r="P18" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="13">
+        <v>8</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="0"/>
+        <v>11.257373675363425</v>
+      </c>
+      <c r="S18" s="41">
         <f t="shared" si="1"/>
-        <v>22.51474735072685</v>
-      </c>
-      <c r="R18" s="49">
+        <v>50</v>
+      </c>
+      <c r="T18" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U18" s="17">
         <f t="shared" si="2"/>
-        <v>11.627906976744187</v>
-      </c>
-      <c r="S18" s="18">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T18" s="16">
+        <v>10</v>
+      </c>
+      <c r="V18" s="15">
         <v>12</v>
       </c>
-      <c r="U18" s="18">
-        <f t="shared" si="5"/>
+      <c r="W18" s="17">
+        <f>V18*D18</f>
         <v>4.1280000000000001</v>
       </c>
-      <c r="V18" s="19">
+      <c r="X18" s="18">
         <v>40</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22">
         <v>0.21</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>0.04</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>0.1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>0.1</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0.5</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>2</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
+        <f t="shared" si="3"/>
+        <v>8.7964594300514207</v>
+      </c>
+      <c r="K19" s="21">
+        <v>400</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24">
         <f t="shared" si="4"/>
-        <v>13.194689145077131</v>
-      </c>
-      <c r="K19" s="41">
-        <v>600</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N19" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="O19" s="22">
+        <v>2500</v>
+      </c>
+      <c r="P19" s="22">
         <v>1</v>
       </c>
-      <c r="N19" s="57">
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
-        <v>2500</v>
-      </c>
-      <c r="P19" s="23">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="22">
+        <v>8</v>
+      </c>
+      <c r="R19" s="25">
+        <f t="shared" si="0"/>
+        <v>6.8722339297276722</v>
+      </c>
+      <c r="S19" s="42">
         <f t="shared" si="1"/>
-        <v>13.744467859455344</v>
-      </c>
-      <c r="R19" s="50">
+        <v>20</v>
+      </c>
+      <c r="T19" s="42">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U19" s="26">
         <f t="shared" si="2"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="S19" s="27">
-        <f t="shared" si="3"/>
-        <v>65.453250670241289</v>
-      </c>
-      <c r="T19" s="25">
+        <v>10</v>
+      </c>
+      <c r="V19" s="24">
         <v>80</v>
       </c>
-      <c r="U19" s="27">
-        <f t="shared" si="5"/>
+      <c r="W19" s="26">
+        <f>V19*D19</f>
         <v>16.8</v>
       </c>
-      <c r="V19" s="28" t="s">
+      <c r="X19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PartBalance.xlsx
+++ b/PartBalance.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
+    <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Repulsor</t>
   </si>
@@ -163,6 +164,60 @@
   <si>
     <t>t for 1g</t>
   </si>
+  <si>
+    <t>Read Row</t>
+  </si>
+  <si>
+    <t>in pwr</t>
+  </si>
+  <si>
+    <t>trq</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>rpm %</t>
+  </si>
+  <si>
+    <t>pwr use %</t>
+  </si>
+  <si>
+    <t>pwr in</t>
+  </si>
+  <si>
+    <t>trq %</t>
+  </si>
+  <si>
+    <t>power kw</t>
+  </si>
+  <si>
+    <t>trk out (kn/m)</t>
+  </si>
+  <si>
+    <t>pwr %</t>
+  </si>
+  <si>
+    <t>pwr fct</t>
+  </si>
+  <si>
+    <t>Peak efficiency</t>
+  </si>
+  <si>
+    <t>Trq at peak</t>
+  </si>
+  <si>
+    <t>rpm at peak</t>
+  </si>
+  <si>
+    <t>80% eff input</t>
+  </si>
+  <si>
+    <t>eff %</t>
+  </si>
+  <si>
+    <t>pwr at peak</t>
+  </si>
 </sst>
 </file>
 
@@ -616,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -727,6 +782,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,12 +813,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,6 +828,2127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RPM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$C$7:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Torque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$E$7:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.22999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.18999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.10000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$G$7:$G$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9599999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8399999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15359999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22559999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29439999999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32759999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39159999999999989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42239999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48159999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53759999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59039999999999981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61559999999999981</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66359999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68639999999999968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70839999999999992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72959999999999969</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76959999999999984</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78839999999999977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82359999999999967</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85559999999999981</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87039999999999962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88439999999999974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.89759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92159999999999964</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93239999999999978</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94239999999999979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95159999999999978</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.96759999999999979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97439999999999971</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98039999999999983</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9855999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99359999999999982</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99639999999999984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99839999999999984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99959999999999971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99959999999999971</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99839999999999973</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99639999999999984</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99359999999999959</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98999999999999955</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98039999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97439999999999971</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96759999999999979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95159999999999967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.94239999999999968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93239999999999978</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92159999999999975</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.89759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.88439999999999974</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.87039999999999984</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.85559999999999992</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82359999999999978</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.80639999999999967</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.78839999999999977</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76959999999999984</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7295999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7083999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6863999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66359999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.61559999999999981</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.59039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.5643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.53759999999999986</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.5099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48159999999999986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.42239999999999989</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.39159999999999989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.32759999999999989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.29439999999999988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26039999999999991</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.22559999999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15359999999999993</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.11639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.8399999999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9599999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Efficiency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$J$7:$J$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2723766992711145E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.543443277248485E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8131613001113486E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0814908158630677E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3483902786215823E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6138164683335369E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8777244055861612E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10140067261163985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11400796259968342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12659860578885371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1391720723815317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15172780985740122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16426524174204246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17678376629456727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18928275510801892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20176155161569517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2142194694959329</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2266557909672095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23906976496466212</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25146060518828567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26382748801215367</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27616955024297518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28848588671516928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30077554770837162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31303753617189245</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32527080473907027</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33747425251273527</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34964672160104132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3617869933807546</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.37389378446265198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38596574233094594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.39800144062559684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40999937403291375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42195795274597075</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43387549645197881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.44575022779880891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45758026528725315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46936361552926131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.48109816480517725</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49278166984478544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50441174774761977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51598586494729382</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5275013251123789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53895525586231519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55034459416071579</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56166607022983805</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5729161898085543</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58409121455131929</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.59518714033685194</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60619967322176016</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61712420273530044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62795577216584519</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.63868904543612259</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.64931827010143495</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65983723593091026</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.67023922844416139</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68051697667169497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69066259428357113</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.70066751308287112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71052240768317942</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.72021710997588362</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72974051173527477</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.73908045339672157</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.74822359666228655</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.75715527812208083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76585934050676197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77431793747894173</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.78251130699269889</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.79041750715379511</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.79801210713670523</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.80526782397651853</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.81215409384545645</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8186365635994084</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.82467648474249122</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83022998723849761</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83524720442756473</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83967121217096707</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.84343673452584345</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.84646855372236041</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.84867954251046407</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8499682099285929</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.85021561408061841</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84928144289522312</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84699898896093839</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84316863639026618</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83754931900213025</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.82984717225879046</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.81970024105888695</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.80665754574538295</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.79014991888905284</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.76944857415063128</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.74360493248535819</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.71136100709138861</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.67101204949892768</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.62018889644995445</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.55549933691593945</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47190907045327068</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.36161128333054521</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2118132975845444</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233761632"/>
+        <c:axId val="233768296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233761632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233768296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233768296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233761632"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276227</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>385765</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +3260,7 @@
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1097,38 +3274,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="51" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="46" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="48"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1202,7 +3379,7 @@
       <c r="X2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="50"/>
+      <c r="Y2" s="53"/>
       <c r="Z2" t="s">
         <v>48</v>
       </c>
@@ -1259,14 +3436,14 @@
         <f>IFERROR(O3/Q3/60*D3*2*PI(), 0)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="46">
         <f>IFERROR(M3*Q3/D3, 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="54">
+      <c r="T3" s="46">
         <v>6.666666666666667</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="47">
         <f>IFERROR(S3/I3,0)</f>
         <v>0</v>
       </c>
@@ -1274,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="9">
-        <f>V3*D3</f>
+        <f t="shared" ref="W3:W19" si="0">V3*D3</f>
         <v>0</v>
       </c>
       <c r="X3" s="10" t="s">
@@ -1331,25 +3508,25 @@
         <v>8</v>
       </c>
       <c r="R4" s="12">
-        <f t="shared" ref="R4:R19" si="0">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
+        <f t="shared" ref="R4:R19" si="1">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="39">
-        <f t="shared" ref="S4:S19" si="1">IFERROR(M4*Q4/D4, 0)</f>
+        <f t="shared" ref="S4:S19" si="2">IFERROR(M4*Q4/D4, 0)</f>
         <v>0</v>
       </c>
       <c r="T4" s="39">
         <v>6.666666666666667</v>
       </c>
       <c r="U4" s="19">
-        <f t="shared" ref="U4:U19" si="2">IFERROR(S4/I4,0)</f>
+        <f t="shared" ref="U4:U19" si="3">IFERROR(S4/I4,0)</f>
         <v>0</v>
       </c>
       <c r="V4" s="15">
         <v>0</v>
       </c>
       <c r="W4" s="17">
-        <f>V4*D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4" s="18" t="s">
@@ -1406,25 +3583,25 @@
         <v>8</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S5" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T5" s="39">
         <v>6.666666666666667</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V5" s="15">
         <v>0</v>
       </c>
       <c r="W5" s="17">
-        <f>V5*D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5" s="18" t="s">
@@ -1481,25 +3658,25 @@
         <v>8</v>
       </c>
       <c r="R6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.271846303085129</v>
       </c>
       <c r="S6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="T6" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V6" s="15">
         <v>0</v>
       </c>
       <c r="W6" s="17">
-        <f>V6*D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6" s="18" t="s">
@@ -1532,7 +3709,7 @@
         <v>2.5</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" ref="J7:J19" si="3">K7*D7*2*PI()/60</f>
+        <f t="shared" ref="J7:J19" si="4">K7*D7*2*PI()/60</f>
         <v>3.7699111843077517</v>
       </c>
       <c r="K7" s="39">
@@ -1555,25 +3732,25 @@
         <v>0</v>
       </c>
       <c r="R7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S7" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T7" s="39">
         <v>6.666666666666667</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="15">
         <v>0</v>
       </c>
       <c r="W7" s="17">
-        <f>V7*D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7" s="18" t="s">
@@ -1606,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.471975511965978</v>
       </c>
       <c r="K8" s="39">
@@ -1614,7 +3791,7 @@
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="15">
-        <f t="shared" ref="M7:M19" si="4">(10*I8)/Q8*D8</f>
+        <f t="shared" ref="M8:M19" si="5">(10*I8)/Q8*D8</f>
         <v>1.5625</v>
       </c>
       <c r="N8" s="44">
@@ -1630,25 +3807,25 @@
         <v>8</v>
       </c>
       <c r="R8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1812308687234196</v>
       </c>
       <c r="S8" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T8" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V8" s="15">
         <v>70</v>
       </c>
       <c r="W8" s="17">
-        <f>V8*D8</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="X8" s="18" t="s">
@@ -1681,7 +3858,7 @@
         <v>2.5</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.471975511965978</v>
       </c>
       <c r="K9" s="39">
@@ -1689,7 +3866,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78125</v>
       </c>
       <c r="N9" s="44">
@@ -1705,25 +3882,25 @@
         <v>8</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1812308687234196</v>
       </c>
       <c r="S9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T9" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V9" s="15">
         <v>70</v>
       </c>
       <c r="W9" s="17">
-        <f>V9*D9</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="X9" s="18" t="s">
@@ -1756,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.566370614359171</v>
       </c>
       <c r="K10" s="39">
@@ -1764,8 +3941,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="15">
-        <f t="shared" si="4"/>
-        <v>1.875</v>
+        <v>1.4</v>
       </c>
       <c r="N10" s="44">
         <v>0.15</v>
@@ -1774,31 +3950,31 @@
         <v>2500</v>
       </c>
       <c r="P10" s="13">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="Q10" s="13">
         <v>8</v>
       </c>
       <c r="R10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8174770424681022</v>
       </c>
       <c r="S10" s="41">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>37.333333333333336</v>
       </c>
       <c r="T10" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>7.4666666666666668</v>
       </c>
       <c r="V10" s="15">
         <v>12</v>
       </c>
       <c r="W10" s="17">
-        <f>V10*D10</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="X10" s="18" t="s">
@@ -1831,7 +4007,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.454272662223076</v>
       </c>
       <c r="K11" s="39">
@@ -1839,7 +4015,7 @@
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="N11" s="44">
@@ -1849,31 +4025,31 @@
         <v>2500</v>
       </c>
       <c r="P11" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="13">
         <v>8</v>
       </c>
       <c r="R11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.542400517361777</v>
       </c>
       <c r="S11" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="T11" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U11" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V11" s="15">
         <v>100</v>
       </c>
       <c r="W11" s="17">
-        <f>V11*D11</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="X11" s="18" t="s">
@@ -1906,7 +4082,7 @@
         <v>2.5</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4454272662223087</v>
       </c>
       <c r="K12" s="39">
@@ -1914,7 +4090,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40625</v>
       </c>
       <c r="N12" s="44">
@@ -1930,25 +4106,25 @@
         <v>8</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2542400517361783</v>
       </c>
       <c r="S12" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T12" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U12" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V12" s="15">
         <v>50</v>
       </c>
       <c r="W12" s="17">
-        <f>V12*D12</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="X12" s="18" t="s">
@@ -1981,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8643062867009483</v>
       </c>
       <c r="K13" s="39">
@@ -1989,7 +4165,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87500000000000011</v>
       </c>
       <c r="N13" s="44">
@@ -2005,25 +4181,25 @@
         <v>8</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5814892864851151</v>
       </c>
       <c r="S13" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T13" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U13" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V13" s="15">
         <v>50</v>
       </c>
       <c r="W13" s="17">
-        <f>V13*D13</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="X13" s="18" t="s">
@@ -2056,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.702064327658225</v>
       </c>
       <c r="K14" s="39">
@@ -2064,7 +4240,7 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N14" s="44">
@@ -2080,25 +4256,25 @@
         <v>8</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2359877559829879</v>
       </c>
       <c r="S14" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T14" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V14" s="15">
         <v>12</v>
       </c>
       <c r="W14" s="17">
-        <f>V14*D14</f>
+        <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
       <c r="X14" s="18" t="s">
@@ -2131,7 +4307,7 @@
         <v>2.5</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2153384505300586</v>
       </c>
       <c r="K15" s="39">
@@ -2139,7 +4315,7 @@
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
       <c r="N15" s="44">
@@ -2155,25 +4331,25 @@
         <v>8</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1994831644766091</v>
       </c>
       <c r="S15" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T15" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U15" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V15" s="15">
         <v>12</v>
       </c>
       <c r="W15" s="17">
-        <f>V15*D15</f>
+        <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
       <c r="X15" s="18" t="s">
@@ -2206,7 +4382,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.805304826052193</v>
       </c>
       <c r="K16" s="39">
@@ -2214,7 +4390,7 @@
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.5</v>
       </c>
       <c r="N16" s="44">
@@ -2230,25 +4406,25 @@
         <v>8</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.160394395353272</v>
       </c>
       <c r="S16" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200.00000000000003</v>
       </c>
       <c r="T16" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U16" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.000000000000002</v>
       </c>
       <c r="V16" s="15">
         <v>100</v>
       </c>
       <c r="W16" s="17">
-        <f>V16*D16</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="X16" s="18">
@@ -2281,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.781709064889235</v>
       </c>
       <c r="K17" s="39">
@@ -2289,7 +4465,7 @@
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="N17" s="44">
@@ -2305,25 +4481,25 @@
         <v>8</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.016960206944713</v>
       </c>
       <c r="S17" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="T17" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V17" s="15">
         <v>80</v>
       </c>
       <c r="W17" s="17">
-        <f>V17*D17</f>
+        <f t="shared" si="0"/>
         <v>41.6</v>
       </c>
       <c r="X17" s="18">
@@ -2356,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.409438304465185</v>
       </c>
       <c r="K18" s="39">
@@ -2364,7 +4540,7 @@
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.15</v>
       </c>
       <c r="N18" s="44">
@@ -2380,25 +4556,25 @@
         <v>8</v>
       </c>
       <c r="R18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.257373675363425</v>
       </c>
       <c r="S18" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T18" s="41">
         <v>6.666666666666667</v>
       </c>
       <c r="U18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V18" s="15">
         <v>12</v>
       </c>
       <c r="W18" s="17">
-        <f>V18*D18</f>
+        <f t="shared" si="0"/>
         <v>4.1280000000000001</v>
       </c>
       <c r="X18" s="18">
@@ -2431,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7964594300514207</v>
       </c>
       <c r="K19" s="21">
@@ -2439,7 +4615,7 @@
       </c>
       <c r="L19" s="23"/>
       <c r="M19" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="N19" s="45">
@@ -2455,25 +4631,25 @@
         <v>8</v>
       </c>
       <c r="R19" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8722339297276722</v>
       </c>
       <c r="S19" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="T19" s="42">
         <v>6.666666666666667</v>
       </c>
       <c r="U19" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V19" s="24">
         <v>80</v>
       </c>
       <c r="W19" s="26">
-        <f>V19*D19</f>
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
       <c r="X19" s="27" t="s">
@@ -2503,4 +4679,4704 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1">
+        <f>LARGE(J7:J107,1)</f>
+        <v>0.85021561408061841</v>
+      </c>
+      <c r="F1">
+        <f>VLOOKUP(E1, J7:L107,3,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 16,FALSE)</f>
+        <v>0.39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(F1, A7:J107, 4,FALSE)</f>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 13,FALSE)</f>
+        <v>1.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(F1, A7:J107, 2,FALSE)</f>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(F1, A7:J107, 8,FALSE)</f>
+        <v>0.22100000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 15,FALSE)</f>
+        <v>2500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <f>1/0.8 * F82 * H82</f>
+        <v>3.34540524740575E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>A7*0.01*$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>B7/$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="48">
+        <f>(100-A7)*$B$3*0.01</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E7" s="48">
+        <f>D7/$B$3</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F7">
+        <f>C7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>F7/$F$108</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f xml:space="preserve"> $B$4 + 1 - (A7 * (1-$B$4)*0.01 + $B$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>H7*$B$2</f>
+        <v>0.39</v>
+      </c>
+      <c r="J7">
+        <f>F7/I7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B71" si="0">A8*0.01*$B$5</f>
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C71" si="1">B8/$B$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="48">
+        <f t="shared" ref="D8:D71" si="2">(100-A8)*$B$3*0.01</f>
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" ref="E8:E71" si="3">D8/$B$3</f>
+        <v>0.99</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="4">D8*B8/5252*0.745</f>
+        <v>4.9151275704493527E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G71" si="5">F8/$F$108</f>
+        <v>3.9599999999999989E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H71" si="6" xml:space="preserve"> $B$4 + 1 - (A8 * (1-$B$4)*0.01 + $B$4)</f>
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I71" si="7">H8*$B$2</f>
+        <v>0.38629500000000005</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J71" si="8">F8/I8</f>
+        <v>1.2723766992711145E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L71" si="9">A8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3719999999999999</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>9.7309596344249804E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>7.8399999999999984E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>0.98100000000000009</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>0.38259000000000004</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>2.543443277248485E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3579999999999999</v>
+      </c>
+      <c r="E10" s="48">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>1.4447496191926885E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>0.11639999999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>0.37888500000000003</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>3.8131613001113486E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3439999999999999</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>1.9064737242955061E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>0.15359999999999993</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>0.37518000000000007</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>5.0814908158630677E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="3"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>2.3582682787509524E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>0.371475</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>6.3483902786215823E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="E13" s="48">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>2.8001332825590249E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0.22559999999999994</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>0.94300000000000006</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>0.36777000000000004</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>7.6138164683335369E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>175.00000000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="2"/>
+        <v>1.3019999999999998</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="3"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>3.2320687357197259E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.26039999999999996</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0.9335</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>0.36406500000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>8.8777244055861612E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="2"/>
+        <v>1.2879999999999998</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" si="3"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>3.6540746382330534E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.29439999999999988</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0.36036000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>0.10140067261163985</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="2"/>
+        <v>1.274</v>
+      </c>
+      <c r="E16" s="48">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>4.0661509900990093E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0.32759999999999989</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0.91450000000000009</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>0.35665500000000006</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>0.11400796259968342</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="2"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>4.4682977913175922E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>0.35999999999999982</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>0.35295000000000004</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>0.12659860578885371</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="48">
+        <f t="shared" si="2"/>
+        <v>1.246</v>
+      </c>
+      <c r="E18" s="48">
+        <f t="shared" si="3"/>
+        <v>0.89</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>4.8605150418888042E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.39159999999999989</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>0.89550000000000007</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>0.34924500000000003</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>0.1391720723815317</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="2"/>
+        <v>1.232</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>5.2428027418126431E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0.42239999999999994</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>0.88600000000000012</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>0.34554000000000007</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>0.15172780985740122</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="48">
+        <f t="shared" si="2"/>
+        <v>1.218</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>5.615160891089109E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>0.45239999999999991</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0.87650000000000006</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>0.34183500000000006</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>0.16426524174204246</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" si="2"/>
+        <v>1.204</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>5.9775894897182026E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>0.48159999999999992</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>0.33812999999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>0.17678376629456727</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="48">
+        <f t="shared" si="2"/>
+        <v>1.19</v>
+      </c>
+      <c r="E22" s="48">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>6.3300885376999239E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0.33442500000000003</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>0.18928275510801892</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D23" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="E23" s="48">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>6.6726580350342721E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0.53759999999999986</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>0.33072000000000007</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>0.20176155161569517</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>425.00000000000006</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="3"/>
+        <v>0.83</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>7.0052979817212493E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>0.5643999999999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>0.327015</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>0.2142194694959329</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>7.3280083777608515E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.59039999999999981</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0.82900000000000007</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>0.32331000000000004</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>0.2266557909672095</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" si="3"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>7.6407892231530841E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>0.61559999999999981</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>0.31960500000000003</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>0.23906976496466212</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>7.9436405178979444E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>0.25146060518828567</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="2"/>
+        <v>1.1059999999999999</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="3"/>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>8.236562261995431E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>0.312195</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0.26382748801215367</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="2"/>
+        <v>1.0919999999999999</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="3"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>8.5195544554455424E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0.68639999999999968</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>0.30849000000000004</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>0.27616955024297518</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="2"/>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="3"/>
+        <v>0.77000000000000013</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>8.7926170982482871E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>0.70839999999999992</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0.78150000000000008</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>0.30478500000000003</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>0.28848588671516928</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="2"/>
+        <v>1.0639999999999998</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="3"/>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>9.0557501904036539E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>0.72959999999999969</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>0.30108000000000001</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>0.30077554770837162</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="48">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="E32" s="48">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>9.3089537319116525E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>0.297375</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>0.31303753617189245</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" si="2"/>
+        <v>1.036</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="3"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>9.5522277227722774E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0.76959999999999984</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.75300000000000011</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>0.29367000000000004</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>0.32527080473907027</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="D34" s="48">
+        <f t="shared" si="2"/>
+        <v>1.0219999999999998</v>
+      </c>
+      <c r="E34" s="48">
+        <f t="shared" si="3"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>9.7855721629855286E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0.78839999999999977</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>0.28996500000000003</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>0.33747425251273527</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>700.00000000000011</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="2"/>
+        <v>1.008</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="3"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>0.10008987052551412</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0.7340000000000001</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>0.28626000000000007</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>0.34964672160104132</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D36" s="48">
+        <f t="shared" si="2"/>
+        <v>0.99399999999999988</v>
+      </c>
+      <c r="E36" s="48">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>0.10222472391469914</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0.82359999999999967</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>0.72450000000000014</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>0.28255500000000006</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0.3617869933807546</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D37" s="48">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="E37" s="48">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0.10426028179741052</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>0.27885000000000004</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>0.37389378446265198</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="D38" s="48">
+        <f t="shared" si="2"/>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E38" s="48">
+        <f t="shared" si="3"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0.10619654417364813</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>0.85559999999999981</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>0.27514500000000003</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>0.38596574233094594</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="48">
+        <f t="shared" si="2"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E39" s="48">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0.10803351104341201</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>0.87039999999999962</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>0.69600000000000006</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>0.27144000000000001</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>0.39800144062559684</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="2"/>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E40" s="48">
+        <f t="shared" si="3"/>
+        <v>0.67</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0.10977118240670219</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>0.88439999999999974</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0.68650000000000011</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>0.26773500000000006</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>0.40999937403291375</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>850.00000000000011</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="D41" s="48">
+        <f t="shared" si="2"/>
+        <v>0.92399999999999993</v>
+      </c>
+      <c r="E41" s="48">
+        <f t="shared" si="3"/>
+        <v>0.66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0.11140955826351867</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>0.26403000000000004</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>0.42195795274597075</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>875.00000000000011</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D42" s="48">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="E42" s="48">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0.1129486386138614</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>0.26032500000000003</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>0.43387549645197881</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="D43" s="48">
+        <f t="shared" si="2"/>
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="E43" s="48">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0.11438842345773037</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>0.92159999999999964</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0.65800000000000014</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>0.25662000000000007</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>0.44575022779880891</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="D44" s="48">
+        <f t="shared" si="2"/>
+        <v>0.8819999999999999</v>
+      </c>
+      <c r="E44" s="48">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0.11572891279512566</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>0.93239999999999978</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0.64850000000000008</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>0.25291500000000006</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>0.45758026528725315</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="D45" s="48">
+        <f t="shared" si="2"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E45" s="48">
+        <f t="shared" si="3"/>
+        <v>0.62</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0.11697010662604722</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0.94239999999999979</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>0.24921000000000001</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>0.46936361552926131</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="D46" s="48">
+        <f t="shared" si="2"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E46" s="48">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0.11811200495049505</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>0.95159999999999978</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0.62950000000000006</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>0.24550500000000003</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>0.48109816480517725</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D47" s="48">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="E47" s="48">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0.11915460776846915</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.95999999999999974</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>0.24180000000000004</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>0.49278166984478544</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="D48" s="48">
+        <f t="shared" si="2"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E48" s="48">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>0.12009791507996953</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0.96759999999999979</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>0.23809500000000003</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>0.50441174774761977</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="D49" s="48">
+        <f t="shared" si="2"/>
+        <v>0.81199999999999994</v>
+      </c>
+      <c r="E49" s="48">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>0.12094192688499618</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0.97439999999999971</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>0.23438999999999999</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>0.51598586494729382</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="D50" s="48">
+        <f t="shared" si="2"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E50" s="48">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>0.12168664318354913</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0.98039999999999983</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>0.23068500000000003</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>0.5275013251123789</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="D51" s="48">
+        <f t="shared" si="2"/>
+        <v>0.78399999999999992</v>
+      </c>
+      <c r="E51" s="48">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>0.12233206397562832</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>0.9855999999999997</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>0.58200000000000007</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>0.22698000000000004</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>0.53895525586231519</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="D52" s="48">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="E52" s="48">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>0.12287818926123381</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>0.98999999999999977</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>0.223275</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>0.55034459416071579</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="D53" s="48">
+        <f t="shared" si="2"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E53" s="48">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>0.12332501904036558</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>0.99359999999999982</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0.56300000000000017</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>0.21957000000000007</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="8"/>
+        <v>0.56166607022983805</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1175</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="D54" s="48">
+        <f t="shared" si="2"/>
+        <v>0.74199999999999988</v>
+      </c>
+      <c r="E54" s="48">
+        <f t="shared" si="3"/>
+        <v>0.52999999999999992</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0.12367255331302361</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>0.99639999999999984</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>0.5535000000000001</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="7"/>
+        <v>0.21586500000000006</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>0.5729161898085543</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="D55" s="48">
+        <f t="shared" si="2"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E55" s="48">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0.12392079207920792</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>0.99839999999999984</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="7"/>
+        <v>0.21216000000000002</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="8"/>
+        <v>0.58409121455131929</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="D56" s="48">
+        <f t="shared" si="2"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E56" s="48">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>0.12406973533891849</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>0.99959999999999971</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0.53450000000000009</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="7"/>
+        <v>0.20845500000000003</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="8"/>
+        <v>0.59518714033685194</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="48">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E57" s="48">
+        <f t="shared" si="3"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>0.12411938309215539</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="7"/>
+        <v>0.20475000000000002</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="8"/>
+        <v>0.60619967322176016</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1275</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="D58" s="48">
+        <f t="shared" si="2"/>
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="E58" s="48">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0.12406973533891849</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0.99959999999999971</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>0.51550000000000007</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="7"/>
+        <v>0.20104500000000003</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>0.61712420273530044</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="D59" s="48">
+        <f t="shared" si="2"/>
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="E59" s="48">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>0.12392079207920791</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>0.99839999999999973</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="7"/>
+        <v>0.19734000000000002</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="8"/>
+        <v>0.62795577216584519</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="D60" s="48">
+        <f t="shared" si="2"/>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E60" s="48">
+        <f t="shared" si="3"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>0.12367255331302361</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>0.99639999999999984</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>0.49650000000000005</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="7"/>
+        <v>0.19363500000000003</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="8"/>
+        <v>0.63868904543612259</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="D61" s="48">
+        <f t="shared" si="2"/>
+        <v>0.64399999999999991</v>
+      </c>
+      <c r="E61" s="48">
+        <f t="shared" si="3"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>0.12332501904036555</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>0.99359999999999959</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>0.18993000000000002</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>0.64931827010143495</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1375</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D62" s="48">
+        <f t="shared" si="2"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="E62" s="48">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>0.12287818926123378</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>0.98999999999999955</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0.47750000000000004</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="7"/>
+        <v>0.18622500000000003</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>0.65983723593091026</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D63" s="48">
+        <f t="shared" si="2"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E63" s="48">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>0.12233206397562836</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0.46800000000000008</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="7"/>
+        <v>0.18252000000000004</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>0.67023922844416139</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1425.0000000000002</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="D64" s="48">
+        <f t="shared" si="2"/>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E64" s="48">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>0.12168664318354915</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0.98039999999999994</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="7"/>
+        <v>0.178815</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>0.68051697667169497</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D65" s="48">
+        <f t="shared" si="2"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E65" s="48">
+        <f t="shared" si="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>0.12094192688499618</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>0.97439999999999971</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>0.44900000000000007</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="7"/>
+        <v>0.17511000000000004</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>0.69066259428357113</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="D66" s="48">
+        <f t="shared" si="2"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E66" s="48">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>0.12009791507996953</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>0.96759999999999979</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>0.4395</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="7"/>
+        <v>0.171405</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="8"/>
+        <v>0.70066751308287112</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="48">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E67" s="48">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>0.11915460776846917</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="7"/>
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="8"/>
+        <v>0.71052240768317942</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>1525</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="D68" s="48">
+        <f t="shared" si="2"/>
+        <v>0.54599999999999993</v>
+      </c>
+      <c r="E68" s="48">
+        <f t="shared" si="3"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>0.11811200495049504</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0.95159999999999967</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>0.163995</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>0.72021710997588362</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="D69" s="48">
+        <f t="shared" si="2"/>
+        <v>0.53199999999999992</v>
+      </c>
+      <c r="E69" s="48">
+        <f t="shared" si="3"/>
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0.1169701066260472</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0.94239999999999968</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>0.16029000000000002</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>0.72974051173527477</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="D70" s="48">
+        <f t="shared" si="2"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E70" s="48">
+        <f t="shared" si="3"/>
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0.11572891279512566</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0.93239999999999978</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0.40150000000000008</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>0.15658500000000003</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>0.73908045339672157</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D71" s="48">
+        <f t="shared" si="2"/>
+        <v>0.504</v>
+      </c>
+      <c r="E71" s="48">
+        <f t="shared" si="3"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0.11438842345773038</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0.92159999999999975</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>0.15288000000000002</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>0.74822359666228655</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B107" si="10">A72*0.01*$B$5</f>
+        <v>1625</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:C107" si="11">B72/$B$5</f>
+        <v>0.65</v>
+      </c>
+      <c r="D72" s="48">
+        <f t="shared" ref="D72:D107" si="12">(100-A72)*$B$3*0.01</f>
+        <v>0.49</v>
+      </c>
+      <c r="E72" s="48">
+        <f t="shared" ref="E72:E107" si="13">D72/$B$3</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F107" si="14">D72*B72/5252*0.745</f>
+        <v>0.11294863861386138</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:G108" si="15">F72/$F$108</f>
+        <v>0.90999999999999981</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H107" si="16" xml:space="preserve"> $B$4 + 1 - (A72 * (1-$B$4)*0.01 + $B$4)</f>
+        <v>0.38249999999999995</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:I107" si="17">H72*$B$2</f>
+        <v>0.14917499999999997</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J107" si="18">F72/I72</f>
+        <v>0.75715527812208083</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L107" si="19">A72</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="10"/>
+        <v>1650</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="11"/>
+        <v>0.66</v>
+      </c>
+      <c r="D73" s="48">
+        <f t="shared" si="12"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E73" s="48">
+        <f t="shared" si="13"/>
+        <v>0.34</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="14"/>
+        <v>0.11140955826351867</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="15"/>
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="16"/>
+        <v>0.373</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="17"/>
+        <v>0.14547000000000002</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="18"/>
+        <v>0.76585934050676197</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="10"/>
+        <v>1675</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="11"/>
+        <v>0.67</v>
+      </c>
+      <c r="D74" s="48">
+        <f t="shared" si="12"/>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="E74" s="48">
+        <f t="shared" si="13"/>
+        <v>0.33</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="14"/>
+        <v>0.10977118240670219</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="15"/>
+        <v>0.88439999999999974</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="16"/>
+        <v>0.36350000000000005</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="17"/>
+        <v>0.14176500000000003</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="18"/>
+        <v>0.77431793747894173</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="19"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>1700.0000000000002</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>0.68</v>
+      </c>
+      <c r="D75" s="48">
+        <f t="shared" si="12"/>
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="E75" s="48">
+        <f t="shared" si="13"/>
+        <v>0.32</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="14"/>
+        <v>0.10803351104341204</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="15"/>
+        <v>0.87039999999999984</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="16"/>
+        <v>0.35400000000000009</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="17"/>
+        <v>0.13806000000000004</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="18"/>
+        <v>0.78251130699269889</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="10"/>
+        <v>1725.0000000000002</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="D76" s="48">
+        <f t="shared" si="12"/>
+        <v>0.434</v>
+      </c>
+      <c r="E76" s="48">
+        <f t="shared" si="13"/>
+        <v>0.31</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="14"/>
+        <v>0.10619654417364814</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="15"/>
+        <v>0.85559999999999992</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="16"/>
+        <v>0.34450000000000003</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="17"/>
+        <v>0.134355</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="18"/>
+        <v>0.79041750715379511</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="19"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="10"/>
+        <v>1750.0000000000002</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D77" s="48">
+        <f t="shared" si="12"/>
+        <v>0.42</v>
+      </c>
+      <c r="E77" s="48">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>0.10426028179741052</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="15"/>
+        <v>0.84</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="16"/>
+        <v>0.33499999999999996</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="17"/>
+        <v>0.13064999999999999</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="18"/>
+        <v>0.79801210713670523</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="10"/>
+        <v>1775</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="11"/>
+        <v>0.71</v>
+      </c>
+      <c r="D78" s="48">
+        <f t="shared" si="12"/>
+        <v>0.40599999999999997</v>
+      </c>
+      <c r="E78" s="48">
+        <f t="shared" si="13"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>0.10222472391469915</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="15"/>
+        <v>0.82359999999999978</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="16"/>
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="17"/>
+        <v>0.126945</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="18"/>
+        <v>0.80526782397651853</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="10"/>
+        <v>1800</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>0.72</v>
+      </c>
+      <c r="D79" s="48">
+        <f t="shared" si="12"/>
+        <v>0.39199999999999996</v>
+      </c>
+      <c r="E79" s="48">
+        <f t="shared" si="13"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="14"/>
+        <v>0.10008987052551407</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="15"/>
+        <v>0.80639999999999967</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="16"/>
+        <v>0.31600000000000006</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="17"/>
+        <v>0.12324000000000003</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="18"/>
+        <v>0.81215409384545645</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="10"/>
+        <v>1825</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>0.73</v>
+      </c>
+      <c r="D80" s="48">
+        <f t="shared" si="12"/>
+        <v>0.378</v>
+      </c>
+      <c r="E80" s="48">
+        <f t="shared" si="13"/>
+        <v>0.27</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>9.7855721629855286E-2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="15"/>
+        <v>0.78839999999999977</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="16"/>
+        <v>0.30649999999999999</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="17"/>
+        <v>0.119535</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="18"/>
+        <v>0.8186365635994084</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="10"/>
+        <v>1850</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>0.74</v>
+      </c>
+      <c r="D81" s="48">
+        <f t="shared" si="12"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E81" s="48">
+        <f t="shared" si="13"/>
+        <v>0.26</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>9.5522277227722774E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="15"/>
+        <v>0.76959999999999984</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="16"/>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="17"/>
+        <v>0.11583000000000002</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="18"/>
+        <v>0.82467648474249122</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="19"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>1875</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="D82" s="48">
+        <f t="shared" si="12"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E82" s="48">
+        <f t="shared" si="13"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>9.3089537319116539E-2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="15"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="16"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="17"/>
+        <v>0.11212499999999999</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="18"/>
+        <v>0.83022998723849761</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>1900</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>0.76</v>
+      </c>
+      <c r="D83" s="48">
+        <f t="shared" si="12"/>
+        <v>0.33599999999999997</v>
+      </c>
+      <c r="E83" s="48">
+        <f t="shared" si="13"/>
+        <v>0.24</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>9.0557501904036553E-2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="15"/>
+        <v>0.7295999999999998</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="16"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="17"/>
+        <v>0.10841999999999997</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="18"/>
+        <v>0.83524720442756473</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>1925</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>0.77</v>
+      </c>
+      <c r="D84" s="48">
+        <f t="shared" si="12"/>
+        <v>0.32199999999999995</v>
+      </c>
+      <c r="E84" s="48">
+        <f t="shared" si="13"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>8.7926170982482843E-2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="15"/>
+        <v>0.7083999999999997</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="16"/>
+        <v>0.26850000000000007</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="17"/>
+        <v>0.10471500000000003</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="18"/>
+        <v>0.83967121217096707</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="19"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>1950</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>0.78</v>
+      </c>
+      <c r="D85" s="48">
+        <f t="shared" si="12"/>
+        <v>0.308</v>
+      </c>
+      <c r="E85" s="48">
+        <f t="shared" si="13"/>
+        <v>0.22</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="14"/>
+        <v>8.5195544554455452E-2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="15"/>
+        <v>0.6863999999999999</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="16"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="17"/>
+        <v>0.10101</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="18"/>
+        <v>0.84343673452584345</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="19"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>1975</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>0.79</v>
+      </c>
+      <c r="D86" s="48">
+        <f t="shared" si="12"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E86" s="48">
+        <f t="shared" si="13"/>
+        <v>0.21</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="14"/>
+        <v>8.236562261995431E-2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="15"/>
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="16"/>
+        <v>0.24950000000000006</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="17"/>
+        <v>9.730500000000003E-2</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="18"/>
+        <v>0.84646855372236041</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="D87" s="48">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E87" s="48">
+        <f t="shared" si="13"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="14"/>
+        <v>7.9436405178979444E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="15"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="16"/>
+        <v>0.24</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="17"/>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="18"/>
+        <v>0.84867954251046407</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>2025.0000000000002</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="D88" s="48">
+        <f t="shared" si="12"/>
+        <v>0.26599999999999996</v>
+      </c>
+      <c r="E88" s="48">
+        <f t="shared" si="13"/>
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="14"/>
+        <v>7.6407892231530841E-2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="15"/>
+        <v>0.61559999999999981</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="16"/>
+        <v>0.23049999999999993</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="17"/>
+        <v>8.9894999999999975E-2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="18"/>
+        <v>0.8499682099285929</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>2050</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="11"/>
+        <v>0.82</v>
+      </c>
+      <c r="D89" s="48">
+        <f t="shared" si="12"/>
+        <v>0.252</v>
+      </c>
+      <c r="E89" s="48">
+        <f t="shared" si="13"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="14"/>
+        <v>7.3280083777608529E-2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="15"/>
+        <v>0.59039999999999992</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="16"/>
+        <v>0.22100000000000009</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="17"/>
+        <v>8.619000000000003E-2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="18"/>
+        <v>0.85021561408061841</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>2075</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="11"/>
+        <v>0.83</v>
+      </c>
+      <c r="D90" s="48">
+        <f t="shared" si="12"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E90" s="48">
+        <f t="shared" si="13"/>
+        <v>0.17</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="14"/>
+        <v>7.0052979817212493E-2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="15"/>
+        <v>0.5643999999999999</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="16"/>
+        <v>0.21150000000000002</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="17"/>
+        <v>8.2485000000000017E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="18"/>
+        <v>0.84928144289522312</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="19"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>2100</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
+      </c>
+      <c r="D91" s="48">
+        <f t="shared" si="12"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="E91" s="48">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="14"/>
+        <v>6.6726580350342721E-2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="15"/>
+        <v>0.53759999999999986</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="16"/>
+        <v>0.20199999999999996</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="17"/>
+        <v>7.8779999999999989E-2</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="18"/>
+        <v>0.84699898896093839</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="19"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>2125</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="11"/>
+        <v>0.85</v>
+      </c>
+      <c r="D92" s="48">
+        <f t="shared" si="12"/>
+        <v>0.21</v>
+      </c>
+      <c r="E92" s="48">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="14"/>
+        <v>6.3300885376999239E-2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="15"/>
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="16"/>
+        <v>0.1925</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="17"/>
+        <v>7.5075000000000003E-2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="18"/>
+        <v>0.84316863639026618</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="19"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="10"/>
+        <v>2150</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="11"/>
+        <v>0.86</v>
+      </c>
+      <c r="D93" s="48">
+        <f t="shared" si="12"/>
+        <v>0.19599999999999998</v>
+      </c>
+      <c r="E93" s="48">
+        <f t="shared" si="13"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="14"/>
+        <v>5.9775894897182019E-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="15"/>
+        <v>0.48159999999999986</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="16"/>
+        <v>0.18299999999999994</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="17"/>
+        <v>7.1369999999999975E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="18"/>
+        <v>0.83754931900213025</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="19"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="10"/>
+        <v>2175</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="11"/>
+        <v>0.87</v>
+      </c>
+      <c r="D94" s="48">
+        <f t="shared" si="12"/>
+        <v>0.182</v>
+      </c>
+      <c r="E94" s="48">
+        <f t="shared" si="13"/>
+        <v>0.13</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="14"/>
+        <v>5.615160891089109E-2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="15"/>
+        <v>0.45239999999999991</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="16"/>
+        <v>0.1735000000000001</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="17"/>
+        <v>6.7665000000000045E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="18"/>
+        <v>0.82984717225879046</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="19"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="10"/>
+        <v>2200</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="11"/>
+        <v>0.88</v>
+      </c>
+      <c r="D95" s="48">
+        <f t="shared" si="12"/>
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="E95" s="48">
+        <f t="shared" si="13"/>
+        <v>0.12</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="14"/>
+        <v>5.2428027418126424E-2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="15"/>
+        <v>0.42239999999999989</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="16"/>
+        <v>0.16400000000000003</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="17"/>
+        <v>6.3960000000000017E-2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="18"/>
+        <v>0.81970024105888695</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="19"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="10"/>
+        <v>2225</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="11"/>
+        <v>0.89</v>
+      </c>
+      <c r="D96" s="48">
+        <f t="shared" si="12"/>
+        <v>0.154</v>
+      </c>
+      <c r="E96" s="48">
+        <f t="shared" si="13"/>
+        <v>0.11</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="14"/>
+        <v>4.8605150418888042E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="15"/>
+        <v>0.39159999999999989</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="16"/>
+        <v>0.15449999999999997</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="17"/>
+        <v>6.0254999999999989E-2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="18"/>
+        <v>0.80665754574538295</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="19"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="10"/>
+        <v>2250</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="D97" s="48">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E97" s="48">
+        <f t="shared" si="13"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="14"/>
+        <v>4.4682977913175943E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="15"/>
+        <v>0.36</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="16"/>
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="17"/>
+        <v>5.655000000000001E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="18"/>
+        <v>0.79014991888905284</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="19"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="10"/>
+        <v>2275</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="11"/>
+        <v>0.91</v>
+      </c>
+      <c r="D98" s="48">
+        <f t="shared" si="12"/>
+        <v>0.126</v>
+      </c>
+      <c r="E98" s="48">
+        <f t="shared" si="13"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="14"/>
+        <v>4.0661509900990093E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="15"/>
+        <v>0.32759999999999989</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="16"/>
+        <v>0.13549999999999995</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="17"/>
+        <v>5.2844999999999982E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="18"/>
+        <v>0.76944857415063128</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>92</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="10"/>
+        <v>2300</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+      <c r="D99" s="48">
+        <f t="shared" si="12"/>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="E99" s="48">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="14"/>
+        <v>3.6540746382330534E-2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="15"/>
+        <v>0.29439999999999988</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="16"/>
+        <v>0.12600000000000011</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="17"/>
+        <v>4.9140000000000045E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="18"/>
+        <v>0.74360493248535819</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="19"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="10"/>
+        <v>2325</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="11"/>
+        <v>0.93</v>
+      </c>
+      <c r="D100" s="48">
+        <f t="shared" si="12"/>
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="E100" s="48">
+        <f t="shared" si="13"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="14"/>
+        <v>3.2320687357197252E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="15"/>
+        <v>0.26039999999999991</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="16"/>
+        <v>0.11650000000000005</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="17"/>
+        <v>4.5435000000000017E-2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="18"/>
+        <v>0.71136100709138861</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="19"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="10"/>
+        <v>2350</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="11"/>
+        <v>0.94</v>
+      </c>
+      <c r="D101" s="48">
+        <f t="shared" si="12"/>
+        <v>8.3999999999999991E-2</v>
+      </c>
+      <c r="E101" s="48">
+        <f t="shared" si="13"/>
+        <v>0.06</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="14"/>
+        <v>2.8001332825590249E-2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="15"/>
+        <v>0.22559999999999994</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="16"/>
+        <v>0.10699999999999998</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="17"/>
+        <v>4.1729999999999996E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="18"/>
+        <v>0.67101204949892768</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="19"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="10"/>
+        <v>2375</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="11"/>
+        <v>0.95</v>
+      </c>
+      <c r="D102" s="48">
+        <f t="shared" si="12"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E102" s="48">
+        <f t="shared" si="13"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="14"/>
+        <v>2.3582682787509524E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="15"/>
+        <v>0.19</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="16"/>
+        <v>9.7500000000000031E-2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="17"/>
+        <v>3.802500000000001E-2</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="18"/>
+        <v>0.62018889644995445</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="19"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="11"/>
+        <v>0.96</v>
+      </c>
+      <c r="D103" s="48">
+        <f t="shared" si="12"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="E103" s="48">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="14"/>
+        <v>1.9064737242955061E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="15"/>
+        <v>0.15359999999999993</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="16"/>
+        <v>8.8000000000000078E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="17"/>
+        <v>3.4320000000000031E-2</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="18"/>
+        <v>0.55549933691593945</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="19"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="10"/>
+        <v>2425</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="11"/>
+        <v>0.97</v>
+      </c>
+      <c r="D104" s="48">
+        <f t="shared" si="12"/>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="E104" s="48">
+        <f t="shared" si="13"/>
+        <v>0.03</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="14"/>
+        <v>1.4447496191926885E-2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="15"/>
+        <v>0.11639999999999998</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="16"/>
+        <v>7.8500000000000014E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="17"/>
+        <v>3.0615000000000007E-2</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="18"/>
+        <v>0.47190907045327068</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="19"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="10"/>
+        <v>2450</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="11"/>
+        <v>0.98</v>
+      </c>
+      <c r="D105" s="48">
+        <f t="shared" si="12"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="E105" s="48">
+        <f t="shared" si="13"/>
+        <v>0.02</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="14"/>
+        <v>9.7309596344249804E-3</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="15"/>
+        <v>7.8399999999999984E-2</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="16"/>
+        <v>6.9000000000000061E-2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="17"/>
+        <v>2.6910000000000024E-2</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="18"/>
+        <v>0.36161128333054521</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="19"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="10"/>
+        <v>2475</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="11"/>
+        <v>0.99</v>
+      </c>
+      <c r="D106" s="48">
+        <f t="shared" si="12"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E106" s="48">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="14"/>
+        <v>4.9151275704493527E-3</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="15"/>
+        <v>3.9599999999999989E-2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="16"/>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="17"/>
+        <v>2.3205E-2</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="18"/>
+        <v>0.2118132975845444</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="19"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="17"/>
+        <v>1.9500000000000017E-2</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f>LARGE(F7:F107,1)</f>
+        <v>0.12411938309215539</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PartBalance.xlsx
+++ b/PartBalance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Repulsor</t>
   </si>
@@ -223,6 +223,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -733,9 +736,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -813,6 +813,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +986,7 @@
                   <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.35000000000000003</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.36</c:v>
@@ -1082,10 +1088,10 @@
                   <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.69000000000000006</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.71</c:v>
@@ -1207,16 +1213,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.9900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.97000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.96</c:v>
@@ -1225,19 +1231,19 @@
                   <c:v>0.95000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94000000000000006</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.89</c:v>
@@ -1252,43 +1258,43 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85</c:v>
+                  <c:v>0.85000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83</c:v>
+                  <c:v>0.83000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80999999999999994</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.80000000000000016</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78999999999999992</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.77999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77000000000000013</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7599999999999999</c:v>
+                  <c:v>0.76000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.75000000000000011</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.7400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72999999999999987</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.72000000000000008</c:v>
@@ -1300,7 +1306,7 @@
                   <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69000000000000006</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.68</c:v>
@@ -1336,7 +1342,7 @@
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57000000000000006</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.55999999999999994</c:v>
@@ -1348,7 +1354,7 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.52999999999999992</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.52</c:v>
@@ -1357,7 +1363,7 @@
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.50000000000000011</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.49</c:v>
@@ -1366,13 +1372,13 @@
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.47000000000000003</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.45999999999999996</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.44999999999999996</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.44</c:v>
@@ -1387,13 +1393,13 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.38999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.37999999999999995</c:v>
+                  <c:v>0.38000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.37000000000000005</c:v>
@@ -1432,13 +1438,13 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25000000000000006</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.22999999999999998</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.22</c:v>
@@ -1447,10 +1453,10 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.18999999999999997</c:v>
+                  <c:v>0.19000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.18000000000000002</c:v>
@@ -1477,7 +1483,7 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.10000000000000002</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>9.0000000000000011E-2</c:v>
@@ -1492,7 +1498,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.000000000000001E-2</c:v>
+                  <c:v>4.9999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.04</c:v>
@@ -1542,301 +1548,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9599999999999989E-2</c:v>
+                  <c:v>3.9600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8399999999999984E-2</c:v>
+                  <c:v>7.8399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11639999999999998</c:v>
+                  <c:v>0.11640000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15359999999999993</c:v>
+                  <c:v>0.15359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22559999999999994</c:v>
+                  <c:v>0.22559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26039999999999996</c:v>
+                  <c:v>0.26040000000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29439999999999988</c:v>
+                  <c:v>0.29440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32759999999999989</c:v>
+                  <c:v>0.32760000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35999999999999982</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39159999999999989</c:v>
+                  <c:v>0.39160000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42239999999999994</c:v>
+                  <c:v>0.42240000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45239999999999991</c:v>
+                  <c:v>0.45240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48159999999999992</c:v>
+                  <c:v>0.48160000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5099999999999999</c:v>
+                  <c:v>0.51000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53759999999999986</c:v>
+                  <c:v>0.53759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5643999999999999</c:v>
+                  <c:v>0.56440000000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59039999999999981</c:v>
+                  <c:v>0.59040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61559999999999981</c:v>
+                  <c:v>0.61560000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6399999999999999</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66359999999999997</c:v>
+                  <c:v>0.66360000000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68639999999999968</c:v>
+                  <c:v>0.68640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.70839999999999992</c:v>
+                  <c:v>0.70840000000000014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72959999999999969</c:v>
+                  <c:v>0.72960000000000014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.74999999999999978</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76959999999999984</c:v>
+                  <c:v>0.76960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78839999999999977</c:v>
+                  <c:v>0.78839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.80640000000000001</c:v>
+                  <c:v>0.80640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.82359999999999967</c:v>
+                  <c:v>0.82359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84</c:v>
+                  <c:v>0.84000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.85559999999999981</c:v>
+                  <c:v>0.85560000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.87039999999999962</c:v>
+                  <c:v>0.87040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.88439999999999974</c:v>
+                  <c:v>0.88440000000000019</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.89759999999999995</c:v>
+                  <c:v>0.89760000000000018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.90999999999999992</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92159999999999964</c:v>
+                  <c:v>0.92160000000000009</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93239999999999978</c:v>
+                  <c:v>0.93240000000000012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94239999999999979</c:v>
+                  <c:v>0.94240000000000013</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.95159999999999978</c:v>
+                  <c:v>0.95160000000000011</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.95999999999999974</c:v>
+                  <c:v>0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.96759999999999979</c:v>
+                  <c:v>0.96760000000000013</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97439999999999971</c:v>
+                  <c:v>0.97440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.98039999999999983</c:v>
+                  <c:v>0.98040000000000016</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.9855999999999997</c:v>
+                  <c:v>0.98560000000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.98999999999999977</c:v>
+                  <c:v>0.9900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99359999999999982</c:v>
+                  <c:v>0.99360000000000026</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99639999999999984</c:v>
+                  <c:v>0.99640000000000017</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99839999999999984</c:v>
+                  <c:v>0.99840000000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99959999999999971</c:v>
+                  <c:v>0.99960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99959999999999971</c:v>
+                  <c:v>0.99960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99839999999999973</c:v>
+                  <c:v>0.99840000000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99639999999999984</c:v>
+                  <c:v>0.99640000000000017</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99359999999999959</c:v>
+                  <c:v>0.99360000000000026</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.98999999999999955</c:v>
+                  <c:v>0.99000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.98560000000000003</c:v>
+                  <c:v>0.98560000000000025</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98039999999999994</c:v>
+                  <c:v>0.98040000000000027</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97439999999999971</c:v>
+                  <c:v>0.97439999999999982</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.96759999999999979</c:v>
+                  <c:v>0.96760000000000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.96</c:v>
+                  <c:v>0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95159999999999967</c:v>
+                  <c:v>0.95160000000000011</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.94239999999999968</c:v>
+                  <c:v>0.94240000000000013</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.93239999999999978</c:v>
+                  <c:v>0.93240000000000012</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.92159999999999975</c:v>
+                  <c:v>0.9216000000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90999999999999981</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.89759999999999995</c:v>
+                  <c:v>0.89760000000000018</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.88439999999999974</c:v>
+                  <c:v>0.88440000000000019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.87039999999999984</c:v>
+                  <c:v>0.87040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.85559999999999992</c:v>
+                  <c:v>0.85560000000000003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.84</c:v>
+                  <c:v>0.84000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.82359999999999978</c:v>
+                  <c:v>0.82360000000000011</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.80639999999999967</c:v>
+                  <c:v>0.80640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.78839999999999977</c:v>
+                  <c:v>0.7884000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.76959999999999984</c:v>
+                  <c:v>0.76960000000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.74999999999999989</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.7295999999999998</c:v>
+                  <c:v>0.72960000000000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.7083999999999997</c:v>
+                  <c:v>0.70840000000000014</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.6863999999999999</c:v>
+                  <c:v>0.68640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.66359999999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.6399999999999999</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.61559999999999981</c:v>
+                  <c:v>0.61560000000000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.59039999999999992</c:v>
+                  <c:v>0.59040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5643999999999999</c:v>
+                  <c:v>0.56440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.53759999999999986</c:v>
+                  <c:v>0.53759999999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5099999999999999</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.48159999999999986</c:v>
+                  <c:v>0.48159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.45239999999999991</c:v>
+                  <c:v>0.45240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.42239999999999989</c:v>
+                  <c:v>0.42239999999999994</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.39159999999999989</c:v>
+                  <c:v>0.39160000000000006</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.32759999999999989</c:v>
+                  <c:v>0.32760000000000006</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.29439999999999988</c:v>
+                  <c:v>0.2944</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.26039999999999991</c:v>
+                  <c:v>0.26040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.22559999999999994</c:v>
+                  <c:v>0.22559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.15359999999999993</c:v>
+                  <c:v>0.15359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.11639999999999998</c:v>
+                  <c:v>0.1164</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.8399999999999984E-2</c:v>
+                  <c:v>7.8399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.9599999999999989E-2</c:v>
+                  <c:v>3.9599999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -1874,301 +1880,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2723766992711145E-2</c:v>
+                  <c:v>6.5436515962514472E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.543443277248485E-2</c:v>
+                  <c:v>0.13080565425849353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8131613001113486E-2</c:v>
+                  <c:v>0.19610543829144084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0814908158630677E-2</c:v>
+                  <c:v>0.26133381338724349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3483902786215823E-2</c:v>
+                  <c:v>0.32648864290053847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6138164683335369E-2</c:v>
+                  <c:v>0.39156770408572472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8777244055861612E-2</c:v>
+                  <c:v>0.45656868371585974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10140067261163985</c:v>
+                  <c:v>0.52148917343129075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11400796259968342</c:v>
+                  <c:v>0.58632666479837192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12659860578885371</c:v>
+                  <c:v>0.65107854405696208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1391720723815317</c:v>
+                  <c:v>0.71574208653359161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15172780985740122</c:v>
+                  <c:v>0.78031445069520633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16426524174204246</c:v>
+                  <c:v>0.84479267181621831</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17678376629456727</c:v>
+                  <c:v>0.90917365522920313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.18928275510801892</c:v>
+                  <c:v>0.9734541691269547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20176155161569517</c:v>
+                  <c:v>1.0376308368807179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2142194694959329</c:v>
+                  <c:v>1.1017001288362265</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2266557909672095</c:v>
+                  <c:v>1.1656583535456491</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23906976496466212</c:v>
+                  <c:v>1.229501648389691</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25146060518828567</c:v>
+                  <c:v>1.2932259695397548</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26382748801215367</c:v>
+                  <c:v>1.3568270812053618</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27616955024297518</c:v>
+                  <c:v>1.4203005441067298</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28848588671516928</c:v>
+                  <c:v>1.4836417031065847</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30077554770837162</c:v>
+                  <c:v>1.546845673928769</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31303753617189245</c:v>
+                  <c:v>1.6099073288840182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.32527080473907027</c:v>
+                  <c:v>1.6728212815152184</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33747425251273527</c:v>
+                  <c:v>1.7355818700654955</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34964672160104132</c:v>
+                  <c:v>1.7981831396624979</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3617869933807546</c:v>
+                  <c:v>1.8606188231010239</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.37389378446265198</c:v>
+                  <c:v>1.9228823200936387</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.38596574233094594</c:v>
+                  <c:v>1.9849666748448647</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.39800144062559684</c:v>
+                  <c:v>2.0468645517887842</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.40999937403291375</c:v>
+                  <c:v>2.1085682093121285</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.42195795274597075</c:v>
+                  <c:v>2.1700694712649926</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.43387549645197881</c:v>
+                  <c:v>2.2313596960387478</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.44575022779880891</c:v>
+                  <c:v>2.2924297429653033</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.45758026528725315</c:v>
+                  <c:v>2.3532699357630165</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.46936361552926131</c:v>
+                  <c:v>2.4138700227219156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48109816480517725</c:v>
+                  <c:v>2.4742191332837686</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.49278166984478544</c:v>
+                  <c:v>2.5343057306303254</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.50441174774761977</c:v>
+                  <c:v>2.5941175598449018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.51598586494729382</c:v>
+                  <c:v>2.6536415911575109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5275013251123789</c:v>
+                  <c:v>2.7128639577208054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.53895525586231519</c:v>
+                  <c:v>2.771769887291907</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55034459416071579</c:v>
+                  <c:v>2.8303436271122524</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.56166607022983805</c:v>
+                  <c:v>2.8885683611820245</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5729161898085543</c:v>
+                  <c:v>2.9464261190154226</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.58409121455131929</c:v>
+                  <c:v>3.0038976748353567</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.59518714033685194</c:v>
+                  <c:v>3.0609624360180963</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.60619967322176016</c:v>
+                  <c:v>3.117598319426194</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.61712420273530044</c:v>
+                  <c:v>3.1737816140672597</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.62795577216584519</c:v>
+                  <c:v>3.2294868282814901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.63868904543612259</c:v>
+                  <c:v>3.2846865193857733</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.64931827010143495</c:v>
+                  <c:v>3.3393511033788097</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.65983723593091026</c:v>
+                  <c:v>3.3934486419303971</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.67023922844416139</c:v>
+                  <c:v>3.4469446034271156</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.68051697667169497</c:v>
+                  <c:v>3.4998015943115748</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.69066259428357113</c:v>
+                  <c:v>3.5519790563155085</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.70066751308287112</c:v>
+                  <c:v>3.6034329244261949</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.71052240768317942</c:v>
+                  <c:v>3.6541152395134935</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.72021710997588362</c:v>
+                  <c:v>3.703973708447402</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.72974051173527477</c:v>
+                  <c:v>3.7529512032099852</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.73908045339672157</c:v>
+                  <c:v>3.8009851888974255</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.74822359666228655</c:v>
+                  <c:v>3.8480070685489034</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.75715527812208083</c:v>
+                  <c:v>3.8939414303421298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.76585934050676197</c:v>
+                  <c:v>3.9387051797490615</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.77431793747894173</c:v>
+                  <c:v>3.9822065356059873</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.78251130699269889</c:v>
+                  <c:v>4.02434386453388</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.79041750715379511</c:v>
+                  <c:v>4.0650043225052315</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.79801210713670523</c:v>
+                  <c:v>4.104062265274484</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.80526782397651853</c:v>
+                  <c:v>4.1413773804506677</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.81215409384545645</c:v>
+                  <c:v>4.1767924826337772</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8186365635994084</c:v>
+                  <c:v>4.2101308985112444</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.82467648474249122</c:v>
+                  <c:v>4.2411933501042407</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.83022998723849761</c:v>
+                  <c:v>4.2697542200837013</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.83524720442756473</c:v>
+                  <c:v>4.2955570513417616</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.83967121217096707</c:v>
+                  <c:v>4.3183090911649753</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.84343673452584345</c:v>
+                  <c:v>4.3376746347043378</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.84646855372236041</c:v>
+                  <c:v>4.3532668477149956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.84867954251046407</c:v>
+                  <c:v>4.3646376471966724</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8499682099285929</c:v>
+                  <c:v>4.3712650796327646</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.85021561408061841</c:v>
+                  <c:v>4.3725374438431803</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.84928144289522312</c:v>
+                  <c:v>4.3677331348897193</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84699898896093839</c:v>
+                  <c:v>4.3559948003705404</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.84316863639026618</c:v>
+                  <c:v>4.3362958442927972</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.83754931900213025</c:v>
+                  <c:v>4.3073964977252412</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.82984717225879046</c:v>
+                  <c:v>4.2677854573309224</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81970024105888695</c:v>
+                  <c:v>4.2156012397314182</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.80665754574538295</c:v>
+                  <c:v>4.1485245209762551</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.79014991888905284</c:v>
+                  <c:v>4.0636281542865555</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.76944857415063128</c:v>
+                  <c:v>3.9571640956318186</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.74360493248535819</c:v>
+                  <c:v>3.824253938496128</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.71136100709138861</c:v>
+                  <c:v>3.6584280364699993</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.67101204949892768</c:v>
+                  <c:v>3.450919111708771</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.62018889644995445</c:v>
+                  <c:v>3.1895428960283367</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.55549933691593945</c:v>
+                  <c:v>2.8568537327105461</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.47190907045327068</c:v>
+                  <c:v>2.4269609337596778</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.36161128333054521</c:v>
+                  <c:v>1.8597151714142326</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.2118132975845444</c:v>
+                  <c:v>1.0893255304347995</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -2186,11 +2192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233761632"/>
-        <c:axId val="233768296"/>
+        <c:axId val="220476928"/>
+        <c:axId val="220478464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233761632"/>
+        <c:axId val="220476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2253,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233768296"/>
+        <c:crossAx val="220478464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233768296"/>
+        <c:axId val="220478464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233761632"/>
+        <c:crossAx val="220476928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2994,7 +3000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3029,7 +3035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3240,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,112 +3280,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="54" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="49" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="51"/>
+      <c r="W1" s="50"/>
       <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="53"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" t="s">
         <v>48</v>
       </c>
@@ -3388,7 +3394,9 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0.25</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
         <v>0.2</v>
@@ -3406,13 +3414,14 @@
         <v>2</v>
       </c>
       <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>28</v>
+        <f>20 * B3</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="36">
+        <v>600</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>28</v>
@@ -3436,14 +3445,14 @@
         <f>IFERROR(O3/Q3/60*D3*2*PI(), 0)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="45">
         <f>IFERROR(M3*Q3/D3, 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="45">
         <v>6.666666666666667</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <f>IFERROR(S3/I3,0)</f>
         <v>0</v>
       </c>
@@ -3457,13 +3466,15 @@
       <c r="X3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="35"/>
+      <c r="Y3" s="34"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11">
+        <v>0.25</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13">
         <v>0.2</v>
@@ -3481,13 +3492,14 @@
         <v>2</v>
       </c>
       <c r="I4" s="13">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>28</v>
+        <f t="shared" ref="I4:I19" si="1">20 * B4</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="37">
+        <v>600</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>28</v>
@@ -3508,18 +3520,18 @@
         <v>8</v>
       </c>
       <c r="R4" s="12">
-        <f t="shared" ref="R4:R19" si="1">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
+        <f t="shared" ref="R4:R19" si="2">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="39">
-        <f t="shared" ref="S4:S19" si="2">IFERROR(M4*Q4/D4, 0)</f>
+      <c r="S4" s="38">
+        <f t="shared" ref="S4:S19" si="3">IFERROR(M4*Q4/D4, 0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="38">
         <v>6.666666666666667</v>
       </c>
       <c r="U4" s="19">
-        <f t="shared" ref="U4:U19" si="3">IFERROR(S4/I4,0)</f>
+        <f t="shared" ref="U4:U19" si="4">IFERROR(S4/I4,0)</f>
         <v>0</v>
       </c>
       <c r="V4" s="15">
@@ -3538,7 +3550,9 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11">
+        <v>0.15</v>
+      </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13">
         <v>0.2</v>
@@ -3556,13 +3570,14 @@
         <v>2</v>
       </c>
       <c r="I5" s="13">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="37">
+        <v>600</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>28</v>
@@ -3583,18 +3598,18 @@
         <v>8</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="39">
+      <c r="S5" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="38">
         <v>6.666666666666667</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V5" s="15">
@@ -3613,7 +3628,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11">
+        <v>1.25</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13">
         <v>0.375</v>
@@ -3631,25 +3648,29 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="J6" s="12">
         <f>K6*D6*2*PI()/60</f>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="K6" s="39">
-        <v>400</v>
-      </c>
-      <c r="L6" s="19"/>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="K6" s="38">
+        <v>600</v>
+      </c>
+      <c r="L6" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M6" s="15">
         <f>(10*I6)/Q6*D6</f>
-        <v>4.6875</v>
-      </c>
-      <c r="N6" s="44">
+        <v>11.71875</v>
+      </c>
+      <c r="N6" s="43">
         <v>0.15</v>
       </c>
       <c r="O6" s="13">
-        <v>2500</v>
+        <f>K6*Q6</f>
+        <v>4800</v>
       </c>
       <c r="P6" s="13">
         <v>1</v>
@@ -3658,18 +3679,18 @@
         <v>8</v>
       </c>
       <c r="R6" s="16">
-        <f t="shared" si="1"/>
-        <v>12.271846303085129</v>
-      </c>
-      <c r="S6" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="T6" s="41">
+        <v>23.561944901923447</v>
+      </c>
+      <c r="S6" s="40">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="T6" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U6" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V6" s="15">
@@ -3688,7 +3709,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
         <v>0.09</v>
@@ -3706,16 +3729,19 @@
         <v>0.1</v>
       </c>
       <c r="I7" s="13">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" ref="J7:J19" si="4">K7*D7*2*PI()/60</f>
-        <v>3.7699111843077517</v>
-      </c>
-      <c r="K7" s="39">
-        <v>400</v>
-      </c>
-      <c r="L7" s="19"/>
+        <f t="shared" ref="J7:J19" si="5">K7*D7*2*PI()/60</f>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="K7" s="38">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M7" s="11">
         <v>0</v>
       </c>
@@ -3723,6 +3749,7 @@
         <v>0.15</v>
       </c>
       <c r="O7" s="12">
+        <f t="shared" ref="O7:O19" si="6">K7*Q7</f>
         <v>0</v>
       </c>
       <c r="P7" s="12">
@@ -3732,18 +3759,18 @@
         <v>0</v>
       </c>
       <c r="R7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="39">
+      <c r="S7" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="38">
         <v>6.666666666666667</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7" s="15">
@@ -3762,7 +3789,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11">
+        <v>0.6</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13">
         <v>0.25</v>
@@ -3780,25 +3809,29 @@
         <v>0.1</v>
       </c>
       <c r="I8" s="13">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="4"/>
-        <v>10.471975511965978</v>
-      </c>
-      <c r="K8" s="39">
-        <v>400</v>
-      </c>
-      <c r="L8" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="K8" s="38">
+        <v>900</v>
+      </c>
+      <c r="L8" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M8" s="15">
-        <f t="shared" ref="M8:M19" si="5">(10*I8)/Q8*D8</f>
-        <v>1.5625</v>
-      </c>
-      <c r="N8" s="44">
+        <f t="shared" ref="M8:M19" si="7">(10*I8)/Q8*D8</f>
+        <v>3.75</v>
+      </c>
+      <c r="N8" s="43">
         <v>0.15</v>
       </c>
       <c r="O8" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>7200</v>
       </c>
       <c r="P8" s="13">
         <v>1</v>
@@ -3807,18 +3840,18 @@
         <v>8</v>
       </c>
       <c r="R8" s="16">
-        <f t="shared" si="1"/>
-        <v>8.1812308687234196</v>
-      </c>
-      <c r="S8" s="41">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="T8" s="41">
+        <v>23.561944901923447</v>
+      </c>
+      <c r="S8" s="40">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="T8" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V8" s="15">
@@ -3837,7 +3870,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>0.7</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
         <v>0.25</v>
@@ -3855,25 +3890,29 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="13">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="4"/>
-        <v>10.471975511965978</v>
-      </c>
-      <c r="K9" s="39">
-        <v>400</v>
-      </c>
-      <c r="L9" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="K9" s="38">
+        <v>900</v>
+      </c>
+      <c r="L9" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M9" s="15">
-        <f t="shared" si="5"/>
-        <v>0.78125</v>
-      </c>
-      <c r="N9" s="44">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="N9" s="43">
         <v>0.15</v>
       </c>
       <c r="O9" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>7200</v>
       </c>
       <c r="P9" s="13">
         <v>1</v>
@@ -3882,18 +3921,18 @@
         <v>8</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" si="1"/>
-        <v>8.1812308687234196</v>
-      </c>
-      <c r="S9" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T9" s="41">
+        <v>23.561944901923447</v>
+      </c>
+      <c r="S9" s="40">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="T9" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V9" s="15">
@@ -3912,7 +3951,9 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11">
+        <v>0.4</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <v>0.3</v>
@@ -3930,24 +3971,29 @@
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="4"/>
-        <v>12.566370614359171</v>
-      </c>
-      <c r="K10" s="39">
-        <v>400</v>
-      </c>
-      <c r="L10" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="K10" s="38">
+        <v>750</v>
+      </c>
+      <c r="L10" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M10" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="N10" s="44">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="43">
         <v>0.15</v>
       </c>
       <c r="O10" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="P10" s="13">
         <v>0.39</v>
@@ -3956,19 +4002,19 @@
         <v>8</v>
       </c>
       <c r="R10" s="16">
-        <f t="shared" si="1"/>
-        <v>9.8174770424681022</v>
-      </c>
-      <c r="S10" s="41">
         <f t="shared" si="2"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="T10" s="41">
+        <v>23.561944901923447</v>
+      </c>
+      <c r="S10" s="40">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="T10" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" si="3"/>
-        <v>7.4666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="V10" s="15">
         <v>12</v>
@@ -3986,7 +4032,9 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
         <v>1.3</v>
@@ -4004,25 +4052,29 @@
         <v>3</v>
       </c>
       <c r="I11" s="13">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="4"/>
-        <v>54.454272662223076</v>
-      </c>
-      <c r="K11" s="39">
-        <v>400</v>
-      </c>
-      <c r="L11" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.823744289722598</v>
+      </c>
+      <c r="K11" s="38">
+        <v>175</v>
+      </c>
+      <c r="L11" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M11" s="15">
-        <f t="shared" si="5"/>
-        <v>32.5</v>
-      </c>
-      <c r="N11" s="44">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="N11" s="43">
         <v>0.15</v>
       </c>
       <c r="O11" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>1400</v>
       </c>
       <c r="P11" s="13">
         <v>9</v>
@@ -4031,18 +4083,18 @@
         <v>8</v>
       </c>
       <c r="R11" s="16">
-        <f t="shared" si="1"/>
-        <v>42.542400517361777</v>
-      </c>
-      <c r="S11" s="41">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="T11" s="41">
+        <v>23.823744289722598</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="T11" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U11" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V11" s="15">
@@ -4061,7 +4113,9 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11">
+        <v>0.15</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
         <v>0.13</v>
@@ -4079,25 +4133,29 @@
         <v>0.1</v>
       </c>
       <c r="I12" s="13">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="4"/>
-        <v>5.4454272662223087</v>
-      </c>
-      <c r="K12" s="39">
-        <v>400</v>
-      </c>
-      <c r="L12" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.823744289722598</v>
+      </c>
+      <c r="K12" s="38">
+        <v>1750</v>
+      </c>
+      <c r="L12" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M12" s="15">
-        <f t="shared" si="5"/>
-        <v>0.40625</v>
-      </c>
-      <c r="N12" s="44">
+        <f t="shared" si="7"/>
+        <v>0.48750000000000004</v>
+      </c>
+      <c r="N12" s="43">
         <v>0.15</v>
       </c>
       <c r="O12" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>14000</v>
       </c>
       <c r="P12" s="13">
         <v>1</v>
@@ -4106,18 +4164,18 @@
         <v>8</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" si="1"/>
-        <v>4.2542400517361783</v>
-      </c>
-      <c r="S12" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T12" s="41">
+        <v>23.823744289722601</v>
+      </c>
+      <c r="S12" s="40">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T12" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V12" s="15">
@@ -4136,7 +4194,9 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11">
+        <v>0.15</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13">
         <v>0.14000000000000001</v>
@@ -4154,25 +4214,29 @@
         <v>0.1</v>
       </c>
       <c r="I13" s="13">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="4"/>
-        <v>5.8643062867009483</v>
-      </c>
-      <c r="K13" s="39">
-        <v>400</v>
-      </c>
-      <c r="L13" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.457225146803793</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1600</v>
+      </c>
+      <c r="L13" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M13" s="15">
-        <f t="shared" si="5"/>
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="N13" s="44">
+        <f t="shared" si="7"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N13" s="43">
         <v>0.15</v>
       </c>
       <c r="O13" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>12800</v>
       </c>
       <c r="P13" s="13">
         <v>1</v>
@@ -4181,18 +4245,18 @@
         <v>8</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="1"/>
-        <v>4.5814892864851151</v>
-      </c>
-      <c r="S13" s="41">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="T13" s="41">
+        <v>23.457225146803793</v>
+      </c>
+      <c r="S13" s="40">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T13" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V13" s="15">
@@ -4211,7 +4275,9 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13">
         <v>0.16</v>
@@ -4229,25 +4295,29 @@
         <v>0.1</v>
       </c>
       <c r="I14" s="13">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>6.702064327658225</v>
-      </c>
-      <c r="K14" s="39">
-        <v>400</v>
-      </c>
-      <c r="L14" s="19"/>
+        <f t="shared" si="5"/>
+        <v>23.45722514680379</v>
+      </c>
+      <c r="K14" s="38">
+        <v>1400</v>
+      </c>
+      <c r="L14" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M14" s="15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="44">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="43">
         <v>0.15</v>
       </c>
       <c r="O14" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>11200</v>
       </c>
       <c r="P14" s="13">
         <v>1</v>
@@ -4256,18 +4326,18 @@
         <v>8</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="1"/>
-        <v>5.2359877559829879</v>
-      </c>
-      <c r="S14" s="41">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="T14" s="41">
+        <v>23.45722514680379</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T14" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V14" s="15">
@@ -4286,7 +4356,9 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11">
+        <v>0.15</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13">
         <v>0.22</v>
@@ -4304,25 +4376,29 @@
         <v>0.1</v>
       </c>
       <c r="I15" s="13">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="4"/>
-        <v>9.2153384505300586</v>
-      </c>
-      <c r="K15" s="39">
-        <v>400</v>
-      </c>
-      <c r="L15" s="19"/>
+        <f t="shared" si="5"/>
+        <v>11.519173063162576</v>
+      </c>
+      <c r="K15" s="38">
+        <v>500</v>
+      </c>
+      <c r="L15" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M15" s="15">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="N15" s="44">
+        <f t="shared" si="7"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="N15" s="43">
         <v>0.15</v>
       </c>
       <c r="O15" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="P15" s="13">
         <v>1</v>
@@ -4331,18 +4407,18 @@
         <v>8</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="1"/>
-        <v>7.1994831644766091</v>
-      </c>
-      <c r="S15" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T15" s="41">
+        <v>11.519173063162576</v>
+      </c>
+      <c r="S15" s="40">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T15" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U15" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V15" s="15">
@@ -4361,7 +4437,9 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11">
+        <v>1.25</v>
+      </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13">
         <v>1.38</v>
@@ -4379,25 +4457,29 @@
         <v>10</v>
       </c>
       <c r="I16" s="13">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="4"/>
-        <v>57.805304826052193</v>
-      </c>
-      <c r="K16" s="39">
-        <v>400</v>
-      </c>
-      <c r="L16" s="19"/>
+        <f t="shared" si="5"/>
+        <v>43.353978619539141</v>
+      </c>
+      <c r="K16" s="38">
+        <v>300</v>
+      </c>
+      <c r="L16" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M16" s="15">
-        <f t="shared" si="5"/>
-        <v>34.5</v>
-      </c>
-      <c r="N16" s="44">
+        <f t="shared" si="7"/>
+        <v>43.125</v>
+      </c>
+      <c r="N16" s="43">
         <v>0.15</v>
       </c>
       <c r="O16" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>2400</v>
       </c>
       <c r="P16" s="13">
         <v>1</v>
@@ -4406,18 +4488,18 @@
         <v>8</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="1"/>
-        <v>45.160394395353272</v>
-      </c>
-      <c r="S16" s="41">
         <f t="shared" si="2"/>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="T16" s="41">
+        <v>43.353978619539141</v>
+      </c>
+      <c r="S16" s="40">
+        <f t="shared" si="3"/>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="T16" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.000000000000002</v>
       </c>
       <c r="V16" s="15">
@@ -4436,7 +4518,9 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11">
+        <v>0.2</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13">
         <v>0.52</v>
@@ -4454,25 +4538,29 @@
         <v>2</v>
       </c>
       <c r="I17" s="13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="4"/>
-        <v>21.781709064889235</v>
-      </c>
-      <c r="K17" s="39">
-        <v>400</v>
-      </c>
-      <c r="L17" s="19"/>
+        <f t="shared" si="5"/>
+        <v>43.563418129778469</v>
+      </c>
+      <c r="K17" s="38">
+        <v>800</v>
+      </c>
+      <c r="L17" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M17" s="15">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="N17" s="44">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="N17" s="43">
         <v>0.15</v>
       </c>
       <c r="O17" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>6400</v>
       </c>
       <c r="P17" s="13">
         <v>1</v>
@@ -4481,18 +4569,18 @@
         <v>8</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="1"/>
-        <v>17.016960206944713</v>
-      </c>
-      <c r="S17" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="T17" s="41">
+        <v>43.563418129778469</v>
+      </c>
+      <c r="S17" s="40">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T17" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V17" s="15">
@@ -4511,7 +4599,9 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11">
+        <v>0.2</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13">
         <v>0.34399999999999997</v>
@@ -4529,25 +4619,29 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="4"/>
-        <v>14.409438304465185</v>
-      </c>
-      <c r="K18" s="39">
-        <v>400</v>
-      </c>
-      <c r="L18" s="19"/>
+        <f t="shared" si="5"/>
+        <v>64.842472370093319</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1800</v>
+      </c>
+      <c r="L18" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="M18" s="15">
-        <f t="shared" si="5"/>
-        <v>2.15</v>
-      </c>
-      <c r="N18" s="44">
+        <f t="shared" si="7"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="N18" s="43">
         <v>0.15</v>
       </c>
       <c r="O18" s="13">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>14400</v>
       </c>
       <c r="P18" s="13">
         <v>1</v>
@@ -4556,18 +4650,18 @@
         <v>8</v>
       </c>
       <c r="R18" s="16">
-        <f t="shared" si="1"/>
-        <v>11.257373675363425</v>
-      </c>
-      <c r="S18" s="41">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="T18" s="41">
+        <v>64.842472370093319</v>
+      </c>
+      <c r="S18" s="40">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T18" s="40">
         <v>6.666666666666667</v>
       </c>
       <c r="U18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V18" s="15">
@@ -4586,7 +4680,9 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20">
+        <v>0.05</v>
+      </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22">
         <v>0.21</v>
@@ -4604,25 +4700,29 @@
         <v>0.5</v>
       </c>
       <c r="I19" s="22">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="4"/>
-        <v>8.7964594300514207</v>
+        <f t="shared" si="5"/>
+        <v>10.995574287564276</v>
       </c>
       <c r="K19" s="21">
-        <v>400</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24">
-        <f t="shared" si="5"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="N19" s="45">
+        <v>500</v>
+      </c>
+      <c r="L19" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="7"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="N19" s="44">
         <v>0.15</v>
       </c>
       <c r="O19" s="22">
-        <v>2500</v>
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="P19" s="22">
         <v>1</v>
@@ -4630,29 +4730,29 @@
       <c r="Q19" s="22">
         <v>8</v>
       </c>
-      <c r="R19" s="25">
-        <f t="shared" si="1"/>
-        <v>6.8722339297276722</v>
-      </c>
-      <c r="S19" s="42">
+      <c r="R19" s="24">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="T19" s="42">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="U19" s="26">
+        <v>10.995574287564276</v>
+      </c>
+      <c r="S19" s="41">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="V19" s="24">
+      <c r="T19" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="U19" s="25">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="V19" s="23">
         <v>80</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="25">
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="X19" s="26" t="s">
         <v>36</v>
       </c>
       <c r="Y19" s="2"/>
@@ -4685,7 +4785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4715,7 +4815,7 @@
       </c>
       <c r="E1">
         <f>LARGE(J7:J107,1)</f>
-        <v>0.85021561408061841</v>
+        <v>4.3725374438431803</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(E1, J7:L107,3,FALSE)</f>
@@ -4735,7 +4835,7 @@
       </c>
       <c r="E2">
         <f>VLOOKUP(F1, A7:J107, 4,FALSE)</f>
-        <v>0.252</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4744,14 +4844,14 @@
       </c>
       <c r="B3">
         <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 13,FALSE)</f>
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(F1, A7:J107, 2,FALSE)</f>
-        <v>2050</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4775,14 +4875,14 @@
       </c>
       <c r="B5">
         <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 15,FALSE)</f>
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
       </c>
       <c r="E5">
         <f>1/0.8 * F82 * H82</f>
-        <v>3.34540524740575E-2</v>
+        <v>0.17204941272372429</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4832,13 +4932,13 @@
         <f>B7/$B$5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <f>(100-A7)*$B$3*0.01</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="E7" s="48">
+        <v>3</v>
+      </c>
+      <c r="E7" s="47">
         <f>D7/$B$3</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>C7*D7</f>
@@ -4871,27 +4971,27 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B71" si="0">A8*0.01*$B$5</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C71" si="1">B8/$B$5</f>
         <v>0.01</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="47">
         <f t="shared" ref="D8:D71" si="2">(100-A8)*$B$3*0.01</f>
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="E8" s="48">
+        <v>2.97</v>
+      </c>
+      <c r="E8" s="47">
         <f t="shared" ref="E8:E71" si="3">D8/$B$3</f>
-        <v>0.99</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F71" si="4">D8*B8/5252*0.745</f>
-        <v>4.9151275704493527E-3</v>
+        <v>2.5277798933739531E-2</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G71" si="5">F8/$F$108</f>
-        <v>3.9599999999999989E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H71" si="6" xml:space="preserve"> $B$4 + 1 - (A8 * (1-$B$4)*0.01 + $B$4)</f>
@@ -4903,7 +5003,7 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J71" si="8">F8/I8</f>
-        <v>1.2723766992711145E-2</v>
+        <v>6.5436515962514472E-2</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L71" si="9">A8</f>
@@ -4916,27 +5016,27 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <f t="shared" si="2"/>
-        <v>1.3719999999999999</v>
-      </c>
-      <c r="E9" s="48">
+        <v>2.94</v>
+      </c>
+      <c r="E9" s="47">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>9.7309596344249804E-3</v>
+        <v>5.0044935262757044E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>7.8399999999999984E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
@@ -4948,7 +5048,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>2.543443277248485E-2</v>
+        <v>0.13080565425849353</v>
       </c>
       <c r="L9">
         <f t="shared" si="9"/>
@@ -4961,27 +5061,27 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f t="shared" si="2"/>
-        <v>1.3579999999999999</v>
-      </c>
-      <c r="E10" s="48">
+        <v>2.91</v>
+      </c>
+      <c r="E10" s="47">
         <f t="shared" si="3"/>
-        <v>0.97</v>
+        <v>0.97000000000000008</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>1.4447496191926885E-2</v>
+        <v>7.4301408987052564E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>0.11639999999999998</v>
+        <v>0.11640000000000003</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
@@ -4993,7 +5093,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>3.8131613001113486E-2</v>
+        <v>0.19610543829144084</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
@@ -5006,27 +5106,27 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f t="shared" si="2"/>
-        <v>1.3439999999999999</v>
-      </c>
-      <c r="E11" s="48">
+        <v>2.88</v>
+      </c>
+      <c r="E11" s="47">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>1.9064737242955061E-2</v>
+        <v>9.8047220106626032E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>0.15359999999999993</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
@@ -5038,7 +5138,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>5.0814908158630677E-2</v>
+        <v>0.26133381338724349</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
@@ -5051,27 +5151,27 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <f t="shared" si="2"/>
-        <v>1.33</v>
-      </c>
-      <c r="E12" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="E12" s="47">
         <f t="shared" si="3"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>2.3582682787509524E-2</v>
+        <v>0.12128236862147754</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
@@ -5083,7 +5183,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>6.3483902786215823E-2</v>
+        <v>0.32648864290053847</v>
       </c>
       <c r="L12">
         <f t="shared" si="9"/>
@@ -5096,27 +5196,27 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <f t="shared" si="2"/>
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="E13" s="48">
+        <v>2.82</v>
+      </c>
+      <c r="E13" s="47">
         <f t="shared" si="3"/>
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>2.8001332825590249E-2</v>
+        <v>0.144006854531607</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>0.22559999999999994</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
@@ -5128,7 +5228,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>7.6138164683335369E-2</v>
+        <v>0.39156770408572472</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
@@ -5141,27 +5241,27 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>175.00000000000003</v>
+        <v>420.00000000000006</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <f t="shared" si="2"/>
-        <v>1.3019999999999998</v>
-      </c>
-      <c r="E14" s="48">
+        <v>2.79</v>
+      </c>
+      <c r="E14" s="47">
         <f t="shared" si="3"/>
-        <v>0.92999999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>3.2320687357197259E-2</v>
+        <v>0.1662206778370145</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>0.26039999999999996</v>
+        <v>0.26040000000000008</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
@@ -5173,7 +5273,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>8.8777244055861612E-2</v>
+        <v>0.45656868371585974</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
@@ -5186,27 +5286,27 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <f t="shared" si="2"/>
-        <v>1.2879999999999998</v>
-      </c>
-      <c r="E15" s="48">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E15" s="47">
         <f t="shared" si="3"/>
-        <v>0.91999999999999993</v>
+        <v>0.92</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>3.6540746382330534E-2</v>
+        <v>0.18792383853769995</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>0.29439999999999988</v>
+        <v>0.29440000000000005</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
@@ -5218,7 +5318,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>0.10140067261163985</v>
+        <v>0.52148917343129075</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
@@ -5231,27 +5331,27 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>540</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="47">
         <f t="shared" si="2"/>
-        <v>1.274</v>
-      </c>
-      <c r="E16" s="48">
+        <v>2.73</v>
+      </c>
+      <c r="E16" s="47">
         <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>4.0661509900990093E-2</v>
+        <v>0.20911633663366339</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>0.32759999999999989</v>
+        <v>0.32760000000000006</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
@@ -5263,7 +5363,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.11400796259968342</v>
+        <v>0.58632666479837192</v>
       </c>
       <c r="L16">
         <f t="shared" si="9"/>
@@ -5276,27 +5376,27 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <f t="shared" si="2"/>
-        <v>1.2599999999999998</v>
-      </c>
-      <c r="E17" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="E17" s="47">
         <f t="shared" si="3"/>
-        <v>0.89999999999999991</v>
+        <v>0.9</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>4.4682977913175922E-2</v>
+        <v>0.22979817212490478</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>0.35999999999999982</v>
+        <v>0.36</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
@@ -5308,7 +5408,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>0.12659860578885371</v>
+        <v>0.65107854405696208</v>
       </c>
       <c r="L17">
         <f t="shared" si="9"/>
@@ -5321,27 +5421,27 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>660</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <f t="shared" si="2"/>
-        <v>1.246</v>
-      </c>
-      <c r="E18" s="48">
+        <v>2.67</v>
+      </c>
+      <c r="E18" s="47">
         <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>4.8605150418888042E-2</v>
+        <v>0.24996934501142423</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>0.39159999999999989</v>
+        <v>0.39160000000000006</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -5353,7 +5453,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>0.1391720723815317</v>
+        <v>0.71574208653359161</v>
       </c>
       <c r="L18">
         <f t="shared" si="9"/>
@@ -5366,27 +5466,27 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <f t="shared" si="2"/>
-        <v>1.232</v>
-      </c>
-      <c r="E19" s="48">
+        <v>2.64</v>
+      </c>
+      <c r="E19" s="47">
         <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>5.2428027418126431E-2</v>
+        <v>0.26962985529322164</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>0.42239999999999994</v>
+        <v>0.42240000000000005</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -5398,7 +5498,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>0.15172780985740122</v>
+        <v>0.78031445069520633</v>
       </c>
       <c r="L19">
         <f t="shared" si="9"/>
@@ -5411,27 +5511,27 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>780</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <f t="shared" si="2"/>
-        <v>1.218</v>
-      </c>
-      <c r="E20" s="48">
+        <v>2.61</v>
+      </c>
+      <c r="E20" s="47">
         <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>5.615160891089109E-2</v>
+        <v>0.28877970297029704</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>0.45239999999999991</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -5443,7 +5543,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>0.16426524174204246</v>
+        <v>0.84479267181621831</v>
       </c>
       <c r="L20">
         <f t="shared" si="9"/>
@@ -5456,27 +5556,27 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>350.00000000000006</v>
+        <v>840.00000000000011</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="47">
         <f t="shared" si="2"/>
-        <v>1.204</v>
-      </c>
-      <c r="E21" s="48">
+        <v>2.58</v>
+      </c>
+      <c r="E21" s="47">
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>5.9775894897182026E-2</v>
+        <v>0.30741888804265044</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>0.48159999999999992</v>
+        <v>0.48160000000000008</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -5488,7 +5588,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>0.17678376629456727</v>
+        <v>0.90917365522920313</v>
       </c>
       <c r="L21">
         <f t="shared" si="9"/>
@@ -5501,27 +5601,27 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="47">
         <f t="shared" si="2"/>
-        <v>1.19</v>
-      </c>
-      <c r="E22" s="48">
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="E22" s="47">
         <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>6.3300885376999239E-2</v>
+        <v>0.32554741051028185</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>0.5099999999999999</v>
+        <v>0.51000000000000012</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -5533,7 +5633,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>0.18928275510801892</v>
+        <v>0.9734541691269547</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
@@ -5546,27 +5646,27 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="47">
         <f t="shared" si="2"/>
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="E23" s="48">
+        <v>2.52</v>
+      </c>
+      <c r="E23" s="47">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>6.6726580350342721E-2</v>
+        <v>0.34316527037319111</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>0.53759999999999986</v>
+        <v>0.53759999999999997</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -5578,7 +5678,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>0.20176155161569517</v>
+        <v>1.0376308368807179</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
@@ -5591,27 +5691,27 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>425.00000000000006</v>
+        <v>1020.0000000000001</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <f t="shared" si="2"/>
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="E24" s="48">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E24" s="47">
         <f t="shared" si="3"/>
-        <v>0.83</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>7.0052979817212493E-2</v>
+        <v>0.3602724676313786</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>0.5643999999999999</v>
+        <v>0.56440000000000012</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
@@ -5623,7 +5723,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>0.2142194694959329</v>
+        <v>1.1017001288362265</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
@@ -5636,27 +5736,27 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="47">
         <f t="shared" si="2"/>
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="E25" s="48">
+        <v>2.46</v>
+      </c>
+      <c r="E25" s="47">
         <f t="shared" si="3"/>
         <v>0.82</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>7.3280083777608515E-2</v>
+        <v>0.37686900228484388</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>0.59039999999999981</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -5668,7 +5768,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>0.2266557909672095</v>
+        <v>1.1656583535456491</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
@@ -5681,27 +5781,27 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>1140</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <f t="shared" si="2"/>
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="E26" s="48">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E26" s="47">
         <f t="shared" si="3"/>
-        <v>0.80999999999999994</v>
+        <v>0.81</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>7.6407892231530841E-2</v>
+        <v>0.39295487433358722</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0.61559999999999981</v>
+        <v>0.61560000000000004</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
@@ -5713,7 +5813,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>0.23906976496466212</v>
+        <v>1.229501648389691</v>
       </c>
       <c r="L26">
         <f t="shared" si="9"/>
@@ -5726,27 +5826,27 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <f t="shared" si="2"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E27" s="48">
+        <v>2.4</v>
+      </c>
+      <c r="E27" s="47">
         <f t="shared" si="3"/>
-        <v>0.80000000000000016</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>7.9436405178979444E-2</v>
+        <v>0.40853008377760852</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>0.6399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -5758,7 +5858,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>0.25146060518828567</v>
+        <v>1.2932259695397548</v>
       </c>
       <c r="L27">
         <f t="shared" si="9"/>
@@ -5771,27 +5871,27 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>1260</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <f t="shared" si="2"/>
-        <v>1.1059999999999999</v>
-      </c>
-      <c r="E28" s="48">
+        <v>2.37</v>
+      </c>
+      <c r="E28" s="47">
         <f t="shared" si="3"/>
-        <v>0.78999999999999992</v>
+        <v>0.79</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>8.236562261995431E-2</v>
+        <v>0.42359463061690789</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>0.66359999999999997</v>
+        <v>0.66360000000000008</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
@@ -5803,7 +5903,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>0.26382748801215367</v>
+        <v>1.3568270812053618</v>
       </c>
       <c r="L28">
         <f t="shared" si="9"/>
@@ -5816,27 +5916,27 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>1320</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="47">
         <f t="shared" si="2"/>
-        <v>1.0919999999999999</v>
-      </c>
-      <c r="E29" s="48">
+        <v>2.34</v>
+      </c>
+      <c r="E29" s="47">
         <f t="shared" si="3"/>
         <v>0.77999999999999992</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>8.5195544554455424E-2</v>
+        <v>0.43814851485148515</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>0.68639999999999968</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
@@ -5848,7 +5948,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.27616955024297518</v>
+        <v>1.4203005441067298</v>
       </c>
       <c r="L29">
         <f t="shared" si="9"/>
@@ -5861,27 +5961,27 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>1380</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="47">
         <f t="shared" si="2"/>
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="E30" s="48">
+        <v>2.31</v>
+      </c>
+      <c r="E30" s="47">
         <f t="shared" si="3"/>
-        <v>0.77000000000000013</v>
+        <v>0.77</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>8.7926170982482871E-2</v>
+        <v>0.45219173648134048</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>0.70839999999999992</v>
+        <v>0.70840000000000014</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
@@ -5893,7 +5993,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>0.28848588671516928</v>
+        <v>1.4836417031065847</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
@@ -5906,27 +6006,27 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="47">
         <f t="shared" si="2"/>
-        <v>1.0639999999999998</v>
-      </c>
-      <c r="E31" s="48">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="E31" s="47">
         <f t="shared" si="3"/>
-        <v>0.7599999999999999</v>
+        <v>0.76000000000000012</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>9.0557501904036539E-2</v>
+        <v>0.46572429550647382</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>0.72959999999999969</v>
+        <v>0.72960000000000014</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
@@ -5938,7 +6038,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>0.30077554770837162</v>
+        <v>1.546845673928769</v>
       </c>
       <c r="L31">
         <f t="shared" si="9"/>
@@ -5951,27 +6051,27 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <f t="shared" si="2"/>
-        <v>1.05</v>
-      </c>
-      <c r="E32" s="48">
+        <v>2.25</v>
+      </c>
+      <c r="E32" s="47">
         <f t="shared" si="3"/>
-        <v>0.75000000000000011</v>
+        <v>0.75</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>9.3089537319116525E-2</v>
+        <v>0.47874619192688495</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>0.74999999999999978</v>
+        <v>0.75</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
@@ -5983,7 +6083,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>0.31303753617189245</v>
+        <v>1.6099073288840182</v>
       </c>
       <c r="L32">
         <f t="shared" si="9"/>
@@ -5996,27 +6096,27 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>1560</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="47">
         <f t="shared" si="2"/>
-        <v>1.036</v>
-      </c>
-      <c r="E33" s="48">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E33" s="47">
         <f t="shared" si="3"/>
         <v>0.7400000000000001</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>9.5522277227722774E-2</v>
+        <v>0.49125742574257425</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>0.76959999999999984</v>
+        <v>0.76960000000000006</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
@@ -6028,7 +6128,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>0.32527080473907027</v>
+        <v>1.6728212815152184</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
@@ -6041,27 +6141,27 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>1620</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="47">
         <f t="shared" si="2"/>
-        <v>1.0219999999999998</v>
-      </c>
-      <c r="E34" s="48">
+        <v>2.19</v>
+      </c>
+      <c r="E34" s="47">
         <f t="shared" si="3"/>
-        <v>0.72999999999999987</v>
+        <v>0.73</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>9.7855721629855286E-2</v>
+        <v>0.50325799695354145</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>0.78839999999999977</v>
+        <v>0.78839999999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
@@ -6073,7 +6173,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>0.33747425251273527</v>
+        <v>1.7355818700654955</v>
       </c>
       <c r="L34">
         <f t="shared" si="9"/>
@@ -6086,27 +6186,27 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>700.00000000000011</v>
+        <v>1680.0000000000002</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="47">
         <f t="shared" si="2"/>
-        <v>1.008</v>
-      </c>
-      <c r="E35" s="48">
+        <v>2.16</v>
+      </c>
+      <c r="E35" s="47">
         <f t="shared" si="3"/>
         <v>0.72000000000000008</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>0.10008987052551412</v>
+        <v>0.51474790555978678</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>0.80640000000000001</v>
+        <v>0.80640000000000012</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
@@ -6118,7 +6218,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>0.34964672160104132</v>
+        <v>1.7981831396624979</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
@@ -6131,27 +6231,27 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>1739.9999999999998</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="47">
         <f t="shared" si="2"/>
-        <v>0.99399999999999988</v>
-      </c>
-      <c r="E36" s="48">
+        <v>2.13</v>
+      </c>
+      <c r="E36" s="47">
         <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>0.10222472391469914</v>
+        <v>0.52572715156130989</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>0.82359999999999967</v>
+        <v>0.82359999999999989</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
@@ -6163,7 +6263,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>0.3617869933807546</v>
+        <v>1.8606188231010239</v>
       </c>
       <c r="L36">
         <f t="shared" si="9"/>
@@ -6176,27 +6276,27 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="47">
         <f t="shared" si="2"/>
-        <v>0.98</v>
-      </c>
-      <c r="E37" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="E37" s="47">
         <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>0.10426028179741052</v>
+        <v>0.53619573495811124</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
@@ -6208,7 +6308,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>0.37389378446265198</v>
+        <v>1.9228823200936387</v>
       </c>
       <c r="L37">
         <f t="shared" si="9"/>
@@ -6221,27 +6321,27 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>775</v>
+        <v>1860</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>0.31</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="47">
         <f t="shared" si="2"/>
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E38" s="48">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E38" s="47">
         <f t="shared" si="3"/>
-        <v>0.69000000000000006</v>
+        <v>0.69</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>0.10619654417364813</v>
+        <v>0.54615365575019037</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>0.85559999999999981</v>
+        <v>0.85560000000000003</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
@@ -6253,7 +6353,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
-        <v>0.38596574233094594</v>
+        <v>1.9849666748448647</v>
       </c>
       <c r="L38">
         <f t="shared" si="9"/>
@@ -6266,27 +6366,27 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1920</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="47">
         <f t="shared" si="2"/>
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E39" s="48">
+        <v>2.04</v>
+      </c>
+      <c r="E39" s="47">
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>0.10803351104341201</v>
+        <v>0.55560091393754762</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>0.87039999999999962</v>
+        <v>0.87040000000000006</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
@@ -6298,7 +6398,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>0.39800144062559684</v>
+        <v>2.0468645517887842</v>
       </c>
       <c r="L39">
         <f t="shared" si="9"/>
@@ -6311,27 +6411,27 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>825</v>
+        <v>1980</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="47">
         <f t="shared" si="2"/>
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="E40" s="48">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="E40" s="47">
         <f t="shared" si="3"/>
         <v>0.67</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>0.10977118240670219</v>
+        <v>0.56453750952018289</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>0.88439999999999974</v>
+        <v>0.88440000000000019</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
@@ -6343,7 +6443,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>0.40999937403291375</v>
+        <v>2.1085682093121285</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
@@ -6356,27 +6456,27 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>850.00000000000011</v>
+        <v>2040.0000000000002</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="47">
         <f t="shared" si="2"/>
-        <v>0.92399999999999993</v>
-      </c>
-      <c r="E41" s="48">
+        <v>1.98</v>
+      </c>
+      <c r="E41" s="47">
         <f t="shared" si="3"/>
         <v>0.66</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>0.11140955826351867</v>
+        <v>0.57296344249809605</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>0.89759999999999995</v>
+        <v>0.89760000000000018</v>
       </c>
       <c r="H41">
         <f t="shared" si="6"/>
@@ -6388,7 +6488,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>0.42195795274597075</v>
+        <v>2.1700694712649926</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
@@ -6401,27 +6501,27 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>875.00000000000011</v>
+        <v>2100</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="D42" s="48">
+        <v>0.35</v>
+      </c>
+      <c r="D42" s="47">
         <f t="shared" si="2"/>
-        <v>0.91</v>
-      </c>
-      <c r="E42" s="48">
+        <v>1.95</v>
+      </c>
+      <c r="E42" s="47">
         <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>0.1129486386138614</v>
+        <v>0.58087871287128712</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>0.90999999999999992</v>
+        <v>0.91</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
@@ -6433,7 +6533,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>0.43387549645197881</v>
+        <v>2.2313596960387478</v>
       </c>
       <c r="L42">
         <f t="shared" si="9"/>
@@ -6446,27 +6546,27 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>2160</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="47">
         <f t="shared" si="2"/>
-        <v>0.89599999999999991</v>
-      </c>
-      <c r="E43" s="48">
+        <v>1.92</v>
+      </c>
+      <c r="E43" s="47">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>0.11438842345773037</v>
+        <v>0.5882833206397563</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>0.92159999999999964</v>
+        <v>0.92160000000000009</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
@@ -6478,7 +6578,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
-        <v>0.44575022779880891</v>
+        <v>2.2924297429653033</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
@@ -6491,27 +6591,27 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>2220</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>0.37</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="47">
         <f t="shared" si="2"/>
-        <v>0.8819999999999999</v>
-      </c>
-      <c r="E44" s="48">
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="E44" s="47">
         <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>0.11572891279512566</v>
+        <v>0.5951772658035035</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>0.93239999999999978</v>
+        <v>0.93240000000000012</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
@@ -6523,7 +6623,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
-        <v>0.45758026528725315</v>
+        <v>2.3532699357630165</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
@@ -6536,27 +6636,27 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>2280</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="47">
         <f t="shared" si="2"/>
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E45" s="48">
+        <v>1.86</v>
+      </c>
+      <c r="E45" s="47">
         <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>0.11697010662604722</v>
+        <v>0.60156054836252859</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>0.94239999999999979</v>
+        <v>0.94240000000000013</v>
       </c>
       <c r="H45">
         <f t="shared" si="6"/>
@@ -6568,7 +6668,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
-        <v>0.46936361552926131</v>
+        <v>2.4138700227219156</v>
       </c>
       <c r="L45">
         <f t="shared" si="9"/>
@@ -6581,27 +6681,27 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>975</v>
+        <v>2340</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="47">
         <f t="shared" si="2"/>
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="E46" s="48">
+        <v>1.83</v>
+      </c>
+      <c r="E46" s="47">
         <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>0.11811200495049505</v>
+        <v>0.6074331683168317</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>0.95159999999999978</v>
+        <v>0.95160000000000011</v>
       </c>
       <c r="H46">
         <f t="shared" si="6"/>
@@ -6613,7 +6713,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
-        <v>0.48109816480517725</v>
+        <v>2.4742191332837686</v>
       </c>
       <c r="L46">
         <f t="shared" si="9"/>
@@ -6626,27 +6726,27 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="47">
         <f t="shared" si="2"/>
-        <v>0.84</v>
-      </c>
-      <c r="E47" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="E47" s="47">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>0.11915460776846915</v>
+        <v>0.61279512566641281</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>0.95999999999999974</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
@@ -6658,7 +6758,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
-        <v>0.49278166984478544</v>
+        <v>2.5343057306303254</v>
       </c>
       <c r="L47">
         <f t="shared" si="9"/>
@@ -6671,27 +6771,27 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>1025</v>
+        <v>2460</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="47">
         <f t="shared" si="2"/>
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="E48" s="48">
+        <v>1.77</v>
+      </c>
+      <c r="E48" s="47">
         <f t="shared" si="3"/>
         <v>0.59</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0.12009791507996953</v>
+        <v>0.61764642041127193</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>0.96759999999999979</v>
+        <v>0.96760000000000013</v>
       </c>
       <c r="H48">
         <f t="shared" si="6"/>
@@ -6703,7 +6803,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
-        <v>0.50441174774761977</v>
+        <v>2.5941175598449018</v>
       </c>
       <c r="L48">
         <f t="shared" si="9"/>
@@ -6716,27 +6816,27 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>2520</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="47">
         <f t="shared" si="2"/>
-        <v>0.81199999999999994</v>
-      </c>
-      <c r="E49" s="48">
+        <v>1.74</v>
+      </c>
+      <c r="E49" s="47">
         <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>0.12094192688499618</v>
+        <v>0.62198705255140896</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>0.97439999999999971</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="H49">
         <f t="shared" si="6"/>
@@ -6748,7 +6848,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
-        <v>0.51598586494729382</v>
+        <v>2.6536415911575109</v>
       </c>
       <c r="L49">
         <f t="shared" si="9"/>
@@ -6761,27 +6861,27 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>1075</v>
+        <v>2580</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="47">
         <f t="shared" si="2"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="E50" s="48">
+        <v>1.71</v>
+      </c>
+      <c r="E50" s="47">
         <f t="shared" si="3"/>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>0.12168664318354913</v>
+        <v>0.6258170220868241</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>0.98039999999999983</v>
+        <v>0.98040000000000016</v>
       </c>
       <c r="H50">
         <f t="shared" si="6"/>
@@ -6793,7 +6893,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
-        <v>0.5275013251123789</v>
+        <v>2.7128639577208054</v>
       </c>
       <c r="L50">
         <f t="shared" si="9"/>
@@ -6806,27 +6906,27 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>2640</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="47">
         <f t="shared" si="2"/>
-        <v>0.78399999999999992</v>
-      </c>
-      <c r="E51" s="48">
+        <v>1.68</v>
+      </c>
+      <c r="E51" s="47">
         <f t="shared" si="3"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>0.12233206397562832</v>
+        <v>0.62913632901751715</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>0.9855999999999997</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H51">
         <f t="shared" si="6"/>
@@ -6838,7 +6938,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>0.53895525586231519</v>
+        <v>2.771769887291907</v>
       </c>
       <c r="L51">
         <f t="shared" si="9"/>
@@ -6851,27 +6951,27 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>2700</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="47">
         <f t="shared" si="2"/>
-        <v>0.77</v>
-      </c>
-      <c r="E52" s="48">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="E52" s="47">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>0.12287818926123381</v>
+        <v>0.6319449733434882</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>0.98999999999999977</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="6"/>
@@ -6883,7 +6983,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
-        <v>0.55034459416071579</v>
+        <v>2.8303436271122524</v>
       </c>
       <c r="L52">
         <f t="shared" si="9"/>
@@ -6896,27 +6996,27 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>2760</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="47">
         <f t="shared" si="2"/>
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="E53" s="48">
+        <v>1.62</v>
+      </c>
+      <c r="E53" s="47">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>0.12332501904036558</v>
+        <v>0.63424295506473738</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>0.99359999999999982</v>
+        <v>0.99360000000000026</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
@@ -6928,7 +7028,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
-        <v>0.56166607022983805</v>
+        <v>2.8885683611820245</v>
       </c>
       <c r="L53">
         <f t="shared" si="9"/>
@@ -6941,27 +7041,27 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>1175</v>
+        <v>2820</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>0.47</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="47">
         <f t="shared" si="2"/>
-        <v>0.74199999999999988</v>
-      </c>
-      <c r="E54" s="48">
+        <v>1.59</v>
+      </c>
+      <c r="E54" s="47">
         <f t="shared" si="3"/>
-        <v>0.52999999999999992</v>
+        <v>0.53</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>0.12367255331302361</v>
+        <v>0.63603027418126434</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>0.99639999999999984</v>
+        <v>0.99640000000000017</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
@@ -6973,7 +7073,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
-        <v>0.5729161898085543</v>
+        <v>2.9464261190154226</v>
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
@@ -6986,27 +7086,27 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>2880</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="47">
         <f t="shared" si="2"/>
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="E55" s="48">
+        <v>1.56</v>
+      </c>
+      <c r="E55" s="47">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>0.12392079207920792</v>
+        <v>0.63730693069306932</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>0.99839999999999984</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="H55">
         <f t="shared" si="6"/>
@@ -7018,7 +7118,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>0.58409121455131929</v>
+        <v>3.0038976748353567</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
@@ -7031,27 +7131,27 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>2940</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>0.49</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="47">
         <f t="shared" si="2"/>
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E56" s="48">
+        <v>1.53</v>
+      </c>
+      <c r="E56" s="47">
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>0.12406973533891849</v>
+        <v>0.6380729246001523</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>0.99959999999999971</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H56">
         <f t="shared" si="6"/>
@@ -7063,7 +7163,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="8"/>
-        <v>0.59518714033685194</v>
+        <v>3.0609624360180963</v>
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
@@ -7076,23 +7176,23 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="47">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E57" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="47">
         <f t="shared" si="3"/>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>0.12411938309215539</v>
+        <v>0.6383282559025133</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
@@ -7108,7 +7208,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
-        <v>0.60619967322176016</v>
+        <v>3.117598319426194</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
@@ -7121,27 +7221,27 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>1275</v>
+        <v>3060</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="47">
         <f t="shared" si="2"/>
-        <v>0.68599999999999994</v>
-      </c>
-      <c r="E58" s="48">
+        <v>1.47</v>
+      </c>
+      <c r="E58" s="47">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>0.12406973533891849</v>
+        <v>0.6380729246001523</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>0.99959999999999971</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H58">
         <f t="shared" si="6"/>
@@ -7153,7 +7253,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="8"/>
-        <v>0.61712420273530044</v>
+        <v>3.1737816140672597</v>
       </c>
       <c r="L58">
         <f t="shared" si="9"/>
@@ -7166,27 +7266,27 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>3120</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="47">
         <f t="shared" si="2"/>
-        <v>0.67199999999999993</v>
-      </c>
-      <c r="E59" s="48">
+        <v>1.44</v>
+      </c>
+      <c r="E59" s="47">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>0.12392079207920791</v>
+        <v>0.63730693069306932</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>0.99839999999999973</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="H59">
         <f t="shared" si="6"/>
@@ -7198,7 +7298,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="8"/>
-        <v>0.62795577216584519</v>
+        <v>3.2294868282814901</v>
       </c>
       <c r="L59">
         <f t="shared" si="9"/>
@@ -7211,27 +7311,27 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>3180</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="47">
         <f t="shared" si="2"/>
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="E60" s="48">
+        <v>1.41</v>
+      </c>
+      <c r="E60" s="47">
         <f t="shared" si="3"/>
-        <v>0.47000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>0.12367255331302361</v>
+        <v>0.63603027418126434</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>0.99639999999999984</v>
+        <v>0.99640000000000017</v>
       </c>
       <c r="H60">
         <f t="shared" si="6"/>
@@ -7243,7 +7343,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="8"/>
-        <v>0.63868904543612259</v>
+        <v>3.2846865193857733</v>
       </c>
       <c r="L60">
         <f t="shared" si="9"/>
@@ -7256,27 +7356,27 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>3240</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="47">
         <f t="shared" si="2"/>
-        <v>0.64399999999999991</v>
-      </c>
-      <c r="E61" s="48">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="E61" s="47">
         <f t="shared" si="3"/>
-        <v>0.45999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>0.12332501904036555</v>
+        <v>0.63424295506473738</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>0.99359999999999959</v>
+        <v>0.99360000000000026</v>
       </c>
       <c r="H61">
         <f t="shared" si="6"/>
@@ -7288,7 +7388,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="8"/>
-        <v>0.64931827010143495</v>
+        <v>3.3393511033788097</v>
       </c>
       <c r="L61">
         <f t="shared" si="9"/>
@@ -7301,27 +7401,27 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>1375</v>
+        <v>3300.0000000000005</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="47">
         <f t="shared" si="2"/>
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="E62" s="48">
+        <v>1.35</v>
+      </c>
+      <c r="E62" s="47">
         <f t="shared" si="3"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>0.12287818926123378</v>
+        <v>0.63194497334348831</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>0.98999999999999955</v>
+        <v>0.99000000000000021</v>
       </c>
       <c r="H62">
         <f t="shared" si="6"/>
@@ -7333,7 +7433,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="8"/>
-        <v>0.65983723593091026</v>
+        <v>3.3934486419303971</v>
       </c>
       <c r="L62">
         <f t="shared" si="9"/>
@@ -7346,27 +7446,27 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>1400.0000000000002</v>
+        <v>3360.0000000000005</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="47">
         <f t="shared" si="2"/>
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="E63" s="48">
+        <v>1.32</v>
+      </c>
+      <c r="E63" s="47">
         <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>0.12233206397562836</v>
+        <v>0.62913632901751726</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>0.98560000000000003</v>
+        <v>0.98560000000000025</v>
       </c>
       <c r="H63">
         <f t="shared" si="6"/>
@@ -7378,7 +7478,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
-        <v>0.67023922844416139</v>
+        <v>3.4469446034271156</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
@@ -7391,27 +7491,27 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1425.0000000000002</v>
+        <v>3420.0000000000005</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="47">
         <f t="shared" si="2"/>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="E64" s="48">
+        <v>1.29</v>
+      </c>
+      <c r="E64" s="47">
         <f t="shared" si="3"/>
         <v>0.43</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>0.12168664318354915</v>
+        <v>0.62581702208682422</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>0.98039999999999994</v>
+        <v>0.98040000000000027</v>
       </c>
       <c r="H64">
         <f t="shared" si="6"/>
@@ -7423,7 +7523,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
-        <v>0.68051697667169497</v>
+        <v>3.4998015943115748</v>
       </c>
       <c r="L64">
         <f t="shared" si="9"/>
@@ -7436,27 +7536,27 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>3479.9999999999995</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="47">
         <f t="shared" si="2"/>
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="E65" s="48">
+        <v>1.26</v>
+      </c>
+      <c r="E65" s="47">
         <f t="shared" si="3"/>
         <v>0.42</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>0.12094192688499618</v>
+        <v>0.62198705255140885</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>0.97439999999999971</v>
+        <v>0.97439999999999982</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
@@ -7468,7 +7568,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
-        <v>0.69066259428357113</v>
+        <v>3.5519790563155085</v>
       </c>
       <c r="L65">
         <f t="shared" si="9"/>
@@ -7481,27 +7581,27 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>1475</v>
+        <v>3540</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="47">
         <f t="shared" si="2"/>
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E66" s="48">
+        <v>1.23</v>
+      </c>
+      <c r="E66" s="47">
         <f t="shared" si="3"/>
         <v>0.41</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>0.12009791507996953</v>
+        <v>0.61764642041127193</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>0.96759999999999979</v>
+        <v>0.96760000000000013</v>
       </c>
       <c r="H66">
         <f t="shared" si="6"/>
@@ -7513,7 +7613,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
-        <v>0.70066751308287112</v>
+        <v>3.6034329244261949</v>
       </c>
       <c r="L66">
         <f t="shared" si="9"/>
@@ -7526,27 +7626,27 @@
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="47">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E67" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="E67" s="47">
         <f t="shared" si="3"/>
-        <v>0.40000000000000008</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>0.11915460776846917</v>
+        <v>0.61279512566641281</v>
       </c>
       <c r="G67">
         <f t="shared" si="5"/>
-        <v>0.96</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="H67">
         <f t="shared" si="6"/>
@@ -7558,7 +7658,7 @@
       </c>
       <c r="J67">
         <f t="shared" si="8"/>
-        <v>0.71052240768317942</v>
+        <v>3.6541152395134935</v>
       </c>
       <c r="L67">
         <f t="shared" si="9"/>
@@ -7571,27 +7671,27 @@
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>3660</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="47">
         <f t="shared" si="2"/>
-        <v>0.54599999999999993</v>
-      </c>
-      <c r="E68" s="48">
+        <v>1.17</v>
+      </c>
+      <c r="E68" s="47">
         <f t="shared" si="3"/>
         <v>0.38999999999999996</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
-        <v>0.11811200495049504</v>
+        <v>0.6074331683168317</v>
       </c>
       <c r="G68">
         <f t="shared" si="5"/>
-        <v>0.95159999999999967</v>
+        <v>0.95160000000000011</v>
       </c>
       <c r="H68">
         <f t="shared" si="6"/>
@@ -7603,7 +7703,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>0.72021710997588362</v>
+        <v>3.703973708447402</v>
       </c>
       <c r="L68">
         <f t="shared" si="9"/>
@@ -7616,27 +7716,27 @@
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>3720</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="47">
         <f t="shared" si="2"/>
-        <v>0.53199999999999992</v>
-      </c>
-      <c r="E69" s="48">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="E69" s="47">
         <f t="shared" si="3"/>
-        <v>0.37999999999999995</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>0.1169701066260472</v>
+        <v>0.60156054836252859</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>0.94239999999999968</v>
+        <v>0.94240000000000013</v>
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
@@ -7648,7 +7748,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>0.72974051173527477</v>
+        <v>3.7529512032099852</v>
       </c>
       <c r="L69">
         <f t="shared" si="9"/>
@@ -7661,27 +7761,27 @@
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>1575</v>
+        <v>3780</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="47">
         <f t="shared" si="2"/>
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="E70" s="48">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E70" s="47">
         <f t="shared" si="3"/>
         <v>0.37000000000000005</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>0.11572891279512566</v>
+        <v>0.5951772658035035</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
-        <v>0.93239999999999978</v>
+        <v>0.93240000000000012</v>
       </c>
       <c r="H70">
         <f t="shared" si="6"/>
@@ -7693,7 +7793,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>0.73908045339672157</v>
+        <v>3.8009851888974255</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
@@ -7706,27 +7806,27 @@
       </c>
       <c r="B71">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>3840</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="47">
         <f t="shared" si="2"/>
-        <v>0.504</v>
-      </c>
-      <c r="E71" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="E71" s="47">
         <f t="shared" si="3"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>0.11438842345773038</v>
+        <v>0.58828332063975641</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
-        <v>0.92159999999999975</v>
+        <v>0.9216000000000002</v>
       </c>
       <c r="H71">
         <f t="shared" si="6"/>
@@ -7738,7 +7838,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
-        <v>0.74822359666228655</v>
+        <v>3.8480070685489034</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
@@ -7751,27 +7851,27 @@
       </c>
       <c r="B72">
         <f t="shared" ref="B72:B107" si="10">A72*0.01*$B$5</f>
-        <v>1625</v>
+        <v>3900</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C107" si="11">B72/$B$5</f>
         <v>0.65</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="47">
         <f t="shared" ref="D72:D107" si="12">(100-A72)*$B$3*0.01</f>
-        <v>0.49</v>
-      </c>
-      <c r="E72" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="E72" s="47">
         <f t="shared" ref="E72:E107" si="13">D72/$B$3</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="F72">
         <f t="shared" ref="F72:F107" si="14">D72*B72/5252*0.745</f>
-        <v>0.11294863861386138</v>
+        <v>0.58087871287128712</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72:G108" si="15">F72/$F$108</f>
-        <v>0.90999999999999981</v>
+        <v>0.91</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72:H107" si="16" xml:space="preserve"> $B$4 + 1 - (A72 * (1-$B$4)*0.01 + $B$4)</f>
@@ -7783,7 +7883,7 @@
       </c>
       <c r="J72">
         <f t="shared" ref="J72:J107" si="18">F72/I72</f>
-        <v>0.75715527812208083</v>
+        <v>3.8939414303421298</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L107" si="19">A72</f>
@@ -7796,27 +7896,27 @@
       </c>
       <c r="B73">
         <f t="shared" si="10"/>
-        <v>1650</v>
+        <v>3960</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>0.66</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="47">
         <f t="shared" si="12"/>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E73" s="48">
+        <v>1.02</v>
+      </c>
+      <c r="E73" s="47">
         <f t="shared" si="13"/>
         <v>0.34</v>
       </c>
       <c r="F73">
         <f t="shared" si="14"/>
-        <v>0.11140955826351867</v>
+        <v>0.57296344249809605</v>
       </c>
       <c r="G73">
         <f t="shared" si="15"/>
-        <v>0.89759999999999995</v>
+        <v>0.89760000000000018</v>
       </c>
       <c r="H73">
         <f t="shared" si="16"/>
@@ -7828,7 +7928,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="18"/>
-        <v>0.76585934050676197</v>
+        <v>3.9387051797490615</v>
       </c>
       <c r="L73">
         <f t="shared" si="19"/>
@@ -7841,27 +7941,27 @@
       </c>
       <c r="B74">
         <f t="shared" si="10"/>
-        <v>1675</v>
+        <v>4020.0000000000005</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>0.67</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="47">
         <f t="shared" si="12"/>
-        <v>0.46199999999999997</v>
-      </c>
-      <c r="E74" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="E74" s="47">
         <f t="shared" si="13"/>
         <v>0.33</v>
       </c>
       <c r="F74">
         <f t="shared" si="14"/>
-        <v>0.10977118240670219</v>
+        <v>0.56453750952018289</v>
       </c>
       <c r="G74">
         <f t="shared" si="15"/>
-        <v>0.88439999999999974</v>
+        <v>0.88440000000000019</v>
       </c>
       <c r="H74">
         <f t="shared" si="16"/>
@@ -7873,7 +7973,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="18"/>
-        <v>0.77431793747894173</v>
+        <v>3.9822065356059873</v>
       </c>
       <c r="L74">
         <f t="shared" si="19"/>
@@ -7886,27 +7986,27 @@
       </c>
       <c r="B75">
         <f t="shared" si="10"/>
-        <v>1700.0000000000002</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>0.68</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="47">
         <f t="shared" si="12"/>
-        <v>0.44799999999999995</v>
-      </c>
-      <c r="E75" s="48">
+        <v>0.96</v>
+      </c>
+      <c r="E75" s="47">
         <f t="shared" si="13"/>
         <v>0.32</v>
       </c>
       <c r="F75">
         <f t="shared" si="14"/>
-        <v>0.10803351104341204</v>
+        <v>0.55560091393754762</v>
       </c>
       <c r="G75">
         <f t="shared" si="15"/>
-        <v>0.87039999999999984</v>
+        <v>0.87040000000000006</v>
       </c>
       <c r="H75">
         <f t="shared" si="16"/>
@@ -7918,7 +8018,7 @@
       </c>
       <c r="J75">
         <f t="shared" si="18"/>
-        <v>0.78251130699269889</v>
+        <v>4.02434386453388</v>
       </c>
       <c r="L75">
         <f t="shared" si="19"/>
@@ -7931,27 +8031,27 @@
       </c>
       <c r="B76">
         <f t="shared" si="10"/>
-        <v>1725.0000000000002</v>
+        <v>4140</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>0.69000000000000006</v>
-      </c>
-      <c r="D76" s="48">
+        <v>0.69</v>
+      </c>
+      <c r="D76" s="47">
         <f t="shared" si="12"/>
-        <v>0.434</v>
-      </c>
-      <c r="E76" s="48">
+        <v>0.93</v>
+      </c>
+      <c r="E76" s="47">
         <f t="shared" si="13"/>
         <v>0.31</v>
       </c>
       <c r="F76">
         <f t="shared" si="14"/>
-        <v>0.10619654417364814</v>
+        <v>0.54615365575019037</v>
       </c>
       <c r="G76">
         <f t="shared" si="15"/>
-        <v>0.85559999999999992</v>
+        <v>0.85560000000000003</v>
       </c>
       <c r="H76">
         <f t="shared" si="16"/>
@@ -7963,7 +8063,7 @@
       </c>
       <c r="J76">
         <f t="shared" si="18"/>
-        <v>0.79041750715379511</v>
+        <v>4.0650043225052315</v>
       </c>
       <c r="L76">
         <f t="shared" si="19"/>
@@ -7976,27 +8076,27 @@
       </c>
       <c r="B77">
         <f t="shared" si="10"/>
-        <v>1750.0000000000002</v>
+        <v>4200</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="D77" s="48">
+        <v>0.7</v>
+      </c>
+      <c r="D77" s="47">
         <f t="shared" si="12"/>
-        <v>0.42</v>
-      </c>
-      <c r="E77" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="E77" s="47">
         <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
       <c r="F77">
         <f t="shared" si="14"/>
-        <v>0.10426028179741052</v>
+        <v>0.53619573495811124</v>
       </c>
       <c r="G77">
         <f t="shared" si="15"/>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="H77">
         <f t="shared" si="16"/>
@@ -8008,7 +8108,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="18"/>
-        <v>0.79801210713670523</v>
+        <v>4.104062265274484</v>
       </c>
       <c r="L77">
         <f t="shared" si="19"/>
@@ -8021,27 +8121,27 @@
       </c>
       <c r="B78">
         <f t="shared" si="10"/>
-        <v>1775</v>
+        <v>4260</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>0.71</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="47">
         <f t="shared" si="12"/>
-        <v>0.40599999999999997</v>
-      </c>
-      <c r="E78" s="48">
+        <v>0.87</v>
+      </c>
+      <c r="E78" s="47">
         <f t="shared" si="13"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="F78">
         <f t="shared" si="14"/>
-        <v>0.10222472391469915</v>
+        <v>0.52572715156131</v>
       </c>
       <c r="G78">
         <f t="shared" si="15"/>
-        <v>0.82359999999999978</v>
+        <v>0.82360000000000011</v>
       </c>
       <c r="H78">
         <f t="shared" si="16"/>
@@ -8053,7 +8153,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="18"/>
-        <v>0.80526782397651853</v>
+        <v>4.1413773804506677</v>
       </c>
       <c r="L78">
         <f t="shared" si="19"/>
@@ -8066,27 +8166,27 @@
       </c>
       <c r="B79">
         <f t="shared" si="10"/>
-        <v>1800</v>
+        <v>4320</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>0.72</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="47">
         <f t="shared" si="12"/>
-        <v>0.39199999999999996</v>
-      </c>
-      <c r="E79" s="48">
+        <v>0.84</v>
+      </c>
+      <c r="E79" s="47">
         <f t="shared" si="13"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="F79">
         <f t="shared" si="14"/>
-        <v>0.10008987052551407</v>
+        <v>0.51474790555978678</v>
       </c>
       <c r="G79">
         <f t="shared" si="15"/>
-        <v>0.80639999999999967</v>
+        <v>0.80640000000000012</v>
       </c>
       <c r="H79">
         <f t="shared" si="16"/>
@@ -8098,7 +8198,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="18"/>
-        <v>0.81215409384545645</v>
+        <v>4.1767924826337772</v>
       </c>
       <c r="L79">
         <f t="shared" si="19"/>
@@ -8111,27 +8211,27 @@
       </c>
       <c r="B80">
         <f t="shared" si="10"/>
-        <v>1825</v>
+        <v>4380</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>0.73</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="47">
         <f t="shared" si="12"/>
-        <v>0.378</v>
-      </c>
-      <c r="E80" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="E80" s="47">
         <f t="shared" si="13"/>
         <v>0.27</v>
       </c>
       <c r="F80">
         <f t="shared" si="14"/>
-        <v>9.7855721629855286E-2</v>
+        <v>0.50325799695354156</v>
       </c>
       <c r="G80">
         <f t="shared" si="15"/>
-        <v>0.78839999999999977</v>
+        <v>0.7884000000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="16"/>
@@ -8143,7 +8243,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="18"/>
-        <v>0.8186365635994084</v>
+        <v>4.2101308985112444</v>
       </c>
       <c r="L80">
         <f t="shared" si="19"/>
@@ -8156,27 +8256,27 @@
       </c>
       <c r="B81">
         <f t="shared" si="10"/>
-        <v>1850</v>
+        <v>4440</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>0.74</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="47">
         <f t="shared" si="12"/>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E81" s="48">
+        <v>0.78</v>
+      </c>
+      <c r="E81" s="47">
         <f t="shared" si="13"/>
         <v>0.26</v>
       </c>
       <c r="F81">
         <f t="shared" si="14"/>
-        <v>9.5522277227722774E-2</v>
+        <v>0.49125742574257425</v>
       </c>
       <c r="G81">
         <f t="shared" si="15"/>
-        <v>0.76959999999999984</v>
+        <v>0.76960000000000006</v>
       </c>
       <c r="H81">
         <f t="shared" si="16"/>
@@ -8188,7 +8288,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="18"/>
-        <v>0.82467648474249122</v>
+        <v>4.2411933501042407</v>
       </c>
       <c r="L81">
         <f t="shared" si="19"/>
@@ -8201,27 +8301,27 @@
       </c>
       <c r="B82">
         <f t="shared" si="10"/>
-        <v>1875</v>
+        <v>4500</v>
       </c>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="47">
         <f t="shared" si="12"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E82" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="E82" s="47">
         <f t="shared" si="13"/>
-        <v>0.25000000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="F82">
         <f t="shared" si="14"/>
-        <v>9.3089537319116539E-2</v>
+        <v>0.47874619192688495</v>
       </c>
       <c r="G82">
         <f t="shared" si="15"/>
-        <v>0.74999999999999989</v>
+        <v>0.75</v>
       </c>
       <c r="H82">
         <f t="shared" si="16"/>
@@ -8233,7 +8333,7 @@
       </c>
       <c r="J82">
         <f t="shared" si="18"/>
-        <v>0.83022998723849761</v>
+        <v>4.2697542200837013</v>
       </c>
       <c r="L82">
         <f t="shared" si="19"/>
@@ -8246,27 +8346,27 @@
       </c>
       <c r="B83">
         <f t="shared" si="10"/>
-        <v>1900</v>
+        <v>4560</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>0.76</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="47">
         <f t="shared" si="12"/>
-        <v>0.33599999999999997</v>
-      </c>
-      <c r="E83" s="48">
+        <v>0.72</v>
+      </c>
+      <c r="E83" s="47">
         <f t="shared" si="13"/>
         <v>0.24</v>
       </c>
       <c r="F83">
         <f t="shared" si="14"/>
-        <v>9.0557501904036553E-2</v>
+        <v>0.46572429550647371</v>
       </c>
       <c r="G83">
         <f t="shared" si="15"/>
-        <v>0.7295999999999998</v>
+        <v>0.72960000000000003</v>
       </c>
       <c r="H83">
         <f t="shared" si="16"/>
@@ -8278,7 +8378,7 @@
       </c>
       <c r="J83">
         <f t="shared" si="18"/>
-        <v>0.83524720442756473</v>
+        <v>4.2955570513417616</v>
       </c>
       <c r="L83">
         <f t="shared" si="19"/>
@@ -8291,27 +8391,27 @@
       </c>
       <c r="B84">
         <f t="shared" si="10"/>
-        <v>1925</v>
+        <v>4620</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="47">
         <f t="shared" si="12"/>
-        <v>0.32199999999999995</v>
-      </c>
-      <c r="E84" s="48">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="E84" s="47">
         <f t="shared" si="13"/>
-        <v>0.22999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="F84">
         <f t="shared" si="14"/>
-        <v>8.7926170982482843E-2</v>
+        <v>0.45219173648134048</v>
       </c>
       <c r="G84">
         <f t="shared" si="15"/>
-        <v>0.7083999999999997</v>
+        <v>0.70840000000000014</v>
       </c>
       <c r="H84">
         <f t="shared" si="16"/>
@@ -8323,7 +8423,7 @@
       </c>
       <c r="J84">
         <f t="shared" si="18"/>
-        <v>0.83967121217096707</v>
+        <v>4.3183090911649753</v>
       </c>
       <c r="L84">
         <f t="shared" si="19"/>
@@ -8336,27 +8436,27 @@
       </c>
       <c r="B85">
         <f t="shared" si="10"/>
-        <v>1950</v>
+        <v>4680</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
         <v>0.78</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="47">
         <f t="shared" si="12"/>
-        <v>0.308</v>
-      </c>
-      <c r="E85" s="48">
+        <v>0.66</v>
+      </c>
+      <c r="E85" s="47">
         <f t="shared" si="13"/>
         <v>0.22</v>
       </c>
       <c r="F85">
         <f t="shared" si="14"/>
-        <v>8.5195544554455452E-2</v>
+        <v>0.4381485148514852</v>
       </c>
       <c r="G85">
         <f t="shared" si="15"/>
-        <v>0.6863999999999999</v>
+        <v>0.68640000000000012</v>
       </c>
       <c r="H85">
         <f t="shared" si="16"/>
@@ -8368,7 +8468,7 @@
       </c>
       <c r="J85">
         <f t="shared" si="18"/>
-        <v>0.84343673452584345</v>
+        <v>4.3376746347043378</v>
       </c>
       <c r="L85">
         <f t="shared" si="19"/>
@@ -8381,23 +8481,23 @@
       </c>
       <c r="B86">
         <f t="shared" si="10"/>
-        <v>1975</v>
+        <v>4740</v>
       </c>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>0.79</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="47">
         <f t="shared" si="12"/>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E86" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="E86" s="47">
         <f t="shared" si="13"/>
         <v>0.21</v>
       </c>
       <c r="F86">
         <f t="shared" si="14"/>
-        <v>8.236562261995431E-2</v>
+        <v>0.42359463061690777</v>
       </c>
       <c r="G86">
         <f t="shared" si="15"/>
@@ -8413,7 +8513,7 @@
       </c>
       <c r="J86">
         <f t="shared" si="18"/>
-        <v>0.84646855372236041</v>
+        <v>4.3532668477149956</v>
       </c>
       <c r="L86">
         <f t="shared" si="19"/>
@@ -8426,27 +8526,27 @@
       </c>
       <c r="B87">
         <f t="shared" si="10"/>
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="47">
         <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E87" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="47">
         <f t="shared" si="13"/>
-        <v>0.20000000000000004</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="F87">
         <f t="shared" si="14"/>
-        <v>7.9436405178979444E-2</v>
+        <v>0.40853008377760852</v>
       </c>
       <c r="G87">
         <f t="shared" si="15"/>
-        <v>0.6399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="H87">
         <f t="shared" si="16"/>
@@ -8458,7 +8558,7 @@
       </c>
       <c r="J87">
         <f t="shared" si="18"/>
-        <v>0.84867954251046407</v>
+        <v>4.3646376471966724</v>
       </c>
       <c r="L87">
         <f t="shared" si="19"/>
@@ -8471,27 +8571,27 @@
       </c>
       <c r="B88">
         <f t="shared" si="10"/>
-        <v>2025.0000000000002</v>
+        <v>4860</v>
       </c>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>0.81</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="47">
         <f t="shared" si="12"/>
-        <v>0.26599999999999996</v>
-      </c>
-      <c r="E88" s="48">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="E88" s="47">
         <f t="shared" si="13"/>
-        <v>0.18999999999999997</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="F88">
         <f t="shared" si="14"/>
-        <v>7.6407892231530841E-2</v>
+        <v>0.39295487433358722</v>
       </c>
       <c r="G88">
         <f t="shared" si="15"/>
-        <v>0.61559999999999981</v>
+        <v>0.61560000000000004</v>
       </c>
       <c r="H88">
         <f t="shared" si="16"/>
@@ -8503,7 +8603,7 @@
       </c>
       <c r="J88">
         <f t="shared" si="18"/>
-        <v>0.8499682099285929</v>
+        <v>4.3712650796327646</v>
       </c>
       <c r="L88">
         <f t="shared" si="19"/>
@@ -8516,27 +8616,27 @@
       </c>
       <c r="B89">
         <f t="shared" si="10"/>
-        <v>2050</v>
+        <v>4920</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
         <v>0.82</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="47">
         <f t="shared" si="12"/>
-        <v>0.252</v>
-      </c>
-      <c r="E89" s="48">
+        <v>0.54</v>
+      </c>
+      <c r="E89" s="47">
         <f t="shared" si="13"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="F89">
         <f t="shared" si="14"/>
-        <v>7.3280083777608529E-2</v>
+        <v>0.37686900228484388</v>
       </c>
       <c r="G89">
         <f t="shared" si="15"/>
-        <v>0.59039999999999992</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="H89">
         <f t="shared" si="16"/>
@@ -8548,7 +8648,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="18"/>
-        <v>0.85021561408061841</v>
+        <v>4.3725374438431803</v>
       </c>
       <c r="L89">
         <f t="shared" si="19"/>
@@ -8561,27 +8661,27 @@
       </c>
       <c r="B90">
         <f t="shared" si="10"/>
-        <v>2075</v>
+        <v>4980</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
         <v>0.83</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="47">
         <f t="shared" si="12"/>
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E90" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="E90" s="47">
         <f t="shared" si="13"/>
         <v>0.17</v>
       </c>
       <c r="F90">
         <f t="shared" si="14"/>
-        <v>7.0052979817212493E-2</v>
+        <v>0.36027246763137855</v>
       </c>
       <c r="G90">
         <f t="shared" si="15"/>
-        <v>0.5643999999999999</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="16"/>
@@ -8593,7 +8693,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="18"/>
-        <v>0.84928144289522312</v>
+        <v>4.3677331348897193</v>
       </c>
       <c r="L90">
         <f t="shared" si="19"/>
@@ -8606,27 +8706,27 @@
       </c>
       <c r="B91">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>5040</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
         <v>0.84</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D91" s="47">
         <f t="shared" si="12"/>
-        <v>0.22399999999999998</v>
-      </c>
-      <c r="E91" s="48">
+        <v>0.48</v>
+      </c>
+      <c r="E91" s="47">
         <f t="shared" si="13"/>
         <v>0.16</v>
       </c>
       <c r="F91">
         <f t="shared" si="14"/>
-        <v>6.6726580350342721E-2</v>
+        <v>0.34316527037319111</v>
       </c>
       <c r="G91">
         <f t="shared" si="15"/>
-        <v>0.53759999999999986</v>
+        <v>0.53759999999999997</v>
       </c>
       <c r="H91">
         <f t="shared" si="16"/>
@@ -8638,7 +8738,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="18"/>
-        <v>0.84699898896093839</v>
+        <v>4.3559948003705404</v>
       </c>
       <c r="L91">
         <f t="shared" si="19"/>
@@ -8651,27 +8751,27 @@
       </c>
       <c r="B92">
         <f t="shared" si="10"/>
-        <v>2125</v>
+        <v>5100</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
         <v>0.85</v>
       </c>
-      <c r="D92" s="48">
+      <c r="D92" s="47">
         <f t="shared" si="12"/>
-        <v>0.21</v>
-      </c>
-      <c r="E92" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="E92" s="47">
         <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="F92">
         <f t="shared" si="14"/>
-        <v>6.3300885376999239E-2</v>
+        <v>0.3255474105102818</v>
       </c>
       <c r="G92">
         <f t="shared" si="15"/>
-        <v>0.5099999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H92">
         <f t="shared" si="16"/>
@@ -8683,7 +8783,7 @@
       </c>
       <c r="J92">
         <f t="shared" si="18"/>
-        <v>0.84316863639026618</v>
+        <v>4.3362958442927972</v>
       </c>
       <c r="L92">
         <f t="shared" si="19"/>
@@ -8696,27 +8796,27 @@
       </c>
       <c r="B93">
         <f t="shared" si="10"/>
-        <v>2150</v>
+        <v>5160</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
-      <c r="D93" s="48">
+      <c r="D93" s="47">
         <f t="shared" si="12"/>
-        <v>0.19599999999999998</v>
-      </c>
-      <c r="E93" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="E93" s="47">
         <f t="shared" si="13"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="F93">
         <f t="shared" si="14"/>
-        <v>5.9775894897182019E-2</v>
+        <v>0.30741888804265038</v>
       </c>
       <c r="G93">
         <f t="shared" si="15"/>
-        <v>0.48159999999999986</v>
+        <v>0.48159999999999997</v>
       </c>
       <c r="H93">
         <f t="shared" si="16"/>
@@ -8728,7 +8828,7 @@
       </c>
       <c r="J93">
         <f t="shared" si="18"/>
-        <v>0.83754931900213025</v>
+        <v>4.3073964977252412</v>
       </c>
       <c r="L93">
         <f t="shared" si="19"/>
@@ -8741,27 +8841,27 @@
       </c>
       <c r="B94">
         <f t="shared" si="10"/>
-        <v>2175</v>
+        <v>5220</v>
       </c>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>0.87</v>
       </c>
-      <c r="D94" s="48">
+      <c r="D94" s="47">
         <f t="shared" si="12"/>
-        <v>0.182</v>
-      </c>
-      <c r="E94" s="48">
+        <v>0.39</v>
+      </c>
+      <c r="E94" s="47">
         <f t="shared" si="13"/>
         <v>0.13</v>
       </c>
       <c r="F94">
         <f t="shared" si="14"/>
-        <v>5.615160891089109E-2</v>
+        <v>0.28877970297029704</v>
       </c>
       <c r="G94">
         <f t="shared" si="15"/>
-        <v>0.45239999999999991</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="H94">
         <f t="shared" si="16"/>
@@ -8773,7 +8873,7 @@
       </c>
       <c r="J94">
         <f t="shared" si="18"/>
-        <v>0.82984717225879046</v>
+        <v>4.2677854573309224</v>
       </c>
       <c r="L94">
         <f t="shared" si="19"/>
@@ -8786,27 +8886,27 @@
       </c>
       <c r="B95">
         <f t="shared" si="10"/>
-        <v>2200</v>
+        <v>5280</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
         <v>0.88</v>
       </c>
-      <c r="D95" s="48">
+      <c r="D95" s="47">
         <f t="shared" si="12"/>
-        <v>0.16799999999999998</v>
-      </c>
-      <c r="E95" s="48">
+        <v>0.36</v>
+      </c>
+      <c r="E95" s="47">
         <f t="shared" si="13"/>
         <v>0.12</v>
       </c>
       <c r="F95">
         <f t="shared" si="14"/>
-        <v>5.2428027418126424E-2</v>
+        <v>0.26962985529322159</v>
       </c>
       <c r="G95">
         <f t="shared" si="15"/>
-        <v>0.42239999999999989</v>
+        <v>0.42239999999999994</v>
       </c>
       <c r="H95">
         <f t="shared" si="16"/>
@@ -8818,7 +8918,7 @@
       </c>
       <c r="J95">
         <f t="shared" si="18"/>
-        <v>0.81970024105888695</v>
+        <v>4.2156012397314182</v>
       </c>
       <c r="L95">
         <f t="shared" si="19"/>
@@ -8831,27 +8931,27 @@
       </c>
       <c r="B96">
         <f t="shared" si="10"/>
-        <v>2225</v>
+        <v>5340</v>
       </c>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>0.89</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="47">
         <f t="shared" si="12"/>
-        <v>0.154</v>
-      </c>
-      <c r="E96" s="48">
+        <v>0.33</v>
+      </c>
+      <c r="E96" s="47">
         <f t="shared" si="13"/>
         <v>0.11</v>
       </c>
       <c r="F96">
         <f t="shared" si="14"/>
-        <v>4.8605150418888042E-2</v>
+        <v>0.24996934501142423</v>
       </c>
       <c r="G96">
         <f t="shared" si="15"/>
-        <v>0.39159999999999989</v>
+        <v>0.39160000000000006</v>
       </c>
       <c r="H96">
         <f t="shared" si="16"/>
@@ -8863,7 +8963,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="18"/>
-        <v>0.80665754574538295</v>
+        <v>4.1485245209762551</v>
       </c>
       <c r="L96">
         <f t="shared" si="19"/>
@@ -8876,23 +8976,23 @@
       </c>
       <c r="B97">
         <f t="shared" si="10"/>
-        <v>2250</v>
+        <v>5400</v>
       </c>
       <c r="C97">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="D97" s="48">
+      <c r="D97" s="47">
         <f t="shared" si="12"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E97" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E97" s="47">
         <f t="shared" si="13"/>
-        <v>0.10000000000000002</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="F97">
         <f t="shared" si="14"/>
-        <v>4.4682977913175943E-2</v>
+        <v>0.22979817212490478</v>
       </c>
       <c r="G97">
         <f t="shared" si="15"/>
@@ -8908,7 +9008,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="18"/>
-        <v>0.79014991888905284</v>
+        <v>4.0636281542865555</v>
       </c>
       <c r="L97">
         <f t="shared" si="19"/>
@@ -8921,27 +9021,27 @@
       </c>
       <c r="B98">
         <f t="shared" si="10"/>
-        <v>2275</v>
+        <v>5460</v>
       </c>
       <c r="C98">
         <f t="shared" si="11"/>
         <v>0.91</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="47">
         <f t="shared" si="12"/>
-        <v>0.126</v>
-      </c>
-      <c r="E98" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="E98" s="47">
         <f t="shared" si="13"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="F98">
         <f t="shared" si="14"/>
-        <v>4.0661509900990093E-2</v>
+        <v>0.20911633663366339</v>
       </c>
       <c r="G98">
         <f t="shared" si="15"/>
-        <v>0.32759999999999989</v>
+        <v>0.32760000000000006</v>
       </c>
       <c r="H98">
         <f t="shared" si="16"/>
@@ -8953,7 +9053,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="18"/>
-        <v>0.76944857415063128</v>
+        <v>3.9571640956318186</v>
       </c>
       <c r="L98">
         <f t="shared" si="19"/>
@@ -8966,27 +9066,27 @@
       </c>
       <c r="B99">
         <f t="shared" si="10"/>
-        <v>2300</v>
+        <v>5520</v>
       </c>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>0.92</v>
       </c>
-      <c r="D99" s="48">
+      <c r="D99" s="47">
         <f t="shared" si="12"/>
-        <v>0.11199999999999999</v>
-      </c>
-      <c r="E99" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="E99" s="47">
         <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
       <c r="F99">
         <f t="shared" si="14"/>
-        <v>3.6540746382330534E-2</v>
+        <v>0.18792383853769989</v>
       </c>
       <c r="G99">
         <f t="shared" si="15"/>
-        <v>0.29439999999999988</v>
+        <v>0.2944</v>
       </c>
       <c r="H99">
         <f t="shared" si="16"/>
@@ -8998,7 +9098,7 @@
       </c>
       <c r="J99">
         <f t="shared" si="18"/>
-        <v>0.74360493248535819</v>
+        <v>3.824253938496128</v>
       </c>
       <c r="L99">
         <f t="shared" si="19"/>
@@ -9011,27 +9111,27 @@
       </c>
       <c r="B100">
         <f t="shared" si="10"/>
-        <v>2325</v>
+        <v>5580</v>
       </c>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>0.93</v>
       </c>
-      <c r="D100" s="48">
+      <c r="D100" s="47">
         <f t="shared" si="12"/>
-        <v>9.799999999999999E-2</v>
-      </c>
-      <c r="E100" s="48">
+        <v>0.21</v>
+      </c>
+      <c r="E100" s="47">
         <f t="shared" si="13"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="14"/>
-        <v>3.2320687357197252E-2</v>
+        <v>0.16622067783701447</v>
       </c>
       <c r="G100">
         <f t="shared" si="15"/>
-        <v>0.26039999999999991</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="H100">
         <f t="shared" si="16"/>
@@ -9043,7 +9143,7 @@
       </c>
       <c r="J100">
         <f t="shared" si="18"/>
-        <v>0.71136100709138861</v>
+        <v>3.6584280364699993</v>
       </c>
       <c r="L100">
         <f t="shared" si="19"/>
@@ -9056,27 +9156,27 @@
       </c>
       <c r="B101">
         <f t="shared" si="10"/>
-        <v>2350</v>
+        <v>5640</v>
       </c>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
-      <c r="D101" s="48">
+      <c r="D101" s="47">
         <f t="shared" si="12"/>
-        <v>8.3999999999999991E-2</v>
-      </c>
-      <c r="E101" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="E101" s="47">
         <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
       <c r="F101">
         <f t="shared" si="14"/>
-        <v>2.8001332825590249E-2</v>
+        <v>0.144006854531607</v>
       </c>
       <c r="G101">
         <f t="shared" si="15"/>
-        <v>0.22559999999999994</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="16"/>
@@ -9088,7 +9188,7 @@
       </c>
       <c r="J101">
         <f t="shared" si="18"/>
-        <v>0.67101204949892768</v>
+        <v>3.450919111708771</v>
       </c>
       <c r="L101">
         <f t="shared" si="19"/>
@@ -9101,27 +9201,27 @@
       </c>
       <c r="B102">
         <f t="shared" si="10"/>
-        <v>2375</v>
+        <v>5700</v>
       </c>
       <c r="C102">
         <f t="shared" si="11"/>
         <v>0.95</v>
       </c>
-      <c r="D102" s="48">
+      <c r="D102" s="47">
         <f t="shared" si="12"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E102" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="E102" s="47">
         <f t="shared" si="13"/>
-        <v>5.000000000000001E-2</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="F102">
         <f t="shared" si="14"/>
-        <v>2.3582682787509524E-2</v>
+        <v>0.12128236862147754</v>
       </c>
       <c r="G102">
         <f t="shared" si="15"/>
-        <v>0.19</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="H102">
         <f t="shared" si="16"/>
@@ -9133,7 +9233,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="18"/>
-        <v>0.62018889644995445</v>
+        <v>3.1895428960283367</v>
       </c>
       <c r="L102">
         <f t="shared" si="19"/>
@@ -9146,27 +9246,27 @@
       </c>
       <c r="B103">
         <f t="shared" si="10"/>
-        <v>2400</v>
+        <v>5760</v>
       </c>
       <c r="C103">
         <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
-      <c r="D103" s="48">
+      <c r="D103" s="47">
         <f t="shared" si="12"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="E103" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="E103" s="47">
         <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
       <c r="F103">
         <f t="shared" si="14"/>
-        <v>1.9064737242955061E-2</v>
+        <v>9.8047220106626032E-2</v>
       </c>
       <c r="G103">
         <f t="shared" si="15"/>
-        <v>0.15359999999999993</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="16"/>
@@ -9178,7 +9278,7 @@
       </c>
       <c r="J103">
         <f t="shared" si="18"/>
-        <v>0.55549933691593945</v>
+        <v>2.8568537327105461</v>
       </c>
       <c r="L103">
         <f t="shared" si="19"/>
@@ -9191,27 +9291,27 @@
       </c>
       <c r="B104">
         <f t="shared" si="10"/>
-        <v>2425</v>
+        <v>5820</v>
       </c>
       <c r="C104">
         <f t="shared" si="11"/>
         <v>0.97</v>
       </c>
-      <c r="D104" s="48">
+      <c r="D104" s="47">
         <f t="shared" si="12"/>
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="E104" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="E104" s="47">
         <f t="shared" si="13"/>
         <v>0.03</v>
       </c>
       <c r="F104">
         <f t="shared" si="14"/>
-        <v>1.4447496191926885E-2</v>
+        <v>7.430140898705255E-2</v>
       </c>
       <c r="G104">
         <f t="shared" si="15"/>
-        <v>0.11639999999999998</v>
+        <v>0.1164</v>
       </c>
       <c r="H104">
         <f t="shared" si="16"/>
@@ -9223,7 +9323,7 @@
       </c>
       <c r="J104">
         <f t="shared" si="18"/>
-        <v>0.47190907045327068</v>
+        <v>2.4269609337596778</v>
       </c>
       <c r="L104">
         <f t="shared" si="19"/>
@@ -9236,27 +9336,27 @@
       </c>
       <c r="B105">
         <f t="shared" si="10"/>
-        <v>2450</v>
+        <v>5880</v>
       </c>
       <c r="C105">
         <f t="shared" si="11"/>
         <v>0.98</v>
       </c>
-      <c r="D105" s="48">
+      <c r="D105" s="47">
         <f t="shared" si="12"/>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="E105" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="E105" s="47">
         <f t="shared" si="13"/>
         <v>0.02</v>
       </c>
       <c r="F105">
         <f t="shared" si="14"/>
-        <v>9.7309596344249804E-3</v>
+        <v>5.0044935262757044E-2</v>
       </c>
       <c r="G105">
         <f t="shared" si="15"/>
-        <v>7.8399999999999984E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="H105">
         <f t="shared" si="16"/>
@@ -9268,7 +9368,7 @@
       </c>
       <c r="J105">
         <f t="shared" si="18"/>
-        <v>0.36161128333054521</v>
+        <v>1.8597151714142326</v>
       </c>
       <c r="L105">
         <f t="shared" si="19"/>
@@ -9281,27 +9381,27 @@
       </c>
       <c r="B106">
         <f t="shared" si="10"/>
-        <v>2475</v>
+        <v>5940</v>
       </c>
       <c r="C106">
         <f t="shared" si="11"/>
         <v>0.99</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D106" s="47">
         <f t="shared" si="12"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="E106" s="48">
+        <v>0.03</v>
+      </c>
+      <c r="E106" s="47">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="F106">
         <f t="shared" si="14"/>
-        <v>4.9151275704493527E-3</v>
+        <v>2.5277798933739524E-2</v>
       </c>
       <c r="G106">
         <f t="shared" si="15"/>
-        <v>3.9599999999999989E-2</v>
+        <v>3.9599999999999996E-2</v>
       </c>
       <c r="H106">
         <f t="shared" si="16"/>
@@ -9313,7 +9413,7 @@
       </c>
       <c r="J106">
         <f t="shared" si="18"/>
-        <v>0.2118132975845444</v>
+        <v>1.0893255304347995</v>
       </c>
       <c r="L106">
         <f t="shared" si="19"/>
@@ -9326,17 +9426,17 @@
       </c>
       <c r="B107">
         <f t="shared" si="10"/>
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="C107">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="D107" s="48">
+      <c r="D107" s="47">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -9368,7 +9468,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F108">
         <f>LARGE(F7:F107,1)</f>
-        <v>0.12411938309215539</v>
+        <v>0.6383282559025133</v>
       </c>
       <c r="G108">
         <f t="shared" si="15"/>

--- a/PartBalance.xlsx
+++ b/PartBalance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Repulsor</t>
   </si>
@@ -218,6 +218,9 @@
   <si>
     <t>pwr at peak</t>
   </si>
+  <si>
+    <t>m/s acc</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -670,11 +673,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -819,6 +874,19 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,7 +1054,7 @@
                   <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.35</c:v>
+                  <c:v>0.35000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.36</c:v>
@@ -1052,7 +1120,7 @@
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57000000000000006</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.57999999999999996</c:v>
@@ -1091,7 +1159,7 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7</c:v>
+                  <c:v>0.70000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.71</c:v>
@@ -1130,7 +1198,7 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.83</c:v>
+                  <c:v>0.83000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.84</c:v>
@@ -1166,7 +1234,7 @@
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.95</c:v>
+                  <c:v>0.95000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.96</c:v>
@@ -1216,19 +1284,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9900000000000001</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.97000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95000000000000007</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.94</c:v>
@@ -1249,7 +1317,7 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.87</c:v>
@@ -1258,7 +1326,7 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85000000000000009</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.84</c:v>
@@ -1267,43 +1335,43 @@
                   <c:v>0.83000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82</c:v>
+                  <c:v>0.82000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.79</c:v>
+                  <c:v>0.78999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77999999999999992</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.76000000000000012</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7400000000000001</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73</c:v>
+                  <c:v>0.73000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.72000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.71</c:v>
+                  <c:v>0.71000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.69</c:v>
@@ -1324,7 +1392,7 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63</c:v>
+                  <c:v>0.63000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.62</c:v>
@@ -1339,19 +1407,19 @@
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.55999999999999994</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.54</c:v>
+                  <c:v>0.53999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.53</c:v>
@@ -1366,10 +1434,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.49</c:v>
+                  <c:v>0.49000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.48</c:v>
+                  <c:v>0.48000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.47</c:v>
@@ -1381,7 +1449,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.44</c:v>
+                  <c:v>0.44000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.43</c:v>
@@ -1390,25 +1458,25 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.41</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.38999999999999996</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38000000000000006</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.37000000000000005</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.35000000000000003</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.34</c:v>
@@ -1426,13 +1494,13 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.29000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.27999999999999997</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.26</c:v>
@@ -1441,22 +1509,22 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.24</c:v>
+                  <c:v>0.24000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.22</c:v>
+                  <c:v>0.22000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.19000000000000003</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.18000000000000002</c:v>
@@ -1471,19 +1539,19 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.12</c:v>
+                  <c:v>0.12000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.11</c:v>
+                  <c:v>0.11000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>9.0000000000000011E-2</c:v>
@@ -1492,19 +1560,19 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.9999999999999993E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.06</c:v>
+                  <c:v>6.0000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9999999999999996E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03</c:v>
+                  <c:v>3.0000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.02</c:v>
@@ -1548,22 +1616,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9600000000000003E-2</c:v>
+                  <c:v>3.960000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8399999999999997E-2</c:v>
+                  <c:v>7.8400000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.11640000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15359999999999999</c:v>
+                  <c:v>0.15360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19000000000000003</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22559999999999999</c:v>
+                  <c:v>0.22560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.26040000000000008</c:v>
@@ -1575,43 +1643,43 @@
                   <c:v>0.32760000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39160000000000006</c:v>
+                  <c:v>0.3916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42240000000000005</c:v>
+                  <c:v>0.42240000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45240000000000002</c:v>
+                  <c:v>0.45240000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48160000000000008</c:v>
+                  <c:v>0.48160000000000019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51000000000000012</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53759999999999997</c:v>
+                  <c:v>0.53760000000000008</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.56440000000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59040000000000004</c:v>
+                  <c:v>0.59040000000000015</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61560000000000004</c:v>
+                  <c:v>0.61560000000000015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.66360000000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68640000000000001</c:v>
+                  <c:v>0.68640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.70840000000000014</c:v>
@@ -1623,25 +1691,25 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76960000000000006</c:v>
+                  <c:v>0.76960000000000017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78839999999999999</c:v>
+                  <c:v>0.78840000000000021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.80640000000000012</c:v>
+                  <c:v>0.80640000000000023</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.82359999999999989</c:v>
+                  <c:v>0.82360000000000011</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>0.84000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.85560000000000003</c:v>
+                  <c:v>0.85560000000000014</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.87040000000000006</c:v>
+                  <c:v>0.87040000000000017</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.88440000000000019</c:v>
@@ -1650,13 +1718,13 @@
                   <c:v>0.89760000000000018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91</c:v>
+                  <c:v>0.91000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92160000000000009</c:v>
+                  <c:v>0.9216000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93240000000000012</c:v>
+                  <c:v>0.93240000000000023</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.94240000000000013</c:v>
@@ -1665,73 +1733,73 @@
                   <c:v>0.95160000000000011</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.96760000000000013</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97440000000000004</c:v>
+                  <c:v>0.97440000000000015</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.98040000000000016</c:v>
+                  <c:v>0.98040000000000027</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.98560000000000003</c:v>
+                  <c:v>0.98560000000000014</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.9900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99360000000000026</c:v>
+                  <c:v>0.99359999999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99640000000000017</c:v>
+                  <c:v>0.99640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.99840000000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99960000000000004</c:v>
+                  <c:v>0.99960000000000016</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99960000000000004</c:v>
+                  <c:v>0.99960000000000016</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.99840000000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99640000000000017</c:v>
+                  <c:v>0.99640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.99360000000000026</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99000000000000021</c:v>
+                  <c:v>0.99000000000000032</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.98560000000000025</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98040000000000027</c:v>
+                  <c:v>0.98039999999999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97439999999999982</c:v>
+                  <c:v>0.97440000000000015</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.96760000000000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.95160000000000011</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.94240000000000013</c:v>
+                  <c:v>0.94240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.93240000000000012</c:v>
@@ -1746,76 +1814,76 @@
                   <c:v>0.89760000000000018</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.88440000000000019</c:v>
+                  <c:v>0.88440000000000007</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.87040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.85560000000000003</c:v>
+                  <c:v>0.85560000000000014</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>0.8400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.82360000000000011</c:v>
+                  <c:v>0.82360000000000022</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.80640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.7884000000000001</c:v>
+                  <c:v>0.78840000000000021</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.76960000000000006</c:v>
+                  <c:v>0.76960000000000017</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.72960000000000003</c:v>
+                  <c:v>0.72960000000000014</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.70840000000000014</c:v>
+                  <c:v>0.70839999999999992</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.68640000000000012</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.66359999999999997</c:v>
+                  <c:v>0.66360000000000008</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.64</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.61560000000000004</c:v>
+                  <c:v>0.61560000000000015</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.59040000000000004</c:v>
+                  <c:v>0.59040000000000015</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.56440000000000001</c:v>
+                  <c:v>0.56440000000000012</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.53759999999999997</c:v>
+                  <c:v>0.53760000000000008</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.48159999999999997</c:v>
+                  <c:v>0.48160000000000014</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.45240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.42239999999999994</c:v>
+                  <c:v>0.42240000000000011</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.39160000000000006</c:v>
+                  <c:v>0.39160000000000011</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.36</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.32760000000000006</c:v>
@@ -1827,22 +1895,22 @@
                   <c:v>0.26040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.22559999999999999</c:v>
+                  <c:v>0.22560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.19000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.15359999999999999</c:v>
+                  <c:v>0.15360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.1164</c:v>
+                  <c:v>0.11640000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>7.8399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.9599999999999996E-2</c:v>
+                  <c:v>3.960000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -1880,301 +1948,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5436515962514472E-2</c:v>
+                  <c:v>1.2760120612690322E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13080565425849353</c:v>
+                  <c:v>2.5507102580406241E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19610543829144084</c:v>
+                  <c:v>3.8240560466830963E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26133381338724349</c:v>
+                  <c:v>5.09600936105125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32648864290053847</c:v>
+                  <c:v>6.3665285365605007E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39156770408572472</c:v>
+                  <c:v>7.635570229671633E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45656868371585974</c:v>
+                  <c:v>8.9030893324592658E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52148917343129075</c:v>
+                  <c:v>0.10169038881910168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58632666479837192</c:v>
+                  <c:v>0.11433369963568256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65107854405696208</c:v>
+                  <c:v>0.12696031609110764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71574208653359161</c:v>
+                  <c:v>0.13956970687405035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78031445069520633</c:v>
+                  <c:v>0.15216131788556525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84479267181621831</c:v>
+                  <c:v>0.16473457100416261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90917365522920313</c:v>
+                  <c:v>0.17728886276969463</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9734541691269547</c:v>
+                  <c:v>0.18982356297975614</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0376308368807179</c:v>
+                  <c:v>0.20233801319174005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1017001288362265</c:v>
+                  <c:v>0.21483152512306414</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1656583535456491</c:v>
+                  <c:v>0.22730337894140162</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.229501648389691</c:v>
+                  <c:v>0.2397528214359898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2932259695397548</c:v>
+                  <c:v>0.25217906406025214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3568270812053618</c:v>
+                  <c:v>0.26458128083504551</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4203005441067298</c:v>
+                  <c:v>0.27695860610081235</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4836417031065847</c:v>
+                  <c:v>0.2893101321057841</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.546845673928769</c:v>
+                  <c:v>0.30163490641610996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6099073288840182</c:v>
+                  <c:v>0.3139319291323836</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6728212815152184</c:v>
+                  <c:v>0.32620014989546758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7355818700654955</c:v>
+                  <c:v>0.33843846466277172</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7981831396624979</c:v>
+                  <c:v>0.35064571223418717</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8606188231010239</c:v>
+                  <c:v>0.36282067050469968</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9228823200936387</c:v>
+                  <c:v>0.37496205241825953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9849666748448647</c:v>
+                  <c:v>0.38706850159474865</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0468645517887842</c:v>
+                  <c:v>0.39913858759881293</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1085682093121285</c:v>
+                  <c:v>0.4111708008158651</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1700694712649926</c:v>
+                  <c:v>0.42316354689667351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2313596960387478</c:v>
+                  <c:v>0.43511514072755603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2924297429653033</c:v>
+                  <c:v>0.44702379987823421</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3532699357630165</c:v>
+                  <c:v>0.4588876374737883</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.4138700227219156</c:v>
+                  <c:v>0.47070465443077353</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4742191332837686</c:v>
+                  <c:v>0.48247273099033494</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.5343057306303254</c:v>
+                  <c:v>0.4941896174729134</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5941175598449018</c:v>
+                  <c:v>0.5058529241697558</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.6536415911575109</c:v>
+                  <c:v>0.5174601102757147</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.7128639577208054</c:v>
+                  <c:v>0.5290084717555571</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.771769887291907</c:v>
+                  <c:v>0.5404951280219219</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.8303436271122524</c:v>
+                  <c:v>0.55191700728688919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.8885683611820245</c:v>
+                  <c:v>0.56327083043049464</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9464261190154226</c:v>
+                  <c:v>0.57455309320800729</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0038976748353567</c:v>
+                  <c:v>0.58576004659289449</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0609624360180963</c:v>
+                  <c:v>0.59688767502352869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.117598319426194</c:v>
+                  <c:v>0.60793167228810785</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1737816140672597</c:v>
+                  <c:v>0.6188874147431157</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.2294868282814901</c:v>
+                  <c:v>0.62974993151489056</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.2846865193857733</c:v>
+                  <c:v>0.64051387128022574</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3393511033788097</c:v>
+                  <c:v>0.65117346515886798</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3934486419303971</c:v>
+                  <c:v>0.66172248517642751</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.4469446034271156</c:v>
+                  <c:v>0.67215419766828743</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4998015943115748</c:v>
+                  <c:v>0.68246131089075668</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.5519790563155085</c:v>
+                  <c:v>0.69263591598152441</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6034329244261949</c:v>
+                  <c:v>0.70266942026310797</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.6541152395134935</c:v>
+                  <c:v>0.71255247170513114</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.703973708447402</c:v>
+                  <c:v>0.72227487314724348</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.7529512032099852</c:v>
+                  <c:v>0.7318254846259471</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.8009851888974255</c:v>
+                  <c:v>0.74119211183499778</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8480070685489034</c:v>
+                  <c:v>0.75036137836703609</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8939414303421298</c:v>
+                  <c:v>0.75931857891671517</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.9387051797490615</c:v>
+                  <c:v>0.76804751005106697</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.9822065356059873</c:v>
+                  <c:v>0.77653027444316747</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.02434386453388</c:v>
+                  <c:v>0.78474705358410657</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.0650043225052315</c:v>
+                  <c:v>0.79267584288852011</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.104062265274484</c:v>
+                  <c:v>0.80029214172852448</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.1413773804506677</c:v>
+                  <c:v>0.80756858918788033</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.1767924826337772</c:v>
+                  <c:v>0.8144745341135865</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.2101308985112444</c:v>
+                  <c:v>0.82097552520969264</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.2411933501042407</c:v>
+                  <c:v>0.82703270327032696</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.2697542200837013</c:v>
+                  <c:v>0.83260207291632171</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2955570513417616</c:v>
+                  <c:v>0.83763362501164373</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.3183090911649753</c:v>
+                  <c:v>0.84207027277716995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.3376746347043378</c:v>
+                  <c:v>0.84584655376734597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.3532668477149956</c:v>
+                  <c:v>0.84888703530442433</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.3646376471966724</c:v>
+                  <c:v>0.85110434120335121</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.3712650796327646</c:v>
+                  <c:v>0.85239669052838907</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.3725374438431803</c:v>
+                  <c:v>0.85264480154942035</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.3677331348897193</c:v>
+                  <c:v>0.85170796130349535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.3559948003705404</c:v>
+                  <c:v>0.84941898607225563</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.3362958442927972</c:v>
+                  <c:v>0.84557768963709556</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.3073964977252412</c:v>
+                  <c:v>0.83994231705642231</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.2677854573309224</c:v>
+                  <c:v>0.83221816417952987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.2156012397314182</c:v>
+                  <c:v>0.82204224174762686</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.1485245209762551</c:v>
+                  <c:v>0.80896228159036998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.0636281542865555</c:v>
+                  <c:v>0.79240749008587852</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.9571640956318186</c:v>
+                  <c:v>0.77164699864820463</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.824253938496128</c:v>
+                  <c:v>0.74572951800674492</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.6584280364699993</c:v>
+                  <c:v>0.71339346711164975</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.450919111708771</c:v>
+                  <c:v>0.67292922678321032</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.1895428960283367</c:v>
+                  <c:v>0.6219608647255257</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.8568537327105461</c:v>
+                  <c:v>0.55708647787855659</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4269609337596778</c:v>
+                  <c:v>0.47325738208313728</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8597151714142326</c:v>
+                  <c:v>0.36264445842577536</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0893255304347995</c:v>
+                  <c:v>0.21241847843478598</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -3244,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,21 +3333,22 @@
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="s">
         <v>25</v>
       </c>
@@ -3303,19 +3372,20 @@
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
@@ -3352,45 +3422,48 @@
       <c r="M2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="U2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3429,46 +3502,47 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="59"/>
+      <c r="O3" s="5">
         <v>0.15</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
-      <c r="Q3" s="5">
-        <v>8</v>
-      </c>
       <c r="R3" s="5">
-        <f>IFERROR(O3/Q3/60*D3*2*PI(), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <f>IFERROR(P3/R3/60*D3*2*PI(), 0)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="45">
-        <f>IFERROR(M3*Q3/D3, 0)</f>
+      <c r="T3" s="45">
+        <f>IFERROR(M3*R3/D3, 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="45">
+      <c r="U3" s="45">
         <v>6.666666666666667</v>
       </c>
-      <c r="U3" s="46">
-        <f>IFERROR(S3/I3,0)</f>
+      <c r="V3" s="46">
+        <f>IFERROR(T3/I3,0)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>0</v>
       </c>
-      <c r="W3" s="9">
-        <f t="shared" ref="W3:W19" si="0">V3*D3</f>
+      <c r="X3" s="9">
+        <f t="shared" ref="X3:X19" si="0">W3*D3</f>
         <v>0</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3507,46 +3581,47 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="60"/>
+      <c r="O4" s="12">
         <v>0.15</v>
       </c>
-      <c r="O4" s="12">
+      <c r="P4" s="12">
         <v>0</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Q4" s="12">
         <v>1</v>
       </c>
-      <c r="Q4" s="12">
-        <v>8</v>
-      </c>
       <c r="R4" s="12">
-        <f t="shared" ref="R4:R19" si="2">IFERROR(O4/Q4/60*D4*2*PI(), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="12">
+        <f t="shared" ref="S4:S19" si="2">IFERROR(P4/R4/60*D4*2*PI(), 0)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="38">
-        <f t="shared" ref="S4:S19" si="3">IFERROR(M4*Q4/D4, 0)</f>
+      <c r="T4" s="38">
+        <f t="shared" ref="T4:T19" si="3">IFERROR(M4*R4/D4, 0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="38">
+      <c r="U4" s="38">
         <v>6.666666666666667</v>
       </c>
-      <c r="U4" s="19">
-        <f t="shared" ref="U4:U19" si="4">IFERROR(S4/I4,0)</f>
+      <c r="V4" s="19">
+        <f t="shared" ref="V4:V19" si="4">IFERROR(T4/I4,0)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15">
+      <c r="W4" s="15">
         <v>0</v>
       </c>
-      <c r="W4" s="17">
+      <c r="X4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3585,46 +3660,47 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="60"/>
+      <c r="O5" s="12">
         <v>0.15</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="12">
         <v>0</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Q5" s="12">
         <v>1</v>
       </c>
-      <c r="Q5" s="12">
-        <v>8</v>
-      </c>
       <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="38">
+      <c r="T5" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T5" s="38">
+      <c r="U5" s="38">
         <v>6.666666666666667</v>
       </c>
-      <c r="U5" s="19">
+      <c r="V5" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5" s="15">
+      <c r="W5" s="15">
         <v>0</v>
       </c>
-      <c r="W5" s="17">
+      <c r="X5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3662,50 +3738,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M6" s="15">
-        <f>(10*I6)/Q6*D6</f>
-        <v>11.71875</v>
-      </c>
-      <c r="N6" s="43">
+        <f t="shared" ref="M6:M16" si="5">(N6*I6)/R6*D6</f>
+        <v>46.875</v>
+      </c>
+      <c r="N6" s="61">
+        <v>5</v>
+      </c>
+      <c r="O6" s="43">
         <v>0.15</v>
       </c>
-      <c r="O6" s="13">
-        <f>K6*Q6</f>
-        <v>4800</v>
-      </c>
       <c r="P6" s="13">
+        <f>K6*R6</f>
+        <v>600</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="R6" s="13">
         <v>1</v>
       </c>
-      <c r="Q6" s="13">
-        <v>8</v>
-      </c>
-      <c r="R6" s="16">
+      <c r="S6" s="16">
         <f t="shared" si="2"/>
         <v>23.561944901923447</v>
       </c>
-      <c r="S6" s="40">
+      <c r="T6" s="40">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="T6" s="40">
+        <v>125</v>
+      </c>
+      <c r="U6" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U6" s="17">
+      <c r="V6" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V6" s="15">
+        <v>5</v>
+      </c>
+      <c r="W6" s="15">
         <v>0</v>
       </c>
-      <c r="W6" s="17">
+      <c r="X6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="Y6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3733,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" ref="J7:J19" si="5">K7*D7*2*PI()/60</f>
+        <f t="shared" ref="J7:J19" si="6">K7*D7*2*PI()/60</f>
         <v>23.561944901923447</v>
       </c>
       <c r="K7" s="38">
@@ -3743,49 +3822,51 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M7" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="60"/>
+      <c r="O7" s="12">
         <v>0.15</v>
       </c>
-      <c r="O7" s="12">
-        <f t="shared" ref="O7:O19" si="6">K7*Q7</f>
-        <v>0</v>
-      </c>
       <c r="P7" s="12">
+        <f t="shared" ref="P7:P19" si="7">K7*R7</f>
+        <v>2500</v>
+      </c>
+      <c r="Q7" s="12">
         <v>1</v>
       </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
       <c r="R7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
+        <v>23.561944901923447</v>
+      </c>
+      <c r="T7" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="38">
+      <c r="U7" s="38">
         <v>6.666666666666667</v>
       </c>
-      <c r="U7" s="19">
+      <c r="V7" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="15">
+      <c r="W7" s="15">
         <v>0</v>
       </c>
-      <c r="W7" s="17">
+      <c r="X7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="Y7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.561944901923447</v>
       </c>
       <c r="K8" s="38">
@@ -3823,50 +3904,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" ref="M8:M19" si="7">(10*I8)/Q8*D8</f>
-        <v>3.75</v>
-      </c>
-      <c r="N8" s="43">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N8" s="61">
+        <v>5</v>
+      </c>
+      <c r="O8" s="43">
         <v>0.15</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" si="6"/>
-        <v>7200</v>
-      </c>
       <c r="P8" s="13">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="Q8" s="13">
         <v>1</v>
       </c>
-      <c r="Q8" s="13">
-        <v>8</v>
-      </c>
-      <c r="R8" s="16">
+      <c r="R8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8" s="16">
         <f t="shared" si="2"/>
         <v>23.561944901923447</v>
       </c>
-      <c r="S8" s="40">
+      <c r="T8" s="40">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="T8" s="40">
+        <v>60</v>
+      </c>
+      <c r="U8" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U8" s="17">
+      <c r="V8" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V8" s="15">
+        <v>5</v>
+      </c>
+      <c r="W8" s="15">
         <v>70</v>
       </c>
-      <c r="W8" s="17">
+      <c r="X8" s="17">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="Y8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +3978,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.561944901923447</v>
       </c>
       <c r="K9" s="38">
@@ -3904,50 +3988,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" s="15">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="N9" s="61">
+        <v>5</v>
+      </c>
+      <c r="O9" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="7"/>
-        <v>4.375</v>
-      </c>
-      <c r="N9" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="6"/>
-        <v>7200</v>
-      </c>
-      <c r="P9" s="13">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="13">
-        <v>8</v>
-      </c>
-      <c r="R9" s="16">
+      <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="16">
         <f t="shared" si="2"/>
         <v>23.561944901923447</v>
       </c>
-      <c r="S9" s="40">
+      <c r="T9" s="40">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="T9" s="40">
+        <v>70</v>
+      </c>
+      <c r="U9" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U9" s="17">
+      <c r="V9" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V9" s="15">
+        <v>5</v>
+      </c>
+      <c r="W9" s="15">
         <v>70</v>
       </c>
-      <c r="W9" s="17">
+      <c r="X9" s="17">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="Y9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3975,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.561944901923447</v>
       </c>
       <c r="K10" s="38">
@@ -3985,50 +4072,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M10" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N10" s="61">
+        <v>5</v>
+      </c>
+      <c r="O10" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N10" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="6"/>
-        <v>6000</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0.39</v>
+        <v>750</v>
       </c>
       <c r="Q10" s="13">
-        <v>8</v>
-      </c>
-      <c r="R10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16">
         <f t="shared" si="2"/>
         <v>23.561944901923447</v>
       </c>
-      <c r="S10" s="40">
+      <c r="T10" s="40">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="T10" s="40">
+        <v>40</v>
+      </c>
+      <c r="U10" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U10" s="17">
+      <c r="V10" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V10" s="15">
+        <v>5</v>
+      </c>
+      <c r="W10" s="15">
         <v>12</v>
       </c>
-      <c r="W10" s="17">
+      <c r="X10" s="17">
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="Y10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4056,7 +4146,7 @@
         <v>80</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.823744289722598</v>
       </c>
       <c r="K11" s="38">
@@ -4066,50 +4156,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M11" s="15">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="N11" s="61">
+        <v>5</v>
+      </c>
+      <c r="O11" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="N11" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="P11" s="13">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="13">
-        <v>8</v>
-      </c>
-      <c r="R11" s="16">
+        <v>10</v>
+      </c>
+      <c r="R11" s="13">
+        <v>1</v>
+      </c>
+      <c r="S11" s="16">
         <f t="shared" si="2"/>
         <v>23.823744289722598</v>
       </c>
-      <c r="S11" s="40">
+      <c r="T11" s="40">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="T11" s="40">
+        <v>400</v>
+      </c>
+      <c r="U11" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U11" s="17">
+      <c r="V11" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V11" s="15">
+        <v>5</v>
+      </c>
+      <c r="W11" s="15">
         <v>100</v>
       </c>
-      <c r="W11" s="17">
+      <c r="X11" s="17">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="Y11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4137,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.823744289722598</v>
       </c>
       <c r="K12" s="38">
@@ -4147,50 +4240,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M12" s="15">
+        <f t="shared" si="5"/>
+        <v>2.34</v>
+      </c>
+      <c r="N12" s="61">
+        <v>6</v>
+      </c>
+      <c r="O12" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="7"/>
-        <v>0.48750000000000004</v>
-      </c>
-      <c r="N12" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="6"/>
-        <v>14000</v>
-      </c>
-      <c r="P12" s="13">
+        <v>1750</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="R12" s="13">
         <v>1</v>
       </c>
-      <c r="Q12" s="13">
-        <v>8</v>
-      </c>
-      <c r="R12" s="16">
+      <c r="S12" s="16">
         <f t="shared" si="2"/>
         <v>23.823744289722601</v>
       </c>
-      <c r="S12" s="40">
+      <c r="T12" s="40">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="T12" s="40">
+        <v>18</v>
+      </c>
+      <c r="U12" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U12" s="17">
+      <c r="V12" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V12" s="15">
+        <v>6</v>
+      </c>
+      <c r="W12" s="15">
         <v>50</v>
       </c>
-      <c r="W12" s="17">
+      <c r="X12" s="17">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="Y12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4218,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.457225146803793</v>
       </c>
       <c r="K13" s="38">
@@ -4228,50 +4324,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M13" s="15">
+        <f t="shared" si="5"/>
+        <v>1.2600000000000002</v>
+      </c>
+      <c r="N13" s="61">
+        <v>3</v>
+      </c>
+      <c r="O13" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="7"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="N13" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" si="6"/>
-        <v>12800</v>
-      </c>
-      <c r="P13" s="13">
+        <v>1600</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.222</v>
+      </c>
+      <c r="R13" s="13">
         <v>1</v>
       </c>
-      <c r="Q13" s="13">
-        <v>8</v>
-      </c>
-      <c r="R13" s="16">
+      <c r="S13" s="16">
         <f t="shared" si="2"/>
         <v>23.457225146803793</v>
       </c>
-      <c r="S13" s="40">
+      <c r="T13" s="40">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="T13" s="40">
+        <v>9</v>
+      </c>
+      <c r="U13" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U13" s="17">
+      <c r="V13" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V13" s="15">
+        <v>3</v>
+      </c>
+      <c r="W13" s="15">
         <v>50</v>
       </c>
-      <c r="W13" s="17">
+      <c r="X13" s="17">
         <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="X13" s="18" t="s">
+      <c r="Y13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +4398,7 @@
         <v>1.5</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.45722514680379</v>
       </c>
       <c r="K14" s="38">
@@ -4309,50 +4408,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M14" s="15">
+        <f t="shared" si="5"/>
+        <v>0.72</v>
+      </c>
+      <c r="N14" s="61">
+        <v>3</v>
+      </c>
+      <c r="O14" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="13">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="N14" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="6"/>
-        <v>11200</v>
-      </c>
-      <c r="P14" s="13">
+        <v>1400</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="R14" s="13">
         <v>1</v>
       </c>
-      <c r="Q14" s="13">
-        <v>8</v>
-      </c>
-      <c r="R14" s="16">
+      <c r="S14" s="16">
         <f t="shared" si="2"/>
         <v>23.45722514680379</v>
       </c>
-      <c r="S14" s="40">
+      <c r="T14" s="40">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="T14" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="U14" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U14" s="17">
+      <c r="V14" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V14" s="15">
+        <v>3</v>
+      </c>
+      <c r="W14" s="15">
         <v>12</v>
       </c>
-      <c r="W14" s="17">
+      <c r="X14" s="17">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="Y14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4380,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.519173063162576</v>
       </c>
       <c r="K15" s="38">
@@ -4390,50 +4492,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>1.98</v>
+      </c>
+      <c r="N15" s="61">
+        <v>3</v>
+      </c>
+      <c r="O15" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P15" s="13">
         <f t="shared" si="7"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="N15" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" si="6"/>
-        <v>4000</v>
-      </c>
-      <c r="P15" s="13">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="R15" s="13">
         <v>1</v>
       </c>
-      <c r="Q15" s="13">
-        <v>8</v>
-      </c>
-      <c r="R15" s="16">
+      <c r="S15" s="16">
         <f t="shared" si="2"/>
         <v>11.519173063162576</v>
       </c>
-      <c r="S15" s="40">
+      <c r="T15" s="40">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="T15" s="40">
+        <v>9</v>
+      </c>
+      <c r="U15" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U15" s="17">
+      <c r="V15" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V15" s="15">
+        <v>3</v>
+      </c>
+      <c r="W15" s="15">
         <v>12</v>
       </c>
-      <c r="W15" s="17">
+      <c r="X15" s="17">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="Y15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4461,7 +4566,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.353978619539141</v>
       </c>
       <c r="K16" s="38">
@@ -4471,50 +4576,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M16" s="15">
+        <f t="shared" si="5"/>
+        <v>172.5</v>
+      </c>
+      <c r="N16" s="61">
+        <v>5</v>
+      </c>
+      <c r="O16" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="13">
         <f t="shared" si="7"/>
-        <v>43.125</v>
-      </c>
-      <c r="N16" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" si="6"/>
-        <v>2400</v>
-      </c>
-      <c r="P16" s="13">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="R16" s="13">
         <v>1</v>
       </c>
-      <c r="Q16" s="13">
-        <v>8</v>
-      </c>
-      <c r="R16" s="16">
+      <c r="S16" s="16">
         <f t="shared" si="2"/>
         <v>43.353978619539141</v>
       </c>
-      <c r="S16" s="40">
+      <c r="T16" s="40">
         <f t="shared" si="3"/>
-        <v>250.00000000000003</v>
-      </c>
-      <c r="T16" s="40">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="U16" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U16" s="17">
+      <c r="V16" s="17">
         <f t="shared" si="4"/>
-        <v>10.000000000000002</v>
-      </c>
-      <c r="V16" s="15">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="W16" s="15">
         <v>100</v>
       </c>
-      <c r="W16" s="17">
+      <c r="X16" s="17">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="X16" s="18">
+      <c r="Y16" s="18">
         <v>40</v>
       </c>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4542,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.563418129778469</v>
       </c>
       <c r="K17" s="38">
@@ -4552,50 +4660,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M17" s="15">
+        <f>(N17*I17)/R17*D17</f>
+        <v>16.64</v>
+      </c>
+      <c r="N17" s="61">
+        <v>8</v>
+      </c>
+      <c r="O17" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P17" s="13">
         <f t="shared" si="7"/>
-        <v>2.6</v>
-      </c>
-      <c r="N17" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="6"/>
-        <v>6400</v>
-      </c>
-      <c r="P17" s="13">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="R17" s="13">
         <v>1</v>
       </c>
-      <c r="Q17" s="13">
-        <v>8</v>
-      </c>
-      <c r="R17" s="16">
+      <c r="S17" s="16">
         <f t="shared" si="2"/>
         <v>43.563418129778469</v>
       </c>
-      <c r="S17" s="40">
+      <c r="T17" s="40">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="T17" s="40">
+        <v>32</v>
+      </c>
+      <c r="U17" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U17" s="17">
+      <c r="V17" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V17" s="15">
+        <v>8</v>
+      </c>
+      <c r="W17" s="15">
         <v>80</v>
       </c>
-      <c r="W17" s="17">
+      <c r="X17" s="17">
         <f t="shared" si="0"/>
         <v>41.6</v>
       </c>
-      <c r="X17" s="18">
+      <c r="Y17" s="18">
         <v>20</v>
       </c>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4734,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.842472370093319</v>
       </c>
       <c r="K18" s="38">
@@ -4633,50 +4744,53 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="15">
+        <f t="shared" ref="M18:M19" si="8">(N18*I18)/R18*D18</f>
+        <v>13.759999999999998</v>
+      </c>
+      <c r="N18" s="61">
+        <v>10</v>
+      </c>
+      <c r="O18" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="P18" s="13">
         <f t="shared" si="7"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="N18" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="6"/>
-        <v>14400</v>
-      </c>
-      <c r="P18" s="13">
+        <v>1800</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="R18" s="13">
         <v>1</v>
       </c>
-      <c r="Q18" s="13">
-        <v>8</v>
-      </c>
-      <c r="R18" s="16">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>64.842472370093319</v>
       </c>
-      <c r="S18" s="40">
+      <c r="T18" s="40">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T18" s="40">
+      <c r="U18" s="40">
         <v>6.666666666666667</v>
       </c>
-      <c r="U18" s="17">
+      <c r="V18" s="17">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="V18" s="15">
+      <c r="W18" s="15">
         <v>12</v>
       </c>
-      <c r="W18" s="17">
+      <c r="X18" s="17">
         <f t="shared" si="0"/>
         <v>4.1280000000000001</v>
       </c>
-      <c r="X18" s="18">
+      <c r="Y18" s="18">
         <v>40</v>
       </c>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4704,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.995574287564276</v>
       </c>
       <c r="K19" s="21">
@@ -4714,55 +4828,58 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M19" s="23">
+        <f t="shared" si="8"/>
+        <v>0.63</v>
+      </c>
+      <c r="N19" s="62">
+        <v>3</v>
+      </c>
+      <c r="O19" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="P19" s="22">
         <f t="shared" si="7"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="N19" s="44">
-        <v>0.15</v>
-      </c>
-      <c r="O19" s="22">
-        <f t="shared" si="6"/>
-        <v>4000</v>
-      </c>
-      <c r="P19" s="22">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R19" s="22">
         <v>1</v>
       </c>
-      <c r="Q19" s="22">
-        <v>8</v>
-      </c>
-      <c r="R19" s="24">
+      <c r="S19" s="24">
         <f t="shared" si="2"/>
         <v>10.995574287564276</v>
       </c>
-      <c r="S19" s="41">
+      <c r="T19" s="41">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="T19" s="41">
+        <v>3</v>
+      </c>
+      <c r="U19" s="41">
         <v>6.666666666666667</v>
       </c>
-      <c r="U19" s="25">
+      <c r="V19" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V19" s="23">
+        <v>3</v>
+      </c>
+      <c r="W19" s="23">
         <v>80</v>
       </c>
-      <c r="W19" s="25">
+      <c r="X19" s="25">
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="X19" s="26" t="s">
+      <c r="Y19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="M1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4786,7 +4903,7 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,14 +4925,14 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>61</v>
       </c>
       <c r="E1">
         <f>LARGE(J7:J107,1)</f>
-        <v>4.3725374438431803</v>
+        <v>0.85264480154942035</v>
       </c>
       <c r="F1">
         <f>VLOOKUP(E1, J7:L107,3,FALSE)</f>
@@ -4827,15 +4944,18 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 16,FALSE)</f>
-        <v>0.39</v>
+        <f>VLOOKUP(B1, BaseStats!$A$3:$Y$19, 17,FALSE)*C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(F1, A7:J107, 4,FALSE)</f>
-        <v>0.54</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4843,15 +4963,15 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 13,FALSE)</f>
-        <v>3</v>
+        <f>VLOOKUP(B1, BaseStats!$A$3:$Y$19, 13,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(F1, A7:J107, 2,FALSE)</f>
-        <v>4920</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4874,15 +4994,15 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(B1, BaseStats!$A$3:$X$19, 15,FALSE)</f>
-        <v>6000</v>
+        <f>VLOOKUP(B1, BaseStats!$A$3:$Y$19, 16,FALSE)</f>
+        <v>900</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
       </c>
       <c r="E5">
         <f>1/0.8 * F82 * H82</f>
-        <v>0.17204941272372429</v>
+        <v>0.12903705954279318</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4934,7 +5054,7 @@
       </c>
       <c r="D7" s="47">
         <f>(100-A7)*$B$3*0.01</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7" s="47">
         <f>D7/$B$3</f>
@@ -4954,7 +5074,7 @@
       </c>
       <c r="I7">
         <f>H7*$B$2</f>
-        <v>0.39</v>
+        <v>1.5</v>
       </c>
       <c r="J7">
         <f>F7/I7</f>
@@ -4971,7 +5091,7 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B71" si="0">A8*0.01*$B$5</f>
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C71" si="1">B8/$B$5</f>
@@ -4979,19 +5099,19 @@
       </c>
       <c r="D8" s="47">
         <f t="shared" ref="D8:D71" si="2">(100-A8)*$B$3*0.01</f>
-        <v>2.97</v>
+        <v>14.85</v>
       </c>
       <c r="E8" s="47">
         <f t="shared" ref="E8:E71" si="3">D8/$B$3</f>
-        <v>0.9900000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F71" si="4">D8*B8/5252*0.745</f>
-        <v>2.5277798933739531E-2</v>
+        <v>1.8958349200304647E-2</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G71" si="5">F8/$F$108</f>
-        <v>3.9600000000000003E-2</v>
+        <v>3.960000000000001E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H71" si="6" xml:space="preserve"> $B$4 + 1 - (A8 * (1-$B$4)*0.01 + $B$4)</f>
@@ -4999,11 +5119,11 @@
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I71" si="7">H8*$B$2</f>
-        <v>0.38629500000000005</v>
+        <v>1.4857500000000001</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J71" si="8">F8/I8</f>
-        <v>6.5436515962514472E-2</v>
+        <v>1.2760120612690322E-2</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L71" si="9">A8</f>
@@ -5016,7 +5136,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -5024,19 +5144,19 @@
       </c>
       <c r="D9" s="47">
         <f t="shared" si="2"/>
-        <v>2.94</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="E9" s="47">
         <f t="shared" si="3"/>
-        <v>0.98</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>5.0044935262757044E-2</v>
+        <v>3.7533701447067788E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>7.8399999999999997E-2</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
@@ -5044,11 +5164,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>0.38259000000000004</v>
+        <v>1.4715000000000003</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>0.13080565425849353</v>
+        <v>2.5507102580406241E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="9"/>
@@ -5061,7 +5181,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -5069,7 +5189,7 @@
       </c>
       <c r="D10" s="47">
         <f t="shared" si="2"/>
-        <v>2.91</v>
+        <v>14.55</v>
       </c>
       <c r="E10" s="47">
         <f t="shared" si="3"/>
@@ -5077,7 +5197,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>7.4301408987052564E-2</v>
+        <v>5.5726056740289423E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
@@ -5089,11 +5209,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
-        <v>0.37888500000000003</v>
+        <v>1.4572500000000002</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.19610543829144084</v>
+        <v>3.8240560466830963E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
@@ -5106,7 +5226,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -5114,19 +5234,19 @@
       </c>
       <c r="D11" s="47">
         <f t="shared" si="2"/>
-        <v>2.88</v>
+        <v>14.4</v>
       </c>
       <c r="E11" s="47">
         <f t="shared" si="3"/>
-        <v>0.96</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>9.8047220106626032E-2</v>
+        <v>7.3535415079969538E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>0.15359999999999999</v>
+        <v>0.15360000000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
@@ -5134,11 +5254,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>0.37518000000000007</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>0.26133381338724349</v>
+        <v>5.09600936105125E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
@@ -5151,7 +5271,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -5159,19 +5279,19 @@
       </c>
       <c r="D12" s="47">
         <f t="shared" si="2"/>
-        <v>2.85</v>
+        <v>14.25</v>
       </c>
       <c r="E12" s="47">
         <f t="shared" si="3"/>
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0.12128236862147754</v>
+        <v>9.0961776466108146E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>0.19000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
@@ -5179,11 +5299,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
-        <v>0.371475</v>
+        <v>1.42875</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>0.32648864290053847</v>
+        <v>6.3665285365605007E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="9"/>
@@ -5196,7 +5316,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -5204,7 +5324,7 @@
       </c>
       <c r="D13" s="47">
         <f t="shared" si="2"/>
-        <v>2.82</v>
+        <v>14.1</v>
       </c>
       <c r="E13" s="47">
         <f t="shared" si="3"/>
@@ -5212,11 +5332,11 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>0.144006854531607</v>
+        <v>0.10800514089870525</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>0.22559999999999999</v>
+        <v>0.22560000000000002</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
@@ -5224,11 +5344,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>0.36777000000000004</v>
+        <v>1.4145000000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>0.39156770408572472</v>
+        <v>7.635570229671633E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
@@ -5241,7 +5361,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>420.00000000000006</v>
+        <v>63.000000000000007</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -5249,7 +5369,7 @@
       </c>
       <c r="D14" s="47">
         <f t="shared" si="2"/>
-        <v>2.79</v>
+        <v>13.950000000000001</v>
       </c>
       <c r="E14" s="47">
         <f t="shared" si="3"/>
@@ -5257,7 +5377,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>0.1662206778370145</v>
+        <v>0.12466550837776087</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
@@ -5269,11 +5389,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
-        <v>0.36406500000000003</v>
+        <v>1.40025</v>
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>0.45656868371585974</v>
+        <v>8.9030893324592658E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
@@ -5286,7 +5406,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -5294,7 +5414,7 @@
       </c>
       <c r="D15" s="47">
         <f t="shared" si="2"/>
-        <v>2.7600000000000002</v>
+        <v>13.8</v>
       </c>
       <c r="E15" s="47">
         <f t="shared" si="3"/>
@@ -5302,7 +5422,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>0.18792383853769995</v>
+        <v>0.14094287890327495</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
@@ -5314,11 +5434,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
-        <v>0.36036000000000001</v>
+        <v>1.3860000000000001</v>
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>0.52148917343129075</v>
+        <v>0.10169038881910168</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
@@ -5331,7 +5451,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -5339,7 +5459,7 @@
       </c>
       <c r="D16" s="47">
         <f t="shared" si="2"/>
-        <v>2.73</v>
+        <v>13.65</v>
       </c>
       <c r="E16" s="47">
         <f t="shared" si="3"/>
@@ -5347,7 +5467,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>0.20911633663366339</v>
+        <v>0.15683725247524755</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -5359,11 +5479,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
-        <v>0.35665500000000006</v>
+        <v>1.37175</v>
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.58632666479837192</v>
+        <v>0.11433369963568256</v>
       </c>
       <c r="L16">
         <f t="shared" si="9"/>
@@ -5376,7 +5496,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -5384,7 +5504,7 @@
       </c>
       <c r="D17" s="47">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="E17" s="47">
         <f t="shared" si="3"/>
@@ -5392,11 +5512,11 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>0.22979817212490478</v>
+        <v>0.1723486290936786</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>0.36</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
@@ -5404,11 +5524,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
-        <v>0.35295000000000004</v>
+        <v>1.3574999999999999</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>0.65107854405696208</v>
+        <v>0.12696031609110764</v>
       </c>
       <c r="L17">
         <f t="shared" si="9"/>
@@ -5421,7 +5541,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -5429,7 +5549,7 @@
       </c>
       <c r="D18" s="47">
         <f t="shared" si="2"/>
-        <v>2.67</v>
+        <v>13.35</v>
       </c>
       <c r="E18" s="47">
         <f t="shared" si="3"/>
@@ -5437,11 +5557,11 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>0.24996934501142423</v>
+        <v>0.18747700875856815</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>0.39160000000000006</v>
+        <v>0.3916</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -5449,11 +5569,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>0.34924500000000003</v>
+        <v>1.3432500000000001</v>
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>0.71574208653359161</v>
+        <v>0.13956970687405035</v>
       </c>
       <c r="L18">
         <f t="shared" si="9"/>
@@ -5466,7 +5586,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -5474,19 +5594,19 @@
       </c>
       <c r="D19" s="47">
         <f t="shared" si="2"/>
-        <v>2.64</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E19" s="47">
         <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>0.26962985529322164</v>
+        <v>0.20222239146991625</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>0.42240000000000005</v>
+        <v>0.42240000000000011</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -5494,11 +5614,11 @@
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
-        <v>0.34554000000000007</v>
+        <v>1.3290000000000002</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>0.78031445069520633</v>
+        <v>0.15216131788556525</v>
       </c>
       <c r="L19">
         <f t="shared" si="9"/>
@@ -5511,7 +5631,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -5519,7 +5639,7 @@
       </c>
       <c r="D20" s="47">
         <f t="shared" si="2"/>
-        <v>2.61</v>
+        <v>13.05</v>
       </c>
       <c r="E20" s="47">
         <f t="shared" si="3"/>
@@ -5527,11 +5647,11 @@
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>0.28877970297029704</v>
+        <v>0.21658477722772279</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>0.45240000000000002</v>
+        <v>0.45240000000000008</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -5539,11 +5659,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>0.34183500000000006</v>
+        <v>1.3147500000000001</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>0.84479267181621831</v>
+        <v>0.16473457100416261</v>
       </c>
       <c r="L20">
         <f t="shared" si="9"/>
@@ -5556,7 +5676,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>840.00000000000011</v>
+        <v>126.00000000000001</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -5564,7 +5684,7 @@
       </c>
       <c r="D21" s="47">
         <f t="shared" si="2"/>
-        <v>2.58</v>
+        <v>12.9</v>
       </c>
       <c r="E21" s="47">
         <f t="shared" si="3"/>
@@ -5572,11 +5692,11 @@
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>0.30741888804265044</v>
+        <v>0.23056416603198787</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>0.48160000000000008</v>
+        <v>0.48160000000000019</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -5584,11 +5704,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>0.33812999999999999</v>
+        <v>1.3005</v>
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>0.90917365522920313</v>
+        <v>0.17728886276969463</v>
       </c>
       <c r="L21">
         <f t="shared" si="9"/>
@@ -5601,7 +5721,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -5609,19 +5729,19 @@
       </c>
       <c r="D22" s="47">
         <f t="shared" si="2"/>
-        <v>2.5500000000000003</v>
+        <v>12.75</v>
       </c>
       <c r="E22" s="47">
         <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>0.32554741051028185</v>
+        <v>0.24416055788271135</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>0.51000000000000012</v>
+        <v>0.51</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -5629,11 +5749,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>0.33442500000000003</v>
+        <v>1.2862500000000001</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>0.9734541691269547</v>
+        <v>0.18982356297975614</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
@@ -5646,7 +5766,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>144</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -5654,7 +5774,7 @@
       </c>
       <c r="D23" s="47">
         <f t="shared" si="2"/>
-        <v>2.52</v>
+        <v>12.6</v>
       </c>
       <c r="E23" s="47">
         <f t="shared" si="3"/>
@@ -5662,11 +5782,11 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0.34316527037319111</v>
+        <v>0.25737395277989339</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>0.53759999999999997</v>
+        <v>0.53760000000000008</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -5674,11 +5794,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>0.33072000000000007</v>
+        <v>1.2720000000000002</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>1.0376308368807179</v>
+        <v>0.20233801319174005</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
@@ -5691,7 +5811,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1020.0000000000001</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -5699,7 +5819,7 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="2"/>
-        <v>2.4900000000000002</v>
+        <v>12.450000000000001</v>
       </c>
       <c r="E24" s="47">
         <f t="shared" si="3"/>
@@ -5707,7 +5827,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0.3602724676313786</v>
+        <v>0.27020435072353394</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
@@ -5719,11 +5839,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>0.327015</v>
+        <v>1.2577500000000001</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>1.1017001288362265</v>
+        <v>0.21483152512306414</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
@@ -5736,7 +5856,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>162</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -5744,19 +5864,19 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" si="2"/>
-        <v>2.46</v>
+        <v>12.3</v>
       </c>
       <c r="E25" s="47">
         <f t="shared" si="3"/>
-        <v>0.82</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.37686900228484388</v>
+        <v>0.28265175171363294</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>0.59040000000000004</v>
+        <v>0.59040000000000015</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -5764,11 +5884,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>0.32331000000000004</v>
+        <v>1.2435</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>1.1656583535456491</v>
+        <v>0.22730337894140162</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
@@ -5781,7 +5901,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>171</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -5789,7 +5909,7 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="2"/>
-        <v>2.4300000000000002</v>
+        <v>12.15</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="3"/>
@@ -5797,11 +5917,11 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0.39295487433358722</v>
+        <v>0.29471615575019044</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0.61560000000000004</v>
+        <v>0.61560000000000015</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
@@ -5809,11 +5929,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
-        <v>0.31960500000000003</v>
+        <v>1.22925</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>1.229501648389691</v>
+        <v>0.2397528214359898</v>
       </c>
       <c r="L26">
         <f t="shared" si="9"/>
@@ -5826,7 +5946,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -5834,19 +5954,19 @@
       </c>
       <c r="D27" s="47">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="E27" s="47">
         <f t="shared" si="3"/>
-        <v>0.79999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0.40853008377760852</v>
+        <v>0.3063975628332064</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>0.64</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -5854,11 +5974,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>0.31590000000000001</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>1.2932259695397548</v>
+        <v>0.25217906406025214</v>
       </c>
       <c r="L27">
         <f t="shared" si="9"/>
@@ -5871,7 +5991,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>189</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -5879,15 +5999,15 @@
       </c>
       <c r="D28" s="47">
         <f t="shared" si="2"/>
-        <v>2.37</v>
+        <v>11.85</v>
       </c>
       <c r="E28" s="47">
         <f t="shared" si="3"/>
-        <v>0.79</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0.42359463061690789</v>
+        <v>0.31769597296268087</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
@@ -5899,11 +6019,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>0.312195</v>
+        <v>1.20075</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>1.3568270812053618</v>
+        <v>0.26458128083504551</v>
       </c>
       <c r="L28">
         <f t="shared" si="9"/>
@@ -5916,7 +6036,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>198</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -5924,19 +6044,19 @@
       </c>
       <c r="D29" s="47">
         <f t="shared" si="2"/>
-        <v>2.34</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="E29" s="47">
         <f t="shared" si="3"/>
-        <v>0.77999999999999992</v>
+        <v>0.78</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.43814851485148515</v>
+        <v>0.3286113861386139</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>0.68640000000000001</v>
+        <v>0.68640000000000012</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
@@ -5944,11 +6064,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
-        <v>0.30849000000000004</v>
+        <v>1.1865000000000001</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>1.4203005441067298</v>
+        <v>0.27695860610081235</v>
       </c>
       <c r="L29">
         <f t="shared" si="9"/>
@@ -5961,7 +6081,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>207</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -5969,7 +6089,7 @@
       </c>
       <c r="D30" s="47">
         <f t="shared" si="2"/>
-        <v>2.31</v>
+        <v>11.55</v>
       </c>
       <c r="E30" s="47">
         <f t="shared" si="3"/>
@@ -5977,7 +6097,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>0.45219173648134048</v>
+        <v>0.33914380236100539</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
@@ -5989,11 +6109,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
-        <v>0.30478500000000003</v>
+        <v>1.17225</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>1.4836417031065847</v>
+        <v>0.2893101321057841</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
@@ -6006,7 +6126,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>216</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -6014,15 +6134,15 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="2"/>
-        <v>2.2800000000000002</v>
+        <v>11.4</v>
       </c>
       <c r="E31" s="47">
         <f t="shared" si="3"/>
-        <v>0.76000000000000012</v>
+        <v>0.76</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>0.46572429550647382</v>
+        <v>0.34929322162985532</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
@@ -6034,11 +6154,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>0.30108000000000001</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>1.546845673928769</v>
+        <v>0.30163490641610996</v>
       </c>
       <c r="L31">
         <f t="shared" si="9"/>
@@ -6051,7 +6171,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>225</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -6059,7 +6179,7 @@
       </c>
       <c r="D32" s="47">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>11.25</v>
       </c>
       <c r="E32" s="47">
         <f t="shared" si="3"/>
@@ -6067,7 +6187,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>0.47874619192688495</v>
+        <v>0.35905964394516371</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
@@ -6079,11 +6199,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="7"/>
-        <v>0.297375</v>
+        <v>1.1437499999999998</v>
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>1.6099073288840182</v>
+        <v>0.3139319291323836</v>
       </c>
       <c r="L32">
         <f t="shared" si="9"/>
@@ -6096,7 +6216,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>234</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -6104,19 +6224,19 @@
       </c>
       <c r="D33" s="47">
         <f t="shared" si="2"/>
-        <v>2.2200000000000002</v>
+        <v>11.1</v>
       </c>
       <c r="E33" s="47">
         <f t="shared" si="3"/>
-        <v>0.7400000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>0.49125742574257425</v>
+        <v>0.36844306930693072</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>0.76960000000000006</v>
+        <v>0.76960000000000017</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
@@ -6124,11 +6244,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="7"/>
-        <v>0.29367000000000004</v>
+        <v>1.1295000000000002</v>
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>1.6728212815152184</v>
+        <v>0.32620014989546758</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
@@ -6141,7 +6261,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1620</v>
+        <v>243.00000000000003</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -6149,19 +6269,19 @@
       </c>
       <c r="D34" s="47">
         <f t="shared" si="2"/>
-        <v>2.19</v>
+        <v>10.950000000000001</v>
       </c>
       <c r="E34" s="47">
         <f t="shared" si="3"/>
-        <v>0.73</v>
+        <v>0.73000000000000009</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>0.50325799695354145</v>
+        <v>0.37744349771515617</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>0.78839999999999999</v>
+        <v>0.78840000000000021</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
@@ -6169,11 +6289,11 @@
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
-        <v>0.28996500000000003</v>
+        <v>1.1152500000000001</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>1.7355818700654955</v>
+        <v>0.33843846466277172</v>
       </c>
       <c r="L34">
         <f t="shared" si="9"/>
@@ -6186,7 +6306,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1680.0000000000002</v>
+        <v>252.00000000000003</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -6194,7 +6314,7 @@
       </c>
       <c r="D35" s="47">
         <f t="shared" si="2"/>
-        <v>2.16</v>
+        <v>10.8</v>
       </c>
       <c r="E35" s="47">
         <f t="shared" si="3"/>
@@ -6202,11 +6322,11 @@
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>0.51474790555978678</v>
+        <v>0.38606092916984014</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>0.80640000000000012</v>
+        <v>0.80640000000000023</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
@@ -6214,11 +6334,11 @@
       </c>
       <c r="I35">
         <f t="shared" si="7"/>
-        <v>0.28626000000000007</v>
+        <v>1.1010000000000002</v>
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>1.7981831396624979</v>
+        <v>0.35064571223418717</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
@@ -6231,7 +6351,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1739.9999999999998</v>
+        <v>261</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -6239,19 +6359,19 @@
       </c>
       <c r="D36" s="47">
         <f t="shared" si="2"/>
-        <v>2.13</v>
+        <v>10.65</v>
       </c>
       <c r="E36" s="47">
         <f t="shared" si="3"/>
-        <v>0.71</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>0.52572715156130989</v>
+        <v>0.3942953636709825</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>0.82359999999999989</v>
+        <v>0.82360000000000011</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
@@ -6259,11 +6379,11 @@
       </c>
       <c r="I36">
         <f t="shared" si="7"/>
-        <v>0.28255500000000006</v>
+        <v>1.0867500000000003</v>
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>1.8606188231010239</v>
+        <v>0.36282067050469968</v>
       </c>
       <c r="L36">
         <f t="shared" si="9"/>
@@ -6276,7 +6396,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -6284,19 +6404,19 @@
       </c>
       <c r="D37" s="47">
         <f t="shared" si="2"/>
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="E37" s="47">
         <f t="shared" si="3"/>
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>0.53619573495811124</v>
+        <v>0.40214680121858343</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>0.84000000000000008</v>
+        <v>0.84000000000000019</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
@@ -6304,11 +6424,11 @@
       </c>
       <c r="I37">
         <f t="shared" si="7"/>
-        <v>0.27885000000000004</v>
+        <v>1.0725000000000002</v>
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>1.9228823200936387</v>
+        <v>0.37496205241825953</v>
       </c>
       <c r="L37">
         <f t="shared" si="9"/>
@@ -6321,7 +6441,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>279</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -6329,7 +6449,7 @@
       </c>
       <c r="D38" s="47">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
+        <v>10.35</v>
       </c>
       <c r="E38" s="47">
         <f t="shared" si="3"/>
@@ -6337,11 +6457,11 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>0.54615365575019037</v>
+        <v>0.40961524181264281</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>0.85560000000000003</v>
+        <v>0.85560000000000014</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
@@ -6349,11 +6469,11 @@
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
-        <v>0.27514500000000003</v>
+        <v>1.0582500000000001</v>
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
-        <v>1.9849666748448647</v>
+        <v>0.38706850159474865</v>
       </c>
       <c r="L38">
         <f t="shared" si="9"/>
@@ -6366,7 +6486,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>288</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -6374,7 +6494,7 @@
       </c>
       <c r="D39" s="47">
         <f t="shared" si="2"/>
-        <v>2.04</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="E39" s="47">
         <f t="shared" si="3"/>
@@ -6382,11 +6502,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>0.55560091393754762</v>
+        <v>0.41670068545316075</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>0.87040000000000006</v>
+        <v>0.87040000000000017</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
@@ -6394,11 +6514,11 @@
       </c>
       <c r="I39">
         <f t="shared" si="7"/>
-        <v>0.27144000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>2.0468645517887842</v>
+        <v>0.39913858759881293</v>
       </c>
       <c r="L39">
         <f t="shared" si="9"/>
@@ -6411,7 +6531,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>297</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -6419,7 +6539,7 @@
       </c>
       <c r="D40" s="47">
         <f t="shared" si="2"/>
-        <v>2.0100000000000002</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E40" s="47">
         <f t="shared" si="3"/>
@@ -6427,7 +6547,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>0.56453750952018289</v>
+        <v>0.42340313214013714</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
@@ -6439,11 +6559,11 @@
       </c>
       <c r="I40">
         <f t="shared" si="7"/>
-        <v>0.26773500000000006</v>
+        <v>1.0297500000000002</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>2.1085682093121285</v>
+        <v>0.4111708008158651</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
@@ -6456,7 +6576,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>2040.0000000000002</v>
+        <v>306</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -6464,7 +6584,7 @@
       </c>
       <c r="D41" s="47">
         <f t="shared" si="2"/>
-        <v>1.98</v>
+        <v>9.9</v>
       </c>
       <c r="E41" s="47">
         <f t="shared" si="3"/>
@@ -6472,7 +6592,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>0.57296344249809605</v>
+        <v>0.42972258187357198</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
@@ -6484,11 +6604,11 @@
       </c>
       <c r="I41">
         <f t="shared" si="7"/>
-        <v>0.26403000000000004</v>
+        <v>1.0155000000000001</v>
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>2.1700694712649926</v>
+        <v>0.42316354689667351</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
@@ -6501,15 +6621,15 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>315.00000000000006</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="D42" s="47">
         <f t="shared" si="2"/>
-        <v>1.95</v>
+        <v>9.75</v>
       </c>
       <c r="E42" s="47">
         <f t="shared" si="3"/>
@@ -6517,11 +6637,11 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>0.58087871287128712</v>
+        <v>0.43565903465346545</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>0.91</v>
+        <v>0.91000000000000036</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
@@ -6529,11 +6649,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="7"/>
-        <v>0.26032500000000003</v>
+        <v>1.00125</v>
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>2.2313596960387478</v>
+        <v>0.43511514072755603</v>
       </c>
       <c r="L42">
         <f t="shared" si="9"/>
@@ -6546,7 +6666,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>324</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -6554,7 +6674,7 @@
       </c>
       <c r="D43" s="47">
         <f t="shared" si="2"/>
-        <v>1.92</v>
+        <v>9.6</v>
       </c>
       <c r="E43" s="47">
         <f t="shared" si="3"/>
@@ -6562,11 +6682,11 @@
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>0.5882833206397563</v>
+        <v>0.44121249047981725</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>0.92160000000000009</v>
+        <v>0.9216000000000002</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
@@ -6574,11 +6694,11 @@
       </c>
       <c r="I43">
         <f t="shared" si="7"/>
-        <v>0.25662000000000007</v>
+        <v>0.98700000000000021</v>
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
-        <v>2.2924297429653033</v>
+        <v>0.44702379987823421</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
@@ -6591,7 +6711,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2220</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -6599,19 +6719,19 @@
       </c>
       <c r="D44" s="47">
         <f t="shared" si="2"/>
-        <v>1.8900000000000001</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="E44" s="47">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0.63000000000000012</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>0.5951772658035035</v>
+        <v>0.44638294935262762</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>0.93240000000000012</v>
+        <v>0.93240000000000023</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
@@ -6619,11 +6739,11 @@
       </c>
       <c r="I44">
         <f t="shared" si="7"/>
-        <v>0.25291500000000006</v>
+        <v>0.97275000000000011</v>
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
-        <v>2.3532699357630165</v>
+        <v>0.4588876374737883</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
@@ -6636,7 +6756,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>2280</v>
+        <v>342</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -6644,7 +6764,7 @@
       </c>
       <c r="D45" s="47">
         <f t="shared" si="2"/>
-        <v>1.86</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E45" s="47">
         <f t="shared" si="3"/>
@@ -6652,7 +6772,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>0.60156054836252859</v>
+        <v>0.45117041127189644</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
@@ -6664,11 +6784,11 @@
       </c>
       <c r="I45">
         <f t="shared" si="7"/>
-        <v>0.24921000000000001</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
-        <v>2.4138700227219156</v>
+        <v>0.47070465443077353</v>
       </c>
       <c r="L45">
         <f t="shared" si="9"/>
@@ -6681,7 +6801,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>2340</v>
+        <v>351</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -6689,7 +6809,7 @@
       </c>
       <c r="D46" s="47">
         <f t="shared" si="2"/>
-        <v>1.83</v>
+        <v>9.15</v>
       </c>
       <c r="E46" s="47">
         <f t="shared" si="3"/>
@@ -6697,7 +6817,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>0.6074331683168317</v>
+        <v>0.45557487623762377</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
@@ -6709,11 +6829,11 @@
       </c>
       <c r="I46">
         <f t="shared" si="7"/>
-        <v>0.24550500000000003</v>
+        <v>0.94425000000000003</v>
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
-        <v>2.4742191332837686</v>
+        <v>0.48247273099033494</v>
       </c>
       <c r="L46">
         <f t="shared" si="9"/>
@@ -6726,7 +6846,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>360</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -6734,7 +6854,7 @@
       </c>
       <c r="D47" s="47">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="47">
         <f t="shared" si="3"/>
@@ -6742,11 +6862,11 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>0.61279512566641281</v>
+        <v>0.45959634424980955</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>0.96000000000000008</v>
+        <v>0.96</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
@@ -6754,11 +6874,11 @@
       </c>
       <c r="I47">
         <f t="shared" si="7"/>
-        <v>0.24180000000000004</v>
+        <v>0.93000000000000016</v>
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
-        <v>2.5343057306303254</v>
+        <v>0.4941896174729134</v>
       </c>
       <c r="L47">
         <f t="shared" si="9"/>
@@ -6771,7 +6891,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2460</v>
+        <v>369</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -6779,7 +6899,7 @@
       </c>
       <c r="D48" s="47">
         <f t="shared" si="2"/>
-        <v>1.77</v>
+        <v>8.85</v>
       </c>
       <c r="E48" s="47">
         <f t="shared" si="3"/>
@@ -6787,7 +6907,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0.61764642041127193</v>
+        <v>0.46323481530845395</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
@@ -6799,11 +6919,11 @@
       </c>
       <c r="I48">
         <f t="shared" si="7"/>
-        <v>0.23809500000000003</v>
+        <v>0.91575000000000006</v>
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
-        <v>2.5941175598449018</v>
+        <v>0.5058529241697558</v>
       </c>
       <c r="L48">
         <f t="shared" si="9"/>
@@ -6816,7 +6936,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>378</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -6824,19 +6944,19 @@
       </c>
       <c r="D49" s="47">
         <f t="shared" si="2"/>
-        <v>1.74</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="E49" s="47">
         <f t="shared" si="3"/>
-        <v>0.57999999999999996</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>0.62198705255140896</v>
+        <v>0.46649028941355675</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>0.97440000000000004</v>
+        <v>0.97440000000000015</v>
       </c>
       <c r="H49">
         <f t="shared" si="6"/>
@@ -6844,11 +6964,11 @@
       </c>
       <c r="I49">
         <f t="shared" si="7"/>
-        <v>0.23438999999999999</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
-        <v>2.6536415911575109</v>
+        <v>0.5174601102757147</v>
       </c>
       <c r="L49">
         <f t="shared" si="9"/>
@@ -6861,7 +6981,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>2580</v>
+        <v>387</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -6869,19 +6989,19 @@
       </c>
       <c r="D50" s="47">
         <f t="shared" si="2"/>
-        <v>1.71</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E50" s="47">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>0.6258170220868241</v>
+        <v>0.46936276656511811</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>0.98040000000000016</v>
+        <v>0.98040000000000027</v>
       </c>
       <c r="H50">
         <f t="shared" si="6"/>
@@ -6889,11 +7009,11 @@
       </c>
       <c r="I50">
         <f t="shared" si="7"/>
-        <v>0.23068500000000003</v>
+        <v>0.88725000000000009</v>
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
-        <v>2.7128639577208054</v>
+        <v>0.5290084717555571</v>
       </c>
       <c r="L50">
         <f t="shared" si="9"/>
@@ -6906,7 +7026,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>2640</v>
+        <v>396</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -6914,19 +7034,19 @@
       </c>
       <c r="D51" s="47">
         <f t="shared" si="2"/>
-        <v>1.68</v>
+        <v>8.4</v>
       </c>
       <c r="E51" s="47">
         <f t="shared" si="3"/>
-        <v>0.55999999999999994</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>0.62913632901751715</v>
+        <v>0.47185224676313786</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>0.98560000000000003</v>
+        <v>0.98560000000000014</v>
       </c>
       <c r="H51">
         <f t="shared" si="6"/>
@@ -6934,11 +7054,11 @@
       </c>
       <c r="I51">
         <f t="shared" si="7"/>
-        <v>0.22698000000000004</v>
+        <v>0.87300000000000011</v>
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>2.771769887291907</v>
+        <v>0.5404951280219219</v>
       </c>
       <c r="L51">
         <f t="shared" si="9"/>
@@ -6951,7 +7071,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>405</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -6959,7 +7079,7 @@
       </c>
       <c r="D52" s="47">
         <f t="shared" si="2"/>
-        <v>1.6500000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="E52" s="47">
         <f t="shared" si="3"/>
@@ -6967,7 +7087,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>0.6319449733434882</v>
+        <v>0.47395873000761612</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
@@ -6979,11 +7099,11 @@
       </c>
       <c r="I52">
         <f t="shared" si="7"/>
-        <v>0.223275</v>
+        <v>0.85875000000000001</v>
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
-        <v>2.8303436271122524</v>
+        <v>0.55191700728688919</v>
       </c>
       <c r="L52">
         <f t="shared" si="9"/>
@@ -6996,7 +7116,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>2760</v>
+        <v>414</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -7004,19 +7124,19 @@
       </c>
       <c r="D53" s="47">
         <f t="shared" si="2"/>
-        <v>1.62</v>
+        <v>8.1</v>
       </c>
       <c r="E53" s="47">
         <f t="shared" si="3"/>
-        <v>0.54</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>0.63424295506473738</v>
+        <v>0.47568221629855284</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>0.99360000000000026</v>
+        <v>0.99359999999999993</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
@@ -7024,11 +7144,11 @@
       </c>
       <c r="I53">
         <f t="shared" si="7"/>
-        <v>0.21957000000000007</v>
+        <v>0.84450000000000025</v>
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
-        <v>2.8885683611820245</v>
+        <v>0.56327083043049464</v>
       </c>
       <c r="L53">
         <f t="shared" si="9"/>
@@ -7041,7 +7161,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>423</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -7049,7 +7169,7 @@
       </c>
       <c r="D54" s="47">
         <f t="shared" si="2"/>
-        <v>1.59</v>
+        <v>7.95</v>
       </c>
       <c r="E54" s="47">
         <f t="shared" si="3"/>
@@ -7057,11 +7177,11 @@
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>0.63603027418126434</v>
+        <v>0.47702270563594817</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>0.99640000000000017</v>
+        <v>0.99640000000000006</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
@@ -7069,11 +7189,11 @@
       </c>
       <c r="I54">
         <f t="shared" si="7"/>
-        <v>0.21586500000000006</v>
+        <v>0.83025000000000015</v>
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
-        <v>2.9464261190154226</v>
+        <v>0.57455309320800729</v>
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
@@ -7086,7 +7206,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>2880</v>
+        <v>432</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -7094,7 +7214,7 @@
       </c>
       <c r="D55" s="47">
         <f t="shared" si="2"/>
-        <v>1.56</v>
+        <v>7.8</v>
       </c>
       <c r="E55" s="47">
         <f t="shared" si="3"/>
@@ -7102,7 +7222,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>0.63730693069306932</v>
+        <v>0.47798019801980196</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
@@ -7114,11 +7234,11 @@
       </c>
       <c r="I55">
         <f t="shared" si="7"/>
-        <v>0.21216000000000002</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>3.0038976748353567</v>
+        <v>0.58576004659289449</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
@@ -7131,7 +7251,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>2940</v>
+        <v>441</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -7139,7 +7259,7 @@
       </c>
       <c r="D56" s="47">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>7.65</v>
       </c>
       <c r="E56" s="47">
         <f t="shared" si="3"/>
@@ -7147,11 +7267,11 @@
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>0.6380729246001523</v>
+        <v>0.47855469345011425</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>0.99960000000000004</v>
+        <v>0.99960000000000016</v>
       </c>
       <c r="H56">
         <f t="shared" si="6"/>
@@ -7159,11 +7279,11 @@
       </c>
       <c r="I56">
         <f t="shared" si="7"/>
-        <v>0.20845500000000003</v>
+        <v>0.80175000000000018</v>
       </c>
       <c r="J56">
         <f t="shared" si="8"/>
-        <v>3.0609624360180963</v>
+        <v>0.59688767502352869</v>
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
@@ -7176,7 +7296,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -7184,7 +7304,7 @@
       </c>
       <c r="D57" s="47">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="E57" s="47">
         <f t="shared" si="3"/>
@@ -7192,7 +7312,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>0.6383282559025133</v>
+        <v>0.47874619192688495</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
@@ -7204,11 +7324,11 @@
       </c>
       <c r="I57">
         <f t="shared" si="7"/>
-        <v>0.20475000000000002</v>
+        <v>0.78750000000000009</v>
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
-        <v>3.117598319426194</v>
+        <v>0.60793167228810785</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
@@ -7221,7 +7341,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>3060</v>
+        <v>459</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -7229,19 +7349,19 @@
       </c>
       <c r="D58" s="47">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="E58" s="47">
         <f t="shared" si="3"/>
-        <v>0.49</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>0.6380729246001523</v>
+        <v>0.47855469345011425</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>0.99960000000000004</v>
+        <v>0.99960000000000016</v>
       </c>
       <c r="H58">
         <f t="shared" si="6"/>
@@ -7249,11 +7369,11 @@
       </c>
       <c r="I58">
         <f t="shared" si="7"/>
-        <v>0.20104500000000003</v>
+        <v>0.7732500000000001</v>
       </c>
       <c r="J58">
         <f t="shared" si="8"/>
-        <v>3.1737816140672597</v>
+        <v>0.6188874147431157</v>
       </c>
       <c r="L58">
         <f t="shared" si="9"/>
@@ -7266,7 +7386,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>468</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -7274,15 +7394,15 @@
       </c>
       <c r="D59" s="47">
         <f t="shared" si="2"/>
-        <v>1.44</v>
+        <v>7.2</v>
       </c>
       <c r="E59" s="47">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>0.63730693069306932</v>
+        <v>0.47798019801980196</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
@@ -7294,11 +7414,11 @@
       </c>
       <c r="I59">
         <f t="shared" si="7"/>
-        <v>0.19734000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="J59">
         <f t="shared" si="8"/>
-        <v>3.2294868282814901</v>
+        <v>0.62974993151489056</v>
       </c>
       <c r="L59">
         <f t="shared" si="9"/>
@@ -7311,7 +7431,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>3180</v>
+        <v>477</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -7319,7 +7439,7 @@
       </c>
       <c r="D60" s="47">
         <f t="shared" si="2"/>
-        <v>1.41</v>
+        <v>7.05</v>
       </c>
       <c r="E60" s="47">
         <f t="shared" si="3"/>
@@ -7327,11 +7447,11 @@
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>0.63603027418126434</v>
+        <v>0.47702270563594817</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>0.99640000000000017</v>
+        <v>0.99640000000000006</v>
       </c>
       <c r="H60">
         <f t="shared" si="6"/>
@@ -7339,11 +7459,11 @@
       </c>
       <c r="I60">
         <f t="shared" si="7"/>
-        <v>0.19363500000000003</v>
+        <v>0.74475000000000002</v>
       </c>
       <c r="J60">
         <f t="shared" si="8"/>
-        <v>3.2846865193857733</v>
+        <v>0.64051387128022574</v>
       </c>
       <c r="L60">
         <f t="shared" si="9"/>
@@ -7356,7 +7476,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>3240</v>
+        <v>486.00000000000006</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -7364,7 +7484,7 @@
       </c>
       <c r="D61" s="47">
         <f t="shared" si="2"/>
-        <v>1.3800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="E61" s="47">
         <f t="shared" si="3"/>
@@ -7372,7 +7492,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>0.63424295506473738</v>
+        <v>0.47568221629855301</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
@@ -7384,11 +7504,11 @@
       </c>
       <c r="I61">
         <f t="shared" si="7"/>
-        <v>0.18993000000000002</v>
+        <v>0.73049999999999993</v>
       </c>
       <c r="J61">
         <f t="shared" si="8"/>
-        <v>3.3393511033788097</v>
+        <v>0.65117346515886798</v>
       </c>
       <c r="L61">
         <f t="shared" si="9"/>
@@ -7401,7 +7521,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>3300.0000000000005</v>
+        <v>495.00000000000006</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -7409,7 +7529,7 @@
       </c>
       <c r="D62" s="47">
         <f t="shared" si="2"/>
-        <v>1.35</v>
+        <v>6.75</v>
       </c>
       <c r="E62" s="47">
         <f t="shared" si="3"/>
@@ -7417,11 +7537,11 @@
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>0.63194497334348831</v>
+        <v>0.47395873000761624</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>0.99000000000000021</v>
+        <v>0.99000000000000032</v>
       </c>
       <c r="H62">
         <f t="shared" si="6"/>
@@ -7429,11 +7549,11 @@
       </c>
       <c r="I62">
         <f t="shared" si="7"/>
-        <v>0.18622500000000003</v>
+        <v>0.71625000000000005</v>
       </c>
       <c r="J62">
         <f t="shared" si="8"/>
-        <v>3.3934486419303971</v>
+        <v>0.66172248517642751</v>
       </c>
       <c r="L62">
         <f t="shared" si="9"/>
@@ -7446,7 +7566,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>3360.0000000000005</v>
+        <v>504.00000000000006</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -7454,15 +7574,15 @@
       </c>
       <c r="D63" s="47">
         <f t="shared" si="2"/>
-        <v>1.32</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="E63" s="47">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>0.62913632901751726</v>
+        <v>0.47185224676313792</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
@@ -7474,11 +7594,11 @@
       </c>
       <c r="I63">
         <f t="shared" si="7"/>
-        <v>0.18252000000000004</v>
+        <v>0.70200000000000018</v>
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
-        <v>3.4469446034271156</v>
+        <v>0.67215419766828743</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
@@ -7491,15 +7611,15 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>3420.0000000000005</v>
+        <v>513</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>0.57000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D64" s="47">
         <f t="shared" si="2"/>
-        <v>1.29</v>
+        <v>6.45</v>
       </c>
       <c r="E64" s="47">
         <f t="shared" si="3"/>
@@ -7507,11 +7627,11 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>0.62581702208682422</v>
+        <v>0.46936276656511799</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>0.98040000000000027</v>
+        <v>0.98039999999999994</v>
       </c>
       <c r="H64">
         <f t="shared" si="6"/>
@@ -7519,11 +7639,11 @@
       </c>
       <c r="I64">
         <f t="shared" si="7"/>
-        <v>0.178815</v>
+        <v>0.68775000000000008</v>
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
-        <v>3.4998015943115748</v>
+        <v>0.68246131089075668</v>
       </c>
       <c r="L64">
         <f t="shared" si="9"/>
@@ -7536,7 +7656,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>3479.9999999999995</v>
+        <v>522</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -7544,7 +7664,7 @@
       </c>
       <c r="D65" s="47">
         <f t="shared" si="2"/>
-        <v>1.26</v>
+        <v>6.3</v>
       </c>
       <c r="E65" s="47">
         <f t="shared" si="3"/>
@@ -7552,11 +7672,11 @@
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>0.62198705255140885</v>
+        <v>0.46649028941355675</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>0.97439999999999982</v>
+        <v>0.97440000000000015</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
@@ -7564,11 +7684,11 @@
       </c>
       <c r="I65">
         <f t="shared" si="7"/>
-        <v>0.17511000000000004</v>
+        <v>0.6735000000000001</v>
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
-        <v>3.5519790563155085</v>
+        <v>0.69263591598152441</v>
       </c>
       <c r="L65">
         <f t="shared" si="9"/>
@@ -7581,7 +7701,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>3540</v>
+        <v>531</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -7589,15 +7709,15 @@
       </c>
       <c r="D66" s="47">
         <f t="shared" si="2"/>
-        <v>1.23</v>
+        <v>6.15</v>
       </c>
       <c r="E66" s="47">
         <f t="shared" si="3"/>
-        <v>0.41</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>0.61764642041127193</v>
+        <v>0.46323481530845395</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
@@ -7609,11 +7729,11 @@
       </c>
       <c r="I66">
         <f t="shared" si="7"/>
-        <v>0.171405</v>
+        <v>0.65925</v>
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
-        <v>3.6034329244261949</v>
+        <v>0.70266942026310797</v>
       </c>
       <c r="L66">
         <f t="shared" si="9"/>
@@ -7626,7 +7746,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>540</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -7634,19 +7754,19 @@
       </c>
       <c r="D67" s="47">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="E67" s="47">
         <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>0.61279512566641281</v>
+        <v>0.45959634424980955</v>
       </c>
       <c r="G67">
         <f t="shared" si="5"/>
-        <v>0.96000000000000008</v>
+        <v>0.96</v>
       </c>
       <c r="H67">
         <f t="shared" si="6"/>
@@ -7654,11 +7774,11 @@
       </c>
       <c r="I67">
         <f t="shared" si="7"/>
-        <v>0.16769999999999999</v>
+        <v>0.64499999999999991</v>
       </c>
       <c r="J67">
         <f t="shared" si="8"/>
-        <v>3.6541152395134935</v>
+        <v>0.71255247170513114</v>
       </c>
       <c r="L67">
         <f t="shared" si="9"/>
@@ -7671,7 +7791,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
-        <v>3660</v>
+        <v>549</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -7679,15 +7799,15 @@
       </c>
       <c r="D68" s="47">
         <f t="shared" si="2"/>
-        <v>1.17</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="E68" s="47">
         <f t="shared" si="3"/>
-        <v>0.38999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
-        <v>0.6074331683168317</v>
+        <v>0.45557487623762377</v>
       </c>
       <c r="G68">
         <f t="shared" si="5"/>
@@ -7699,11 +7819,11 @@
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>0.163995</v>
+        <v>0.63074999999999992</v>
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>3.703973708447402</v>
+        <v>0.72227487314724348</v>
       </c>
       <c r="L68">
         <f t="shared" si="9"/>
@@ -7716,7 +7836,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
-        <v>3720</v>
+        <v>558</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -7724,19 +7844,19 @@
       </c>
       <c r="D69" s="47">
         <f t="shared" si="2"/>
-        <v>1.1400000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="E69" s="47">
         <f t="shared" si="3"/>
-        <v>0.38000000000000006</v>
+        <v>0.38</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>0.60156054836252859</v>
+        <v>0.45117041127189639</v>
       </c>
       <c r="G69">
         <f t="shared" si="5"/>
-        <v>0.94240000000000013</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="H69">
         <f t="shared" si="6"/>
@@ -7744,11 +7864,11 @@
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>0.16029000000000002</v>
+        <v>0.61650000000000005</v>
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>3.7529512032099852</v>
+        <v>0.7318254846259471</v>
       </c>
       <c r="L69">
         <f t="shared" si="9"/>
@@ -7761,7 +7881,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
-        <v>3780</v>
+        <v>567</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -7769,15 +7889,15 @@
       </c>
       <c r="D70" s="47">
         <f t="shared" si="2"/>
-        <v>1.1100000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="E70" s="47">
         <f t="shared" si="3"/>
-        <v>0.37000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>0.5951772658035035</v>
+        <v>0.44638294935262757</v>
       </c>
       <c r="G70">
         <f t="shared" si="5"/>
@@ -7789,11 +7909,11 @@
       </c>
       <c r="I70">
         <f t="shared" si="7"/>
-        <v>0.15658500000000003</v>
+        <v>0.60225000000000017</v>
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>3.8009851888974255</v>
+        <v>0.74119211183499778</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
@@ -7806,7 +7926,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>576</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -7814,7 +7934,7 @@
       </c>
       <c r="D71" s="47">
         <f t="shared" si="2"/>
-        <v>1.08</v>
+        <v>5.4</v>
       </c>
       <c r="E71" s="47">
         <f t="shared" si="3"/>
@@ -7822,7 +7942,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>0.58828332063975641</v>
+        <v>0.44121249047981725</v>
       </c>
       <c r="G71">
         <f t="shared" si="5"/>
@@ -7834,11 +7954,11 @@
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>0.15288000000000002</v>
+        <v>0.58800000000000008</v>
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
-        <v>3.8480070685489034</v>
+        <v>0.75036137836703609</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
@@ -7851,7 +7971,7 @@
       </c>
       <c r="B72">
         <f t="shared" ref="B72:B107" si="10">A72*0.01*$B$5</f>
-        <v>3900</v>
+        <v>585</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C107" si="11">B72/$B$5</f>
@@ -7859,15 +7979,15 @@
       </c>
       <c r="D72" s="47">
         <f t="shared" ref="D72:D107" si="12">(100-A72)*$B$3*0.01</f>
-        <v>1.05</v>
+        <v>5.25</v>
       </c>
       <c r="E72" s="47">
         <f t="shared" ref="E72:E107" si="13">D72/$B$3</f>
-        <v>0.35000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="F72">
         <f t="shared" ref="F72:F107" si="14">D72*B72/5252*0.745</f>
-        <v>0.58087871287128712</v>
+        <v>0.43565903465346534</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72:G108" si="15">F72/$F$108</f>
@@ -7879,11 +7999,11 @@
       </c>
       <c r="I72">
         <f t="shared" ref="I72:I107" si="17">H72*$B$2</f>
-        <v>0.14917499999999997</v>
+        <v>0.57374999999999998</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72:J107" si="18">F72/I72</f>
-        <v>3.8939414303421298</v>
+        <v>0.75931857891671517</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L107" si="19">A72</f>
@@ -7896,7 +8016,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="10"/>
-        <v>3960</v>
+        <v>594</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
@@ -7904,7 +8024,7 @@
       </c>
       <c r="D73" s="47">
         <f t="shared" si="12"/>
-        <v>1.02</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="E73" s="47">
         <f t="shared" si="13"/>
@@ -7912,7 +8032,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="14"/>
-        <v>0.57296344249809605</v>
+        <v>0.42972258187357198</v>
       </c>
       <c r="G73">
         <f t="shared" si="15"/>
@@ -7924,11 +8044,11 @@
       </c>
       <c r="I73">
         <f t="shared" si="17"/>
-        <v>0.14547000000000002</v>
+        <v>0.5595</v>
       </c>
       <c r="J73">
         <f t="shared" si="18"/>
-        <v>3.9387051797490615</v>
+        <v>0.76804751005106697</v>
       </c>
       <c r="L73">
         <f t="shared" si="19"/>
@@ -7941,7 +8061,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="10"/>
-        <v>4020.0000000000005</v>
+        <v>603</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
@@ -7949,7 +8069,7 @@
       </c>
       <c r="D74" s="47">
         <f t="shared" si="12"/>
-        <v>0.99</v>
+        <v>4.95</v>
       </c>
       <c r="E74" s="47">
         <f t="shared" si="13"/>
@@ -7957,11 +8077,11 @@
       </c>
       <c r="F74">
         <f t="shared" si="14"/>
-        <v>0.56453750952018289</v>
+        <v>0.42340313214013708</v>
       </c>
       <c r="G74">
         <f t="shared" si="15"/>
-        <v>0.88440000000000019</v>
+        <v>0.88440000000000007</v>
       </c>
       <c r="H74">
         <f t="shared" si="16"/>
@@ -7969,11 +8089,11 @@
       </c>
       <c r="I74">
         <f t="shared" si="17"/>
-        <v>0.14176500000000003</v>
+        <v>0.54525000000000001</v>
       </c>
       <c r="J74">
         <f t="shared" si="18"/>
-        <v>3.9822065356059873</v>
+        <v>0.77653027444316747</v>
       </c>
       <c r="L74">
         <f t="shared" si="19"/>
@@ -7986,7 +8106,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="10"/>
-        <v>4080.0000000000005</v>
+        <v>612</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
@@ -7994,7 +8114,7 @@
       </c>
       <c r="D75" s="47">
         <f t="shared" si="12"/>
-        <v>0.96</v>
+        <v>4.8</v>
       </c>
       <c r="E75" s="47">
         <f t="shared" si="13"/>
@@ -8002,7 +8122,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="14"/>
-        <v>0.55560091393754762</v>
+        <v>0.41670068545316069</v>
       </c>
       <c r="G75">
         <f t="shared" si="15"/>
@@ -8014,11 +8134,11 @@
       </c>
       <c r="I75">
         <f t="shared" si="17"/>
-        <v>0.13806000000000004</v>
+        <v>0.53100000000000014</v>
       </c>
       <c r="J75">
         <f t="shared" si="18"/>
-        <v>4.02434386453388</v>
+        <v>0.78474705358410657</v>
       </c>
       <c r="L75">
         <f t="shared" si="19"/>
@@ -8031,7 +8151,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="10"/>
-        <v>4140</v>
+        <v>621</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
@@ -8039,7 +8159,7 @@
       </c>
       <c r="D76" s="47">
         <f t="shared" si="12"/>
-        <v>0.93</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E76" s="47">
         <f t="shared" si="13"/>
@@ -8047,11 +8167,11 @@
       </c>
       <c r="F76">
         <f t="shared" si="14"/>
-        <v>0.54615365575019037</v>
+        <v>0.40961524181264281</v>
       </c>
       <c r="G76">
         <f t="shared" si="15"/>
-        <v>0.85560000000000003</v>
+        <v>0.85560000000000014</v>
       </c>
       <c r="H76">
         <f t="shared" si="16"/>
@@ -8059,11 +8179,11 @@
       </c>
       <c r="I76">
         <f t="shared" si="17"/>
-        <v>0.134355</v>
+        <v>0.51675000000000004</v>
       </c>
       <c r="J76">
         <f t="shared" si="18"/>
-        <v>4.0650043225052315</v>
+        <v>0.79267584288852011</v>
       </c>
       <c r="L76">
         <f t="shared" si="19"/>
@@ -8076,15 +8196,15 @@
       </c>
       <c r="B77">
         <f t="shared" si="10"/>
-        <v>4200</v>
+        <v>630.00000000000011</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>0.7</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="D77" s="47">
         <f t="shared" si="12"/>
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="E77" s="47">
         <f t="shared" si="13"/>
@@ -8092,11 +8212,11 @@
       </c>
       <c r="F77">
         <f t="shared" si="14"/>
-        <v>0.53619573495811124</v>
+        <v>0.40214680121858348</v>
       </c>
       <c r="G77">
         <f t="shared" si="15"/>
-        <v>0.84000000000000008</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="H77">
         <f t="shared" si="16"/>
@@ -8104,11 +8224,11 @@
       </c>
       <c r="I77">
         <f t="shared" si="17"/>
-        <v>0.13064999999999999</v>
+        <v>0.50249999999999995</v>
       </c>
       <c r="J77">
         <f t="shared" si="18"/>
-        <v>4.104062265274484</v>
+        <v>0.80029214172852448</v>
       </c>
       <c r="L77">
         <f t="shared" si="19"/>
@@ -8121,7 +8241,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="10"/>
-        <v>4260</v>
+        <v>639</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
@@ -8129,19 +8249,19 @@
       </c>
       <c r="D78" s="47">
         <f t="shared" si="12"/>
-        <v>0.87</v>
+        <v>4.3500000000000005</v>
       </c>
       <c r="E78" s="47">
         <f t="shared" si="13"/>
-        <v>0.28999999999999998</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="F78">
         <f t="shared" si="14"/>
-        <v>0.52572715156131</v>
+        <v>0.39429536367098256</v>
       </c>
       <c r="G78">
         <f t="shared" si="15"/>
-        <v>0.82360000000000011</v>
+        <v>0.82360000000000022</v>
       </c>
       <c r="H78">
         <f t="shared" si="16"/>
@@ -8149,11 +8269,11 @@
       </c>
       <c r="I78">
         <f t="shared" si="17"/>
-        <v>0.126945</v>
+        <v>0.48825000000000002</v>
       </c>
       <c r="J78">
         <f t="shared" si="18"/>
-        <v>4.1413773804506677</v>
+        <v>0.80756858918788033</v>
       </c>
       <c r="L78">
         <f t="shared" si="19"/>
@@ -8166,7 +8286,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="10"/>
-        <v>4320</v>
+        <v>648</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
@@ -8174,15 +8294,15 @@
       </c>
       <c r="D79" s="47">
         <f t="shared" si="12"/>
-        <v>0.84</v>
+        <v>4.2</v>
       </c>
       <c r="E79" s="47">
         <f t="shared" si="13"/>
-        <v>0.27999999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F79">
         <f t="shared" si="14"/>
-        <v>0.51474790555978678</v>
+        <v>0.38606092916984008</v>
       </c>
       <c r="G79">
         <f t="shared" si="15"/>
@@ -8194,11 +8314,11 @@
       </c>
       <c r="I79">
         <f t="shared" si="17"/>
-        <v>0.12324000000000003</v>
+        <v>0.47400000000000009</v>
       </c>
       <c r="J79">
         <f t="shared" si="18"/>
-        <v>4.1767924826337772</v>
+        <v>0.8144745341135865</v>
       </c>
       <c r="L79">
         <f t="shared" si="19"/>
@@ -8211,7 +8331,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="10"/>
-        <v>4380</v>
+        <v>657</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
@@ -8219,19 +8339,19 @@
       </c>
       <c r="D80" s="47">
         <f t="shared" si="12"/>
-        <v>0.81</v>
+        <v>4.05</v>
       </c>
       <c r="E80" s="47">
         <f t="shared" si="13"/>
-        <v>0.27</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="F80">
         <f t="shared" si="14"/>
-        <v>0.50325799695354156</v>
+        <v>0.37744349771515617</v>
       </c>
       <c r="G80">
         <f t="shared" si="15"/>
-        <v>0.7884000000000001</v>
+        <v>0.78840000000000021</v>
       </c>
       <c r="H80">
         <f t="shared" si="16"/>
@@ -8239,11 +8359,11 @@
       </c>
       <c r="I80">
         <f t="shared" si="17"/>
-        <v>0.119535</v>
+        <v>0.45974999999999999</v>
       </c>
       <c r="J80">
         <f t="shared" si="18"/>
-        <v>4.2101308985112444</v>
+        <v>0.82097552520969264</v>
       </c>
       <c r="L80">
         <f t="shared" si="19"/>
@@ -8256,7 +8376,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="10"/>
-        <v>4440</v>
+        <v>666</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
@@ -8264,7 +8384,7 @@
       </c>
       <c r="D81" s="47">
         <f t="shared" si="12"/>
-        <v>0.78</v>
+        <v>3.9</v>
       </c>
       <c r="E81" s="47">
         <f t="shared" si="13"/>
@@ -8272,11 +8392,11 @@
       </c>
       <c r="F81">
         <f t="shared" si="14"/>
-        <v>0.49125742574257425</v>
+        <v>0.36844306930693072</v>
       </c>
       <c r="G81">
         <f t="shared" si="15"/>
-        <v>0.76960000000000006</v>
+        <v>0.76960000000000017</v>
       </c>
       <c r="H81">
         <f t="shared" si="16"/>
@@ -8284,11 +8404,11 @@
       </c>
       <c r="I81">
         <f t="shared" si="17"/>
-        <v>0.11583000000000002</v>
+        <v>0.44550000000000006</v>
       </c>
       <c r="J81">
         <f t="shared" si="18"/>
-        <v>4.2411933501042407</v>
+        <v>0.82703270327032696</v>
       </c>
       <c r="L81">
         <f t="shared" si="19"/>
@@ -8301,7 +8421,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="10"/>
-        <v>4500</v>
+        <v>675</v>
       </c>
       <c r="C82">
         <f t="shared" si="11"/>
@@ -8309,7 +8429,7 @@
       </c>
       <c r="D82" s="47">
         <f t="shared" si="12"/>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="E82" s="47">
         <f t="shared" si="13"/>
@@ -8317,7 +8437,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="14"/>
-        <v>0.47874619192688495</v>
+        <v>0.35905964394516371</v>
       </c>
       <c r="G82">
         <f t="shared" si="15"/>
@@ -8329,11 +8449,11 @@
       </c>
       <c r="I82">
         <f t="shared" si="17"/>
-        <v>0.11212499999999999</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="J82">
         <f t="shared" si="18"/>
-        <v>4.2697542200837013</v>
+        <v>0.83260207291632171</v>
       </c>
       <c r="L82">
         <f t="shared" si="19"/>
@@ -8346,7 +8466,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="10"/>
-        <v>4560</v>
+        <v>684</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
@@ -8354,19 +8474,19 @@
       </c>
       <c r="D83" s="47">
         <f t="shared" si="12"/>
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="E83" s="47">
         <f t="shared" si="13"/>
-        <v>0.24</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="F83">
         <f t="shared" si="14"/>
-        <v>0.46572429550647371</v>
+        <v>0.34929322162985532</v>
       </c>
       <c r="G83">
         <f t="shared" si="15"/>
-        <v>0.72960000000000003</v>
+        <v>0.72960000000000014</v>
       </c>
       <c r="H83">
         <f t="shared" si="16"/>
@@ -8374,11 +8494,11 @@
       </c>
       <c r="I83">
         <f t="shared" si="17"/>
-        <v>0.10841999999999997</v>
+        <v>0.41699999999999987</v>
       </c>
       <c r="J83">
         <f t="shared" si="18"/>
-        <v>4.2955570513417616</v>
+        <v>0.83763362501164373</v>
       </c>
       <c r="L83">
         <f t="shared" si="19"/>
@@ -8391,7 +8511,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="10"/>
-        <v>4620</v>
+        <v>693</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
@@ -8399,7 +8519,7 @@
       </c>
       <c r="D84" s="47">
         <f t="shared" si="12"/>
-        <v>0.69000000000000006</v>
+        <v>3.45</v>
       </c>
       <c r="E84" s="47">
         <f t="shared" si="13"/>
@@ -8407,11 +8527,11 @@
       </c>
       <c r="F84">
         <f t="shared" si="14"/>
-        <v>0.45219173648134048</v>
+        <v>0.33914380236100528</v>
       </c>
       <c r="G84">
         <f t="shared" si="15"/>
-        <v>0.70840000000000014</v>
+        <v>0.70839999999999992</v>
       </c>
       <c r="H84">
         <f t="shared" si="16"/>
@@ -8419,11 +8539,11 @@
       </c>
       <c r="I84">
         <f t="shared" si="17"/>
-        <v>0.10471500000000003</v>
+        <v>0.40275000000000011</v>
       </c>
       <c r="J84">
         <f t="shared" si="18"/>
-        <v>4.3183090911649753</v>
+        <v>0.84207027277716995</v>
       </c>
       <c r="L84">
         <f t="shared" si="19"/>
@@ -8436,7 +8556,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="10"/>
-        <v>4680</v>
+        <v>702</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
@@ -8444,15 +8564,15 @@
       </c>
       <c r="D85" s="47">
         <f t="shared" si="12"/>
-        <v>0.66</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E85" s="47">
         <f t="shared" si="13"/>
-        <v>0.22</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F85">
         <f t="shared" si="14"/>
-        <v>0.4381485148514852</v>
+        <v>0.3286113861386139</v>
       </c>
       <c r="G85">
         <f t="shared" si="15"/>
@@ -8464,11 +8584,11 @@
       </c>
       <c r="I85">
         <f t="shared" si="17"/>
-        <v>0.10101</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="J85">
         <f t="shared" si="18"/>
-        <v>4.3376746347043378</v>
+        <v>0.84584655376734597</v>
       </c>
       <c r="L85">
         <f t="shared" si="19"/>
@@ -8481,7 +8601,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="10"/>
-        <v>4740</v>
+        <v>711</v>
       </c>
       <c r="C86">
         <f t="shared" si="11"/>
@@ -8489,7 +8609,7 @@
       </c>
       <c r="D86" s="47">
         <f t="shared" si="12"/>
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="E86" s="47">
         <f t="shared" si="13"/>
@@ -8497,11 +8617,11 @@
       </c>
       <c r="F86">
         <f t="shared" si="14"/>
-        <v>0.42359463061690777</v>
+        <v>0.31769597296268087</v>
       </c>
       <c r="G86">
         <f t="shared" si="15"/>
-        <v>0.66359999999999997</v>
+        <v>0.66360000000000008</v>
       </c>
       <c r="H86">
         <f t="shared" si="16"/>
@@ -8509,11 +8629,11 @@
       </c>
       <c r="I86">
         <f t="shared" si="17"/>
-        <v>9.730500000000003E-2</v>
+        <v>0.37425000000000008</v>
       </c>
       <c r="J86">
         <f t="shared" si="18"/>
-        <v>4.3532668477149956</v>
+        <v>0.84888703530442433</v>
       </c>
       <c r="L86">
         <f t="shared" si="19"/>
@@ -8526,7 +8646,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="10"/>
-        <v>4800</v>
+        <v>720</v>
       </c>
       <c r="C87">
         <f t="shared" si="11"/>
@@ -8534,19 +8654,19 @@
       </c>
       <c r="D87" s="47">
         <f t="shared" si="12"/>
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E87" s="47">
         <f t="shared" si="13"/>
-        <v>0.19999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="F87">
         <f t="shared" si="14"/>
-        <v>0.40853008377760852</v>
+        <v>0.3063975628332064</v>
       </c>
       <c r="G87">
         <f t="shared" si="15"/>
-        <v>0.64</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="H87">
         <f t="shared" si="16"/>
@@ -8554,11 +8674,11 @@
       </c>
       <c r="I87">
         <f t="shared" si="17"/>
-        <v>9.3600000000000003E-2</v>
+        <v>0.36</v>
       </c>
       <c r="J87">
         <f t="shared" si="18"/>
-        <v>4.3646376471966724</v>
+        <v>0.85110434120335121</v>
       </c>
       <c r="L87">
         <f t="shared" si="19"/>
@@ -8571,7 +8691,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="10"/>
-        <v>4860</v>
+        <v>729</v>
       </c>
       <c r="C88">
         <f t="shared" si="11"/>
@@ -8579,19 +8699,19 @@
       </c>
       <c r="D88" s="47">
         <f t="shared" si="12"/>
-        <v>0.57000000000000006</v>
+        <v>2.85</v>
       </c>
       <c r="E88" s="47">
         <f t="shared" si="13"/>
-        <v>0.19000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="F88">
         <f t="shared" si="14"/>
-        <v>0.39295487433358722</v>
+        <v>0.29471615575019044</v>
       </c>
       <c r="G88">
         <f t="shared" si="15"/>
-        <v>0.61560000000000004</v>
+        <v>0.61560000000000015</v>
       </c>
       <c r="H88">
         <f t="shared" si="16"/>
@@ -8599,11 +8719,11 @@
       </c>
       <c r="I88">
         <f t="shared" si="17"/>
-        <v>8.9894999999999975E-2</v>
+        <v>0.34574999999999989</v>
       </c>
       <c r="J88">
         <f t="shared" si="18"/>
-        <v>4.3712650796327646</v>
+        <v>0.85239669052838907</v>
       </c>
       <c r="L88">
         <f t="shared" si="19"/>
@@ -8616,7 +8736,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="10"/>
-        <v>4920</v>
+        <v>738</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
@@ -8624,7 +8744,7 @@
       </c>
       <c r="D89" s="47">
         <f t="shared" si="12"/>
-        <v>0.54</v>
+        <v>2.7</v>
       </c>
       <c r="E89" s="47">
         <f t="shared" si="13"/>
@@ -8632,11 +8752,11 @@
       </c>
       <c r="F89">
         <f t="shared" si="14"/>
-        <v>0.37686900228484388</v>
+        <v>0.28265175171363294</v>
       </c>
       <c r="G89">
         <f t="shared" si="15"/>
-        <v>0.59040000000000004</v>
+        <v>0.59040000000000015</v>
       </c>
       <c r="H89">
         <f t="shared" si="16"/>
@@ -8644,11 +8764,11 @@
       </c>
       <c r="I89">
         <f t="shared" si="17"/>
-        <v>8.619000000000003E-2</v>
+        <v>0.33150000000000013</v>
       </c>
       <c r="J89">
         <f t="shared" si="18"/>
-        <v>4.3725374438431803</v>
+        <v>0.85264480154942035</v>
       </c>
       <c r="L89">
         <f t="shared" si="19"/>
@@ -8661,15 +8781,15 @@
       </c>
       <c r="B90">
         <f t="shared" si="10"/>
-        <v>4980</v>
+        <v>747.00000000000011</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
-        <v>0.83</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="D90" s="47">
         <f t="shared" si="12"/>
-        <v>0.51</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="E90" s="47">
         <f t="shared" si="13"/>
@@ -8677,11 +8797,11 @@
       </c>
       <c r="F90">
         <f t="shared" si="14"/>
-        <v>0.36027246763137855</v>
+        <v>0.27020435072353394</v>
       </c>
       <c r="G90">
         <f t="shared" si="15"/>
-        <v>0.56440000000000001</v>
+        <v>0.56440000000000012</v>
       </c>
       <c r="H90">
         <f t="shared" si="16"/>
@@ -8689,11 +8809,11 @@
       </c>
       <c r="I90">
         <f t="shared" si="17"/>
-        <v>8.2485000000000017E-2</v>
+        <v>0.31725000000000003</v>
       </c>
       <c r="J90">
         <f t="shared" si="18"/>
-        <v>4.3677331348897193</v>
+        <v>0.85170796130349535</v>
       </c>
       <c r="L90">
         <f t="shared" si="19"/>
@@ -8706,7 +8826,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="10"/>
-        <v>5040</v>
+        <v>756</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
@@ -8714,7 +8834,7 @@
       </c>
       <c r="D91" s="47">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>2.4</v>
       </c>
       <c r="E91" s="47">
         <f t="shared" si="13"/>
@@ -8722,11 +8842,11 @@
       </c>
       <c r="F91">
         <f t="shared" si="14"/>
-        <v>0.34316527037319111</v>
+        <v>0.25737395277989339</v>
       </c>
       <c r="G91">
         <f t="shared" si="15"/>
-        <v>0.53759999999999997</v>
+        <v>0.53760000000000008</v>
       </c>
       <c r="H91">
         <f t="shared" si="16"/>
@@ -8734,11 +8854,11 @@
       </c>
       <c r="I91">
         <f t="shared" si="17"/>
-        <v>7.8779999999999989E-2</v>
+        <v>0.30299999999999994</v>
       </c>
       <c r="J91">
         <f t="shared" si="18"/>
-        <v>4.3559948003705404</v>
+        <v>0.84941898607225563</v>
       </c>
       <c r="L91">
         <f t="shared" si="19"/>
@@ -8751,7 +8871,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="10"/>
-        <v>5100</v>
+        <v>765</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
@@ -8759,7 +8879,7 @@
       </c>
       <c r="D92" s="47">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>2.25</v>
       </c>
       <c r="E92" s="47">
         <f t="shared" si="13"/>
@@ -8767,7 +8887,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="14"/>
-        <v>0.3255474105102818</v>
+        <v>0.24416055788271135</v>
       </c>
       <c r="G92">
         <f t="shared" si="15"/>
@@ -8779,11 +8899,11 @@
       </c>
       <c r="I92">
         <f t="shared" si="17"/>
-        <v>7.5075000000000003E-2</v>
+        <v>0.28875000000000001</v>
       </c>
       <c r="J92">
         <f t="shared" si="18"/>
-        <v>4.3362958442927972</v>
+        <v>0.84557768963709556</v>
       </c>
       <c r="L92">
         <f t="shared" si="19"/>
@@ -8796,7 +8916,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="10"/>
-        <v>5160</v>
+        <v>774</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
@@ -8804,19 +8924,19 @@
       </c>
       <c r="D93" s="47">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>2.1</v>
       </c>
       <c r="E93" s="47">
         <f t="shared" si="13"/>
-        <v>0.13999999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F93">
         <f t="shared" si="14"/>
-        <v>0.30741888804265038</v>
+        <v>0.23056416603198784</v>
       </c>
       <c r="G93">
         <f t="shared" si="15"/>
-        <v>0.48159999999999997</v>
+        <v>0.48160000000000014</v>
       </c>
       <c r="H93">
         <f t="shared" si="16"/>
@@ -8824,11 +8944,11 @@
       </c>
       <c r="I93">
         <f t="shared" si="17"/>
-        <v>7.1369999999999975E-2</v>
+        <v>0.27449999999999991</v>
       </c>
       <c r="J93">
         <f t="shared" si="18"/>
-        <v>4.3073964977252412</v>
+        <v>0.83994231705642231</v>
       </c>
       <c r="L93">
         <f t="shared" si="19"/>
@@ -8841,7 +8961,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="10"/>
-        <v>5220</v>
+        <v>783</v>
       </c>
       <c r="C94">
         <f t="shared" si="11"/>
@@ -8849,7 +8969,7 @@
       </c>
       <c r="D94" s="47">
         <f t="shared" si="12"/>
-        <v>0.39</v>
+        <v>1.95</v>
       </c>
       <c r="E94" s="47">
         <f t="shared" si="13"/>
@@ -8857,7 +8977,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="14"/>
-        <v>0.28877970297029704</v>
+        <v>0.21658477722772276</v>
       </c>
       <c r="G94">
         <f t="shared" si="15"/>
@@ -8869,11 +8989,11 @@
       </c>
       <c r="I94">
         <f t="shared" si="17"/>
-        <v>6.7665000000000045E-2</v>
+        <v>0.26025000000000015</v>
       </c>
       <c r="J94">
         <f t="shared" si="18"/>
-        <v>4.2677854573309224</v>
+        <v>0.83221816417952987</v>
       </c>
       <c r="L94">
         <f t="shared" si="19"/>
@@ -8886,7 +9006,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="10"/>
-        <v>5280</v>
+        <v>792</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
@@ -8894,19 +9014,19 @@
       </c>
       <c r="D95" s="47">
         <f t="shared" si="12"/>
-        <v>0.36</v>
+        <v>1.8</v>
       </c>
       <c r="E95" s="47">
         <f t="shared" si="13"/>
-        <v>0.12</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="F95">
         <f t="shared" si="14"/>
-        <v>0.26962985529322159</v>
+        <v>0.20222239146991625</v>
       </c>
       <c r="G95">
         <f t="shared" si="15"/>
-        <v>0.42239999999999994</v>
+        <v>0.42240000000000011</v>
       </c>
       <c r="H95">
         <f t="shared" si="16"/>
@@ -8914,11 +9034,11 @@
       </c>
       <c r="I95">
         <f t="shared" si="17"/>
-        <v>6.3960000000000017E-2</v>
+        <v>0.24600000000000005</v>
       </c>
       <c r="J95">
         <f t="shared" si="18"/>
-        <v>4.2156012397314182</v>
+        <v>0.82204224174762686</v>
       </c>
       <c r="L95">
         <f t="shared" si="19"/>
@@ -8931,7 +9051,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="10"/>
-        <v>5340</v>
+        <v>801</v>
       </c>
       <c r="C96">
         <f t="shared" si="11"/>
@@ -8939,19 +9059,19 @@
       </c>
       <c r="D96" s="47">
         <f t="shared" si="12"/>
-        <v>0.33</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E96" s="47">
         <f t="shared" si="13"/>
-        <v>0.11</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F96">
         <f t="shared" si="14"/>
-        <v>0.24996934501142423</v>
+        <v>0.18747700875856821</v>
       </c>
       <c r="G96">
         <f t="shared" si="15"/>
-        <v>0.39160000000000006</v>
+        <v>0.39160000000000011</v>
       </c>
       <c r="H96">
         <f t="shared" si="16"/>
@@ -8959,11 +9079,11 @@
       </c>
       <c r="I96">
         <f t="shared" si="17"/>
-        <v>6.0254999999999989E-2</v>
+        <v>0.23174999999999996</v>
       </c>
       <c r="J96">
         <f t="shared" si="18"/>
-        <v>4.1485245209762551</v>
+        <v>0.80896228159036998</v>
       </c>
       <c r="L96">
         <f t="shared" si="19"/>
@@ -8976,7 +9096,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="10"/>
-        <v>5400</v>
+        <v>810</v>
       </c>
       <c r="C97">
         <f t="shared" si="11"/>
@@ -8984,19 +9104,19 @@
       </c>
       <c r="D97" s="47">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="E97" s="47">
         <f t="shared" si="13"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F97">
         <f t="shared" si="14"/>
-        <v>0.22979817212490478</v>
+        <v>0.1723486290936786</v>
       </c>
       <c r="G97">
         <f t="shared" si="15"/>
-        <v>0.36</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="H97">
         <f t="shared" si="16"/>
@@ -9004,11 +9124,11 @@
       </c>
       <c r="I97">
         <f t="shared" si="17"/>
-        <v>5.655000000000001E-2</v>
+        <v>0.21750000000000003</v>
       </c>
       <c r="J97">
         <f t="shared" si="18"/>
-        <v>4.0636281542865555</v>
+        <v>0.79240749008587852</v>
       </c>
       <c r="L97">
         <f t="shared" si="19"/>
@@ -9021,7 +9141,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="10"/>
-        <v>5460</v>
+        <v>819</v>
       </c>
       <c r="C98">
         <f t="shared" si="11"/>
@@ -9029,7 +9149,7 @@
       </c>
       <c r="D98" s="47">
         <f t="shared" si="12"/>
-        <v>0.27</v>
+        <v>1.35</v>
       </c>
       <c r="E98" s="47">
         <f t="shared" si="13"/>
@@ -9037,7 +9157,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="14"/>
-        <v>0.20911633663366339</v>
+        <v>0.15683725247524755</v>
       </c>
       <c r="G98">
         <f t="shared" si="15"/>
@@ -9049,11 +9169,11 @@
       </c>
       <c r="I98">
         <f t="shared" si="17"/>
-        <v>5.2844999999999982E-2</v>
+        <v>0.20324999999999993</v>
       </c>
       <c r="J98">
         <f t="shared" si="18"/>
-        <v>3.9571640956318186</v>
+        <v>0.77164699864820463</v>
       </c>
       <c r="L98">
         <f t="shared" si="19"/>
@@ -9066,7 +9186,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="10"/>
-        <v>5520</v>
+        <v>828</v>
       </c>
       <c r="C99">
         <f t="shared" si="11"/>
@@ -9074,7 +9194,7 @@
       </c>
       <c r="D99" s="47">
         <f t="shared" si="12"/>
-        <v>0.24</v>
+        <v>1.2</v>
       </c>
       <c r="E99" s="47">
         <f t="shared" si="13"/>
@@ -9082,7 +9202,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="14"/>
-        <v>0.18792383853769989</v>
+        <v>0.14094287890327492</v>
       </c>
       <c r="G99">
         <f t="shared" si="15"/>
@@ -9094,11 +9214,11 @@
       </c>
       <c r="I99">
         <f t="shared" si="17"/>
-        <v>4.9140000000000045E-2</v>
+        <v>0.18900000000000017</v>
       </c>
       <c r="J99">
         <f t="shared" si="18"/>
-        <v>3.824253938496128</v>
+        <v>0.74572951800674492</v>
       </c>
       <c r="L99">
         <f t="shared" si="19"/>
@@ -9111,7 +9231,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="10"/>
-        <v>5580</v>
+        <v>837</v>
       </c>
       <c r="C100">
         <f t="shared" si="11"/>
@@ -9119,15 +9239,15 @@
       </c>
       <c r="D100" s="47">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>1.05</v>
       </c>
       <c r="E100" s="47">
         <f t="shared" si="13"/>
-        <v>6.9999999999999993E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="14"/>
-        <v>0.16622067783701447</v>
+        <v>0.12466550837776084</v>
       </c>
       <c r="G100">
         <f t="shared" si="15"/>
@@ -9139,11 +9259,11 @@
       </c>
       <c r="I100">
         <f t="shared" si="17"/>
-        <v>4.5435000000000017E-2</v>
+        <v>0.17475000000000007</v>
       </c>
       <c r="J100">
         <f t="shared" si="18"/>
-        <v>3.6584280364699993</v>
+        <v>0.71339346711164975</v>
       </c>
       <c r="L100">
         <f t="shared" si="19"/>
@@ -9156,7 +9276,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="10"/>
-        <v>5640</v>
+        <v>846</v>
       </c>
       <c r="C101">
         <f t="shared" si="11"/>
@@ -9164,19 +9284,19 @@
       </c>
       <c r="D101" s="47">
         <f t="shared" si="12"/>
-        <v>0.18</v>
+        <v>0.9</v>
       </c>
       <c r="E101" s="47">
         <f t="shared" si="13"/>
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F101">
         <f t="shared" si="14"/>
-        <v>0.144006854531607</v>
+        <v>0.10800514089870525</v>
       </c>
       <c r="G101">
         <f t="shared" si="15"/>
-        <v>0.22559999999999999</v>
+        <v>0.22560000000000002</v>
       </c>
       <c r="H101">
         <f t="shared" si="16"/>
@@ -9184,11 +9304,11 @@
       </c>
       <c r="I101">
         <f t="shared" si="17"/>
-        <v>4.1729999999999996E-2</v>
+        <v>0.16049999999999998</v>
       </c>
       <c r="J101">
         <f t="shared" si="18"/>
-        <v>3.450919111708771</v>
+        <v>0.67292922678321032</v>
       </c>
       <c r="L101">
         <f t="shared" si="19"/>
@@ -9201,23 +9321,23 @@
       </c>
       <c r="B102">
         <f t="shared" si="10"/>
-        <v>5700</v>
+        <v>855.00000000000011</v>
       </c>
       <c r="C102">
         <f t="shared" si="11"/>
-        <v>0.95</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D102" s="47">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="E102" s="47">
         <f t="shared" si="13"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F102">
         <f t="shared" si="14"/>
-        <v>0.12128236862147754</v>
+        <v>9.096177646610816E-2</v>
       </c>
       <c r="G102">
         <f t="shared" si="15"/>
@@ -9229,11 +9349,11 @@
       </c>
       <c r="I102">
         <f t="shared" si="17"/>
-        <v>3.802500000000001E-2</v>
+        <v>0.14625000000000005</v>
       </c>
       <c r="J102">
         <f t="shared" si="18"/>
-        <v>3.1895428960283367</v>
+        <v>0.6219608647255257</v>
       </c>
       <c r="L102">
         <f t="shared" si="19"/>
@@ -9246,7 +9366,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="10"/>
-        <v>5760</v>
+        <v>864</v>
       </c>
       <c r="C103">
         <f t="shared" si="11"/>
@@ -9254,7 +9374,7 @@
       </c>
       <c r="D103" s="47">
         <f t="shared" si="12"/>
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="E103" s="47">
         <f t="shared" si="13"/>
@@ -9262,11 +9382,11 @@
       </c>
       <c r="F103">
         <f t="shared" si="14"/>
-        <v>9.8047220106626032E-2</v>
+        <v>7.3535415079969538E-2</v>
       </c>
       <c r="G103">
         <f t="shared" si="15"/>
-        <v>0.15359999999999999</v>
+        <v>0.15360000000000001</v>
       </c>
       <c r="H103">
         <f t="shared" si="16"/>
@@ -9274,11 +9394,11 @@
       </c>
       <c r="I103">
         <f t="shared" si="17"/>
-        <v>3.4320000000000031E-2</v>
+        <v>0.13200000000000012</v>
       </c>
       <c r="J103">
         <f t="shared" si="18"/>
-        <v>2.8568537327105461</v>
+        <v>0.55708647787855659</v>
       </c>
       <c r="L103">
         <f t="shared" si="19"/>
@@ -9291,7 +9411,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="10"/>
-        <v>5820</v>
+        <v>873</v>
       </c>
       <c r="C104">
         <f t="shared" si="11"/>
@@ -9299,19 +9419,19 @@
       </c>
       <c r="D104" s="47">
         <f t="shared" si="12"/>
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="E104" s="47">
         <f t="shared" si="13"/>
-        <v>0.03</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="F104">
         <f t="shared" si="14"/>
-        <v>7.430140898705255E-2</v>
+        <v>5.5726056740289423E-2</v>
       </c>
       <c r="G104">
         <f t="shared" si="15"/>
-        <v>0.1164</v>
+        <v>0.11640000000000003</v>
       </c>
       <c r="H104">
         <f t="shared" si="16"/>
@@ -9319,11 +9439,11 @@
       </c>
       <c r="I104">
         <f t="shared" si="17"/>
-        <v>3.0615000000000007E-2</v>
+        <v>0.11775000000000002</v>
       </c>
       <c r="J104">
         <f t="shared" si="18"/>
-        <v>2.4269609337596778</v>
+        <v>0.47325738208313728</v>
       </c>
       <c r="L104">
         <f t="shared" si="19"/>
@@ -9336,7 +9456,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="10"/>
-        <v>5880</v>
+        <v>882</v>
       </c>
       <c r="C105">
         <f t="shared" si="11"/>
@@ -9344,7 +9464,7 @@
       </c>
       <c r="D105" s="47">
         <f t="shared" si="12"/>
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="E105" s="47">
         <f t="shared" si="13"/>
@@ -9352,7 +9472,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="14"/>
-        <v>5.0044935262757044E-2</v>
+        <v>3.7533701447067781E-2</v>
       </c>
       <c r="G105">
         <f t="shared" si="15"/>
@@ -9364,11 +9484,11 @@
       </c>
       <c r="I105">
         <f t="shared" si="17"/>
-        <v>2.6910000000000024E-2</v>
+        <v>0.10350000000000009</v>
       </c>
       <c r="J105">
         <f t="shared" si="18"/>
-        <v>1.8597151714142326</v>
+        <v>0.36264445842577536</v>
       </c>
       <c r="L105">
         <f t="shared" si="19"/>
@@ -9381,7 +9501,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="10"/>
-        <v>5940</v>
+        <v>891</v>
       </c>
       <c r="C106">
         <f t="shared" si="11"/>
@@ -9389,7 +9509,7 @@
       </c>
       <c r="D106" s="47">
         <f t="shared" si="12"/>
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="E106" s="47">
         <f t="shared" si="13"/>
@@ -9397,11 +9517,11 @@
       </c>
       <c r="F106">
         <f t="shared" si="14"/>
-        <v>2.5277798933739524E-2</v>
+        <v>1.8958349200304647E-2</v>
       </c>
       <c r="G106">
         <f t="shared" si="15"/>
-        <v>3.9599999999999996E-2</v>
+        <v>3.960000000000001E-2</v>
       </c>
       <c r="H106">
         <f t="shared" si="16"/>
@@ -9409,11 +9529,11 @@
       </c>
       <c r="I106">
         <f t="shared" si="17"/>
-        <v>2.3205E-2</v>
+        <v>8.9249999999999996E-2</v>
       </c>
       <c r="J106">
         <f t="shared" si="18"/>
-        <v>1.0893255304347995</v>
+        <v>0.21241847843478598</v>
       </c>
       <c r="L106">
         <f t="shared" si="19"/>
@@ -9426,7 +9546,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="10"/>
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="C107">
         <f t="shared" si="11"/>
@@ -9454,7 +9574,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="17"/>
-        <v>1.9500000000000017E-2</v>
+        <v>7.5000000000000067E-2</v>
       </c>
       <c r="J107">
         <f t="shared" si="18"/>
@@ -9468,7 +9588,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F108">
         <f>LARGE(F7:F107,1)</f>
-        <v>0.6383282559025133</v>
+        <v>0.47874619192688495</v>
       </c>
       <c r="G108">
         <f t="shared" si="15"/>
